--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EABF69-B842-4899-B5BD-958A2F719897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43BD34B-EFDC-F14F-AA6A-E8B92AC028B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="162">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -225,18 +225,6 @@
   </si>
   <si>
     <t>TheraSAbDab</t>
-  </si>
-  <si>
-    <t>PD2</t>
-  </si>
-  <si>
-    <t>PD3</t>
-  </si>
-  <si>
-    <t>PD4</t>
-  </si>
-  <si>
-    <t>PD5</t>
   </si>
   <si>
     <t>QVQLVESGGGVVQPGRSLRLSCAASGFTFLRYAMHWVRQAPGKGLEWVAVISYDGRYKYYADSVKGRFTISRDNSKNTLYLQMNSLRAEDTAVYYCTTTTFDSWGQGTLVTVSS</t>
@@ -950,56 +938,56 @@
   <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="1"/>
+    <col min="37" max="37" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -1007,16 +995,16 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
@@ -1046,76 +1034,76 @@
         <v>13</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1183,7 +1171,7 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1206,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
@@ -1221,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1247,7 +1235,7 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
@@ -1285,7 +1273,7 @@
         <v>12</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1311,7 +1299,7 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>4</v>
@@ -1349,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1375,7 +1363,7 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1374,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
@@ -1395,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
@@ -1413,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1439,7 +1427,7 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1450,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
@@ -1459,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
@@ -1477,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1503,9 +1491,9 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -1514,7 +1502,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E8" s="8">
         <v>3</v>
@@ -1523,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -1541,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1567,9 +1555,9 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1578,7 +1566,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E9" s="8">
         <v>3</v>
@@ -1587,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
@@ -1605,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1631,9 +1619,9 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -1651,10 +1639,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
@@ -1669,7 +1657,7 @@
         <v>12</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1695,7 +1683,7 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1711,10 +1699,10 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
@@ -1751,7 +1739,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1767,10 +1755,10 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
@@ -1807,7 +1795,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1823,10 +1811,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
@@ -1863,7 +1851,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1879,10 +1867,10 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
@@ -1919,7 +1907,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -1935,10 +1923,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
@@ -1975,7 +1963,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -1991,10 +1979,10 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
@@ -2031,7 +2019,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -2047,10 +2035,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
@@ -2087,7 +2075,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -2103,10 +2091,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
@@ -2143,7 +2131,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -2159,10 +2147,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
@@ -2199,7 +2187,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -2215,10 +2203,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
@@ -2255,7 +2243,7 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -2271,10 +2259,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
@@ -2311,7 +2299,7 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2327,10 +2315,10 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
@@ -2367,7 +2355,7 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -2383,10 +2371,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
@@ -2423,7 +2411,7 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -2439,10 +2427,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
@@ -2479,7 +2467,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -2495,10 +2483,10 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
@@ -2535,7 +2523,7 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -2551,10 +2539,10 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
@@ -2591,7 +2579,7 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -2607,10 +2595,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
@@ -2647,7 +2635,7 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
@@ -2663,10 +2651,10 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="s">
@@ -2703,7 +2691,7 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -2719,10 +2707,10 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
@@ -2759,7 +2747,7 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -2775,10 +2763,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="s">
@@ -2815,7 +2803,7 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>48</v>
       </c>
@@ -2831,10 +2819,10 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
@@ -2871,7 +2859,7 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>49</v>
       </c>
@@ -2887,10 +2875,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
@@ -2927,7 +2915,7 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
@@ -2943,10 +2931,10 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
@@ -2983,7 +2971,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
@@ -2999,10 +2987,10 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
@@ -3039,7 +3027,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>52</v>
       </c>
@@ -3055,10 +3043,10 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
@@ -3095,7 +3083,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -3111,10 +3099,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
@@ -3151,7 +3139,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -3167,10 +3155,10 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
@@ -3207,7 +3195,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>55</v>
       </c>
@@ -3223,10 +3211,10 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3" t="s">
@@ -3263,7 +3251,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
@@ -3279,10 +3267,10 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3" t="s">
@@ -3319,7 +3307,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -3335,10 +3323,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
@@ -3375,7 +3363,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>58</v>
       </c>
@@ -3391,10 +3379,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
@@ -3431,7 +3419,7 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>59</v>
       </c>
@@ -3447,10 +3435,10 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="s">
@@ -3487,7 +3475,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>60</v>
       </c>
@@ -3503,10 +3491,10 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3" t="s">

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43BD34B-EFDC-F14F-AA6A-E8B92AC028B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871076A2-A463-FC4E-BB76-25425DAD3658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
@@ -554,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +564,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -619,6 +637,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -941,7 +968,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D6:D9"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1116,10 +1143,10 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1184,10 +1211,10 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="10">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1248,10 +1275,10 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1312,10 +1339,10 @@
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1376,10 +1403,10 @@
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1440,10 +1467,10 @@
       <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11">
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1504,10 +1531,10 @@
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1568,10 +1595,10 @@
       <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1632,10 +1659,10 @@
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871076A2-A463-FC4E-BB76-25425DAD3658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06871A8B-972F-4F0D-8A67-313F3E907AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="161">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -68,9 +68,6 @@
     <t>antigen_pdb_file</t>
   </si>
   <si>
-    <t>antibody_pdb_file</t>
-  </si>
-  <si>
     <t>ColabFold</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
     <t>EvoDiff, dd2169c, MSA_OA_DM_MAXSUB</t>
   </si>
   <si>
-    <t>TUPPD1-001_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>docking\candidate_PDBs\inputs\antigens\PD1\5jxe_pd1.pdb</t>
-  </si>
-  <si>
     <t>TUPPD1-002</t>
   </si>
   <si>
@@ -525,6 +516,12 @@
   </si>
   <si>
     <t>66,76,77,78,84,85,87,90,128</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/antigens/PD1/5jxe_pd1.pdb</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -968,70 +965,70 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="1"/>
+    <col min="37" max="37" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
@@ -1040,105 +1037,105 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="AJ1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -1155,24 +1152,25 @@
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
+      <c r="I2" s="3" t="str">
+        <f>_xlfn.CONCAT("./docking/inputs/PDBs/candidates/",A2,"/",A2,".pdb")</f>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-001/TUPPD1-001.pdb</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1198,15 +1196,15 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -1221,22 +1219,27 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I43" si="0">_xlfn.CONCAT("./docking/inputs/PDBs/candidates/",A3,"/",A3,".pdb")</f>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-002/TUPPD1-002.pdb</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1262,15 +1265,15 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -1285,22 +1288,27 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-003/TUPPD1-003.pdb</v>
+      </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1326,15 +1334,15 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -1346,25 +1354,30 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-004/TUPPD1-004.pdb</v>
+      </c>
       <c r="J5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1390,15 +1403,15 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -1410,25 +1423,30 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-005/TUPPD1-005.pdb</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1454,15 +1472,15 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -1474,25 +1492,30 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-006/TUPPD1-006.pdb</v>
+      </c>
       <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1518,15 +1541,15 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -1538,25 +1561,30 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-007/TUPPD1-007.pdb</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1582,15 +1610,15 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
@@ -1602,25 +1630,30 @@
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-008/TUPPD1-008.pdb</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1646,15 +1679,15 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -1666,25 +1699,30 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/TUPPD1-009/TUPPD1-009.pdb</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1710,15 +1748,15 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
@@ -1726,20 +1764,25 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Acrixolimab/Acrixolimab.pdb</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1766,15 +1809,15 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
@@ -1782,20 +1825,25 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Balstilimab/Balstilimab.pdb</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1822,15 +1870,15 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
@@ -1838,20 +1886,25 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Budigalimab/Budigalimab.pdb</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1878,15 +1931,15 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
@@ -1894,20 +1947,25 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Camrelizumab/Camrelizumab.pdb</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1934,15 +1992,15 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
@@ -1950,20 +2008,25 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Cemiplimab/Cemiplimab.pdb</v>
+      </c>
       <c r="J15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1990,15 +2053,15 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
@@ -2006,20 +2069,25 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Cetrelimab/Cetrelimab.pdb</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2046,15 +2114,15 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2</v>
@@ -2062,20 +2130,25 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Dostarlimab/Dostarlimab.pdb</v>
+      </c>
       <c r="J17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2102,15 +2175,15 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
@@ -2118,20 +2191,25 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Enlonstobart/Enlonstobart.pdb</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2158,15 +2236,15 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2</v>
@@ -2174,20 +2252,25 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Eurestobart/Eurestobart.pdb</v>
+      </c>
       <c r="J19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2214,15 +2297,15 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2</v>
@@ -2230,20 +2313,25 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Ezabenlimab/Ezabenlimab.pdb</v>
+      </c>
       <c r="J20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2270,15 +2358,15 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>2</v>
@@ -2286,20 +2374,25 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Finotonlimab/Finotonlimab.pdb</v>
+      </c>
       <c r="J21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -2326,15 +2419,15 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2</v>
@@ -2342,20 +2435,25 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Geptanolimab/Geptanolimab.pdb</v>
+      </c>
       <c r="J22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -2382,15 +2480,15 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
@@ -2398,20 +2496,25 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Iparomlimab/Iparomlimab.pdb</v>
+      </c>
       <c r="J23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -2438,15 +2541,15 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2</v>
@@ -2454,20 +2557,25 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Lipustobart/Lipustobart.pdb</v>
+      </c>
       <c r="J24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2494,15 +2602,15 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
@@ -2510,20 +2618,25 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Nivolumab/Nivolumab.pdb</v>
+      </c>
       <c r="J25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -2550,15 +2663,15 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>2</v>
@@ -2566,20 +2679,25 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Nofazinlimab/Nofazinlimab.pdb</v>
+      </c>
       <c r="J26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -2606,15 +2724,15 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>2</v>
@@ -2622,20 +2740,25 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Pembrolizumab/Pembrolizumab.pdb</v>
+      </c>
       <c r="J27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2662,15 +2785,15 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>2</v>
@@ -2678,20 +2801,25 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Penpulimab/Penpulimab.pdb</v>
+      </c>
       <c r="J28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -2718,15 +2846,15 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>2</v>
@@ -2734,20 +2862,25 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Perenostobart/Perenostobart.pdb</v>
+      </c>
       <c r="J29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -2774,15 +2907,15 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>2</v>
@@ -2790,20 +2923,25 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="I30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Peresolimab/Peresolimab.pdb</v>
+      </c>
       <c r="J30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -2830,15 +2968,15 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>2</v>
@@ -2846,20 +2984,25 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Pidilizumab/Pidilizumab.pdb</v>
+      </c>
       <c r="J31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -2886,15 +3029,15 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
@@ -2902,20 +3045,25 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Pimivalimab/Pimivalimab.pdb</v>
+      </c>
       <c r="J32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2942,15 +3090,15 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>2</v>
@@ -2958,20 +3106,25 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="I33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Pradusinstobart/Pradusinstobart.pdb</v>
+      </c>
       <c r="J33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2998,15 +3151,15 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>2</v>
@@ -3014,20 +3167,25 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Pucotenlimab/Pucotenlimab.pdb</v>
+      </c>
       <c r="J34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -3054,15 +3212,15 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>2</v>
@@ -3070,20 +3228,25 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Retifanlimab/Retifanlimab.pdb</v>
+      </c>
       <c r="J35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -3110,15 +3273,15 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>2</v>
@@ -3126,20 +3289,25 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Rosnilimab/Rosnilimab.pdb</v>
+      </c>
       <c r="J36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -3166,15 +3334,15 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>2</v>
@@ -3182,20 +3350,25 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I37" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Sasanlimab/Sasanlimab.pdb</v>
+      </c>
       <c r="J37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -3222,15 +3395,15 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
@@ -3238,20 +3411,25 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="I38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Serplulimab/Serplulimab.pdb</v>
+      </c>
       <c r="J38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3278,15 +3456,15 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
@@ -3294,20 +3472,25 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I39" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Sintilimab/Sintilimab.pdb</v>
+      </c>
       <c r="J39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -3334,15 +3517,15 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>2</v>
@@ -3350,20 +3533,25 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Spartalizumab/Spartalizumab.pdb</v>
+      </c>
       <c r="J40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="M40" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -3390,15 +3578,15 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>2</v>
@@ -3406,20 +3594,25 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="I41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Tislelizumab/Tislelizumab.pdb</v>
+      </c>
       <c r="J41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -3446,15 +3639,15 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>2</v>
@@ -3462,20 +3655,25 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="I42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Toripalimab/Toripalimab.pdb</v>
+      </c>
       <c r="J42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="M42" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -3502,15 +3700,15 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>2</v>
@@ -3518,20 +3716,25 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="I43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>./docking/inputs/PDBs/candidates/Zeluvalimab/Zeluvalimab.pdb</v>
+      </c>
       <c r="J43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="M43" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06871A8B-972F-4F0D-8A67-313F3E907AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE823D2-C725-48C7-9252-25B7895DA813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="161">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -65,12 +65,6 @@
     <t>l_chain</t>
   </si>
   <si>
-    <t>antigen_pdb_file</t>
-  </si>
-  <si>
-    <t>ColabFold</t>
-  </si>
-  <si>
     <t>antigen_pdb_type</t>
   </si>
   <si>
@@ -521,7 +515,13 @@
     <t>./docking/inputs/PDBs/antigens/PD1/5jxe_pd1.pdb</t>
   </si>
   <si>
-    <t>"</t>
+    <t>ImmuneBuilder ABodyBuilder2</t>
+  </si>
+  <si>
+    <t>antibody_pdb_path</t>
+  </si>
+  <si>
+    <t>antigen_pdb_path</t>
   </si>
 </sst>
 </file>
@@ -965,7 +965,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I43"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,22 +1013,22 @@
   <sheetData>
     <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
@@ -1037,94 +1037,94 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="P1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -1152,25 +1152,20 @@
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="str">
-        <f>_xlfn.CONCAT("./docking/inputs/PDBs/candidates/",A2,"/",A2,".pdb")</f>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-001/TUPPD1-001.pdb</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1198,13 +1193,13 @@
     </row>
     <row r="3" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -1219,27 +1214,22 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I43" si="0">_xlfn.CONCAT("./docking/inputs/PDBs/candidates/",A3,"/",A3,".pdb")</f>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-002/TUPPD1-002.pdb</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -1267,13 +1257,13 @@
     </row>
     <row r="4" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -1288,27 +1278,22 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-003/TUPPD1-003.pdb</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1336,13 +1321,13 @@
     </row>
     <row r="5" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -1354,30 +1339,25 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-004/TUPPD1-004.pdb</v>
-      </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1405,14 +1385,14 @@
     </row>
     <row r="6" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1423,30 +1403,25 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-005/TUPPD1-005.pdb</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1474,13 +1449,13 @@
     </row>
     <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -1492,30 +1467,25 @@
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-006/TUPPD1-006.pdb</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1543,13 +1513,13 @@
     </row>
     <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -1561,30 +1531,25 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-007/TUPPD1-007.pdb</v>
-      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1612,13 +1577,13 @@
     </row>
     <row r="9" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
@@ -1630,30 +1595,25 @@
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-008/TUPPD1-008.pdb</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1681,13 +1641,13 @@
     </row>
     <row r="10" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -1699,30 +1659,25 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/TUPPD1-009/TUPPD1-009.pdb</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1750,41 +1705,49 @@
     </row>
     <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
       <c r="G11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I3:I43" si="0">_xlfn.CONCAT("./docking/inputs/PDBs/candidates/",A11,"/",A11,".pdb")</f>
         <v>./docking/inputs/PDBs/candidates/Acrixolimab/Acrixolimab.pdb</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1811,41 +1774,49 @@
     </row>
     <row r="12" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Balstilimab/Balstilimab.pdb</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1872,41 +1843,49 @@
     </row>
     <row r="13" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
       <c r="G13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Budigalimab/Budigalimab.pdb</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1933,41 +1912,49 @@
     </row>
     <row r="14" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Camrelizumab/Camrelizumab.pdb</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1994,41 +1981,49 @@
     </row>
     <row r="15" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Cemiplimab/Cemiplimab.pdb</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2055,41 +2050,49 @@
     </row>
     <row r="16" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
       <c r="G16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Cetrelimab/Cetrelimab.pdb</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2116,41 +2119,49 @@
     </row>
     <row r="17" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
       <c r="G17" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Dostarlimab/Dostarlimab.pdb</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2177,41 +2188,49 @@
     </row>
     <row r="18" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
       <c r="G18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Enlonstobart/Enlonstobart.pdb</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2238,41 +2257,49 @@
     </row>
     <row r="19" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Eurestobart/Eurestobart.pdb</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -2299,41 +2326,49 @@
     </row>
     <row r="20" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
       <c r="G20" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Ezabenlimab/Ezabenlimab.pdb</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -2360,41 +2395,49 @@
     </row>
     <row r="21" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
       <c r="G21" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Finotonlimab/Finotonlimab.pdb</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -2421,41 +2464,49 @@
     </row>
     <row r="22" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
       <c r="G22" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Geptanolimab/Geptanolimab.pdb</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -2482,41 +2533,49 @@
     </row>
     <row r="23" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Iparomlimab/Iparomlimab.pdb</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2543,41 +2602,49 @@
     </row>
     <row r="24" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Lipustobart/Lipustobart.pdb</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2604,41 +2671,49 @@
     </row>
     <row r="25" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
       <c r="G25" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Nivolumab/Nivolumab.pdb</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -2665,41 +2740,49 @@
     </row>
     <row r="26" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Nofazinlimab/Nofazinlimab.pdb</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O26" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -2726,41 +2809,49 @@
     </row>
     <row r="27" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Pembrolizumab/Pembrolizumab.pdb</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O27" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -2787,41 +2878,49 @@
     </row>
     <row r="28" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
       <c r="G28" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Penpulimab/Penpulimab.pdb</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -2848,41 +2947,49 @@
     </row>
     <row r="29" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
       <c r="G29" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Perenostobart/Perenostobart.pdb</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O29" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -2909,41 +3016,49 @@
     </row>
     <row r="30" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
       <c r="G30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Peresolimab/Peresolimab.pdb</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O30" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -2970,41 +3085,49 @@
     </row>
     <row r="31" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
       <c r="G31" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Pidilizumab/Pidilizumab.pdb</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O31" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -3031,41 +3154,49 @@
     </row>
     <row r="32" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
       <c r="G32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Pimivalimab/Pimivalimab.pdb</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O32" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -3092,41 +3223,49 @@
     </row>
     <row r="33" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
       <c r="G33" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Pradusinstobart/Pradusinstobart.pdb</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -3153,41 +3292,49 @@
     </row>
     <row r="34" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
       <c r="G34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Pucotenlimab/Pucotenlimab.pdb</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O34" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -3214,41 +3361,49 @@
     </row>
     <row r="35" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
       <c r="G35" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Retifanlimab/Retifanlimab.pdb</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -3275,41 +3430,49 @@
     </row>
     <row r="36" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
       <c r="G36" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Rosnilimab/Rosnilimab.pdb</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O36" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -3336,41 +3499,49 @@
     </row>
     <row r="37" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
       <c r="G37" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Sasanlimab/Sasanlimab.pdb</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -3397,41 +3568,49 @@
     </row>
     <row r="38" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
       <c r="G38" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Serplulimab/Serplulimab.pdb</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O38" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -3458,41 +3637,49 @@
     </row>
     <row r="39" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
       <c r="G39" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Sintilimab/Sintilimab.pdb</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O39" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -3519,41 +3706,49 @@
     </row>
     <row r="40" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
       <c r="G40" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Spartalizumab/Spartalizumab.pdb</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -3580,41 +3775,49 @@
     </row>
     <row r="41" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
       <c r="G41" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Tislelizumab/Tislelizumab.pdb</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O41" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -3641,41 +3844,49 @@
     </row>
     <row r="42" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="E42" s="8">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
       <c r="G42" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Toripalimab/Toripalimab.pdb</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O42" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -3702,41 +3913,49 @@
     </row>
     <row r="43" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
       <c r="G43" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>./docking/inputs/PDBs/candidates/Zeluvalimab/Zeluvalimab.pdb</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O43" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -3765,5 +3984,6 @@
   <autoFilter ref="A1:AL43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE823D2-C725-48C7-9252-25B7895DA813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D26F055-1E2D-4167-9AAC-A26664F7A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>antigen_pdb_path</t>
+  </si>
+  <si>
+    <t>ColabFold v1.5.3, AlphaFold2 + MMseqs</t>
   </si>
 </sst>
 </file>
@@ -965,7 +968,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1159,9 @@
       <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
         <v>157</v>
@@ -1220,7 +1225,9 @@
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
         <v>157</v>
@@ -1284,7 +1291,9 @@
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
         <v>157</v>
@@ -1348,7 +1357,9 @@
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
         <v>157</v>
@@ -1412,7 +1423,9 @@
       <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
         <v>157</v>
@@ -1476,7 +1489,9 @@
       <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
         <v>157</v>
@@ -1540,7 +1555,9 @@
       <c r="J8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
         <v>157</v>
@@ -1604,7 +1621,9 @@
       <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
         <v>157</v>
@@ -1668,7 +1687,9 @@
       <c r="J10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
         <v>157</v>
@@ -1729,7 +1750,7 @@
         <v>90</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f t="shared" ref="I3:I43" si="0">_xlfn.CONCAT("./docking/inputs/PDBs/candidates/",A11,"/",A11,".pdb")</f>
+        <f t="shared" ref="I11:I43" si="0">_xlfn.CONCAT("./docking/inputs/PDBs/candidates/",A11,"/",A11,".pdb")</f>
         <v>./docking/inputs/PDBs/candidates/Acrixolimab/Acrixolimab.pdb</v>
       </c>
       <c r="J11" s="3" t="s">

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/PD1_Fab_Diffusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D26F055-1E2D-4167-9AAC-A26664F7A476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA725D-EF71-BE49-8CE9-8B1CFBE21697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="171">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -524,7 +524,34 @@
     <t>antigen_pdb_path</t>
   </si>
   <si>
-    <t>ColabFold v1.5.3, AlphaFold2 + MMseqs</t>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-001/TUPPD1-001___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-002/TUPPD1-002___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-003/TUPPD1-003___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-004/TUPPD1-004___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-005/TUPPD1-005___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-006/TUPPD1-006___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-007/TUPPD1-007___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-008/TUPPD1-008___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-009/TUPPD1-009___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
+  </si>
+  <si>
+    <t>ColabFold v1.5.3, AlphaFold2 + MMseqs Batch</t>
   </si>
 </sst>
 </file>
@@ -965,56 +992,56 @@
   <dimension ref="A1:AL43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3:K10"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="1"/>
+    <col min="37" max="37" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1130,7 +1157,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,12 +1182,14 @@
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
@@ -1196,7 +1225,7 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
     </row>
-    <row r="3" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1221,12 +1250,14 @@
       <c r="H3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
@@ -1262,7 +1293,7 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1287,12 +1318,14 @@
       <c r="H4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
@@ -1328,7 +1361,7 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1353,12 +1386,14 @@
       <c r="H5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
@@ -1394,7 +1429,7 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1419,12 +1454,14 @@
       <c r="H6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
@@ -1460,7 +1497,7 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1485,12 +1522,14 @@
       <c r="H7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
@@ -1526,7 +1565,7 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1551,12 +1590,14 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="J8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
@@ -1592,7 +1633,7 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
@@ -1617,12 +1658,14 @@
       <c r="H9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
@@ -1658,7 +1701,7 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -1683,12 +1726,14 @@
       <c r="H10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="J10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
@@ -1724,7 +1769,7 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1750,8 +1795,8 @@
         <v>90</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f t="shared" ref="I11:I43" si="0">_xlfn.CONCAT("./docking/inputs/PDBs/candidates/",A11,"/",A11,".pdb")</f>
-        <v>./docking/inputs/PDBs/candidates/Acrixolimab/Acrixolimab.pdb</v>
+        <f>_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A11,"/",A11,".pdb")</f>
+        <v>./docking/inputs/PDBs/reference_antibodies/Acrixolimab/Acrixolimab.pdb</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>22</v>
@@ -1793,7 +1838,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1819,8 +1864,8 @@
         <v>91</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Balstilimab/Balstilimab.pdb</v>
+        <f t="shared" ref="I12:I43" si="0">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,"/",A12,".pdb")</f>
+        <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab/Balstilimab.pdb</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>22</v>
@@ -1862,7 +1907,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1889,7 +1934,7 @@
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Budigalimab/Budigalimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Budigalimab/Budigalimab.pdb</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>22</v>
@@ -1931,7 +1976,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +2003,7 @@
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Camrelizumab/Camrelizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Camrelizumab/Camrelizumab.pdb</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>22</v>
@@ -2000,7 +2045,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2027,7 +2072,7 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Cemiplimab/Cemiplimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Cemiplimab/Cemiplimab.pdb</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>22</v>
@@ -2069,7 +2114,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2096,7 +2141,7 @@
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Cetrelimab/Cetrelimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Cetrelimab/Cetrelimab.pdb</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>22</v>
@@ -2138,7 +2183,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2165,7 +2210,7 @@
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Dostarlimab/Dostarlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Dostarlimab/Dostarlimab.pdb</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>22</v>
@@ -2207,7 +2252,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2234,7 +2279,7 @@
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Enlonstobart/Enlonstobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Enlonstobart/Enlonstobart.pdb</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>22</v>
@@ -2276,7 +2321,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2303,7 +2348,7 @@
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Eurestobart/Eurestobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Eurestobart/Eurestobart.pdb</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>22</v>
@@ -2345,7 +2390,7 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2372,7 +2417,7 @@
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Ezabenlimab/Ezabenlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab/Ezabenlimab.pdb</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>22</v>
@@ -2414,7 +2459,7 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2441,7 +2486,7 @@
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Finotonlimab/Finotonlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Finotonlimab/Finotonlimab.pdb</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>22</v>
@@ -2483,7 +2528,7 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2510,7 +2555,7 @@
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Geptanolimab/Geptanolimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Geptanolimab/Geptanolimab.pdb</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>22</v>
@@ -2552,7 +2597,7 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2579,7 +2624,7 @@
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Iparomlimab/Iparomlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Iparomlimab/Iparomlimab.pdb</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>22</v>
@@ -2621,7 +2666,7 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2648,7 +2693,7 @@
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Lipustobart/Lipustobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Lipustobart/Lipustobart.pdb</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>22</v>
@@ -2690,7 +2735,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2717,7 +2762,7 @@
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Nivolumab/Nivolumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Nivolumab/Nivolumab.pdb</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>22</v>
@@ -2759,7 +2804,7 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -2786,7 +2831,7 @@
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Nofazinlimab/Nofazinlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab/Nofazinlimab.pdb</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>22</v>
@@ -2828,7 +2873,7 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -2855,7 +2900,7 @@
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Pembrolizumab/Pembrolizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab/Pembrolizumab.pdb</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>22</v>
@@ -2897,7 +2942,7 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -2924,7 +2969,7 @@
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Penpulimab/Penpulimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Penpulimab/Penpulimab.pdb</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>22</v>
@@ -2966,7 +3011,7 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -2993,7 +3038,7 @@
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Perenostobart/Perenostobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Perenostobart/Perenostobart.pdb</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>22</v>
@@ -3035,7 +3080,7 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3062,7 +3107,7 @@
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Peresolimab/Peresolimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Peresolimab/Peresolimab.pdb</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
@@ -3104,7 +3149,7 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3131,7 +3176,7 @@
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Pidilizumab/Pidilizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pidilizumab/Pidilizumab.pdb</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>22</v>
@@ -3173,7 +3218,7 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3200,7 +3245,7 @@
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Pimivalimab/Pimivalimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pimivalimab/Pimivalimab.pdb</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>22</v>
@@ -3242,7 +3287,7 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3269,7 +3314,7 @@
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Pradusinstobart/Pradusinstobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart/Pradusinstobart.pdb</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>22</v>
@@ -3311,7 +3356,7 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3338,7 +3383,7 @@
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Pucotenlimab/Pucotenlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab/Pucotenlimab.pdb</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>22</v>
@@ -3380,7 +3425,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3407,7 +3452,7 @@
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Retifanlimab/Retifanlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Retifanlimab/Retifanlimab.pdb</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>22</v>
@@ -3449,7 +3494,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3476,7 +3521,7 @@
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Rosnilimab/Rosnilimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Rosnilimab/Rosnilimab.pdb</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>22</v>
@@ -3518,7 +3563,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -3545,7 +3590,7 @@
       </c>
       <c r="I37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Sasanlimab/Sasanlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Sasanlimab/Sasanlimab.pdb</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>22</v>
@@ -3587,7 +3632,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -3614,7 +3659,7 @@
       </c>
       <c r="I38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Serplulimab/Serplulimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Serplulimab/Serplulimab.pdb</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>22</v>
@@ -3656,7 +3701,7 @@
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
     </row>
-    <row r="39" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -3683,7 +3728,7 @@
       </c>
       <c r="I39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Sintilimab/Sintilimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Sintilimab/Sintilimab.pdb</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>22</v>
@@ -3725,7 +3770,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
     </row>
-    <row r="40" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -3752,7 +3797,7 @@
       </c>
       <c r="I40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Spartalizumab/Spartalizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Spartalizumab/Spartalizumab.pdb</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>22</v>
@@ -3794,7 +3839,7 @@
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
     </row>
-    <row r="41" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -3821,7 +3866,7 @@
       </c>
       <c r="I41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Tislelizumab/Tislelizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Tislelizumab/Tislelizumab.pdb</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>22</v>
@@ -3863,7 +3908,7 @@
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
     </row>
-    <row r="42" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -3890,7 +3935,7 @@
       </c>
       <c r="I42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Toripalimab/Toripalimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Toripalimab/Toripalimab.pdb</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>22</v>
@@ -3932,7 +3977,7 @@
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
     </row>
-    <row r="43" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -3959,7 +4004,7 @@
       </c>
       <c r="I43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>./docking/inputs/PDBs/candidates/Zeluvalimab/Zeluvalimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab/Zeluvalimab.pdb</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>22</v>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/PD1_Fab_Diffusion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FA725D-EF71-BE49-8CE9-8B1CFBE21697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5FFF8-CE0A-453E-8AF9-279F72424779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AL$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="176">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -524,34 +524,49 @@
     <t>antigen_pdb_path</t>
   </si>
   <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-001/TUPPD1-001___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-002/TUPPD1-002___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-003/TUPPD1-003___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-004/TUPPD1-004___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-005/TUPPD1-005___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-006/TUPPD1-006___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-007/TUPPD1-007___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-008/TUPPD1-008___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/diffused_antibodies/TUPPD1-009/TUPPD1-009___H_and_L_Chains__multimer_delimited___PD1-targeting_Fv_from_EvoDiff_conditional_generation_relaxed_rank_001_alphafold2_multimer_v3_model_1_seed_000.pdb</t>
-  </si>
-  <si>
     <t>ColabFold v1.5.3, AlphaFold2 + MMseqs Batch</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-001/TUPPD1-001_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-002/TUPPD1-002_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-003/TUPPD1-003_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-004/TUPPD1-004_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-005/TUPPD1-005_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-006/TUPPD1-006_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-007/TUPPD1-007_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-008/TUPPD1-008_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-009/TUPPD1-009_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>h_chain_cdr_residues</t>
+  </si>
+  <si>
+    <t>l_chain_cdr_residues</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</t>
   </si>
 </sst>
 </file>
@@ -640,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -674,6 +689,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,59 +1007,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}">
-  <dimension ref="A1:AL43"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="47.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="54.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1076,88 +1096,94 @@
         <v>21</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,26 +1209,33 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="3" t="str">
+        <f>_xlfn.CONCAT("`",REPLACE(L2,1,1,""),",", REPLACE(M2,1,1,""))</f>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -1224,8 +1257,10 @@
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
     </row>
-    <row r="3" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1251,26 +1286,33 @@
         <v>153</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f t="shared" ref="N3:N10" si="0">_xlfn.CONCAT("`",REPLACE(L3,1,1,""),",", REPLACE(M3,1,1,""))</f>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1292,8 +1334,10 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1319,26 +1363,33 @@
         <v>154</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -1360,8 +1411,10 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
     </row>
-    <row r="5" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1387,26 +1440,33 @@
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1428,8 +1488,10 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
     </row>
-    <row r="6" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1455,26 +1517,33 @@
         <v>153</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1496,8 +1565,10 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
     </row>
-    <row r="7" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1523,26 +1594,33 @@
         <v>154</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1564,8 +1642,10 @@
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1591,26 +1671,33 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1632,8 +1719,10 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
     </row>
-    <row r="9" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
@@ -1659,26 +1748,33 @@
         <v>153</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1700,8 +1796,10 @@
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:38" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -1727,26 +1825,33 @@
         <v>154</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1768,8 +1873,10 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
     </row>
-    <row r="11" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1805,17 +1912,17 @@
         <v>158</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1837,8 +1944,10 @@
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1864,7 +1973,7 @@
         <v>91</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" ref="I12:I43" si="0">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,"/",A12,".pdb")</f>
+        <f t="shared" ref="I12:I43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,"/",A12,".pdb")</f>
         <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab/Balstilimab.pdb</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -1874,17 +1983,17 @@
         <v>158</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1906,8 +2015,10 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
     </row>
-    <row r="13" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +2044,7 @@
         <v>92</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Budigalimab/Budigalimab.pdb</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1943,17 +2054,17 @@
         <v>158</v>
       </c>
       <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1975,8 +2086,10 @@
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
     </row>
-    <row r="14" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2002,7 +2115,7 @@
         <v>93</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Camrelizumab/Camrelizumab.pdb</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2012,17 +2125,17 @@
         <v>158</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2044,8 +2157,10 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
     </row>
-    <row r="15" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2186,7 @@
         <v>94</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Cemiplimab/Cemiplimab.pdb</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -2081,17 +2196,17 @@
         <v>158</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2113,8 +2228,10 @@
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
     </row>
-    <row r="16" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2140,7 +2257,7 @@
         <v>95</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Cetrelimab/Cetrelimab.pdb</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -2150,17 +2267,17 @@
         <v>158</v>
       </c>
       <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2182,8 +2299,10 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
     </row>
-    <row r="17" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2209,7 +2328,7 @@
         <v>96</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Dostarlimab/Dostarlimab.pdb</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -2219,17 +2338,17 @@
         <v>158</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2251,8 +2370,10 @@
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
     </row>
-    <row r="18" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2278,7 +2399,7 @@
         <v>97</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Enlonstobart/Enlonstobart.pdb</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -2288,17 +2409,17 @@
         <v>158</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2320,8 +2441,10 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
     </row>
-    <row r="19" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2347,7 +2470,7 @@
         <v>98</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Eurestobart/Eurestobart.pdb</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -2357,17 +2480,17 @@
         <v>158</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -2389,8 +2512,10 @@
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
     </row>
-    <row r="20" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2416,7 +2541,7 @@
         <v>99</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab/Ezabenlimab.pdb</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -2426,17 +2551,17 @@
         <v>158</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2458,8 +2583,10 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
     </row>
-    <row r="21" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2485,7 +2612,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Finotonlimab/Finotonlimab.pdb</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -2495,17 +2622,17 @@
         <v>158</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2527,8 +2654,10 @@
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
     </row>
-    <row r="22" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2554,7 +2683,7 @@
         <v>101</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Geptanolimab/Geptanolimab.pdb</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -2564,17 +2693,17 @@
         <v>158</v>
       </c>
       <c r="L22" s="3"/>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2596,8 +2725,10 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
     </row>
-    <row r="23" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2623,7 +2754,7 @@
         <v>102</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Iparomlimab/Iparomlimab.pdb</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -2633,17 +2764,17 @@
         <v>158</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2665,8 +2796,10 @@
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
     </row>
-    <row r="24" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2692,7 +2825,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Lipustobart/Lipustobart.pdb</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -2702,17 +2835,17 @@
         <v>158</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2734,8 +2867,10 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
     </row>
-    <row r="25" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2761,7 +2896,7 @@
         <v>104</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Nivolumab/Nivolumab.pdb</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -2771,17 +2906,17 @@
         <v>158</v>
       </c>
       <c r="L25" s="3"/>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -2803,8 +2938,10 @@
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
     </row>
-    <row r="26" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -2830,7 +2967,7 @@
         <v>105</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab/Nofazinlimab.pdb</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -2840,17 +2977,17 @@
         <v>158</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -2872,8 +3009,10 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
     </row>
-    <row r="27" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -2899,7 +3038,7 @@
         <v>106</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab/Pembrolizumab.pdb</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -2909,17 +3048,17 @@
         <v>158</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -2941,8 +3080,10 @@
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
     </row>
-    <row r="28" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -2968,7 +3109,7 @@
         <v>107</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Penpulimab/Penpulimab.pdb</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -2978,17 +3119,17 @@
         <v>158</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="3" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -3010,8 +3151,10 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
     </row>
-    <row r="29" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3037,7 +3180,7 @@
         <v>108</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Perenostobart/Perenostobart.pdb</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -3047,17 +3190,17 @@
         <v>158</v>
       </c>
       <c r="L29" s="3"/>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3079,8 +3222,10 @@
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
     </row>
-    <row r="30" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3106,7 +3251,7 @@
         <v>109</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Peresolimab/Peresolimab.pdb</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -3116,17 +3261,17 @@
         <v>158</v>
       </c>
       <c r="L30" s="3"/>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -3148,8 +3293,10 @@
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
     </row>
-    <row r="31" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3175,7 +3322,7 @@
         <v>110</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pidilizumab/Pidilizumab.pdb</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -3185,17 +3332,17 @@
         <v>158</v>
       </c>
       <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -3217,8 +3364,10 @@
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
     </row>
-    <row r="32" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3244,7 +3393,7 @@
         <v>111</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pimivalimab/Pimivalimab.pdb</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -3254,17 +3403,17 @@
         <v>158</v>
       </c>
       <c r="L32" s="3"/>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3286,8 +3435,10 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
     </row>
-    <row r="33" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3464,7 @@
         <v>112</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart/Pradusinstobart.pdb</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -3323,17 +3474,17 @@
         <v>158</v>
       </c>
       <c r="L33" s="3"/>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -3355,8 +3506,10 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
     </row>
-    <row r="34" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3382,7 +3535,7 @@
         <v>113</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab/Pucotenlimab.pdb</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -3392,17 +3545,17 @@
         <v>158</v>
       </c>
       <c r="L34" s="3"/>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3424,8 +3577,10 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
     </row>
-    <row r="35" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3451,7 +3606,7 @@
         <v>114</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Retifanlimab/Retifanlimab.pdb</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -3461,17 +3616,17 @@
         <v>158</v>
       </c>
       <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -3493,8 +3648,10 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
     </row>
-    <row r="36" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3520,7 +3677,7 @@
         <v>115</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Rosnilimab/Rosnilimab.pdb</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -3530,17 +3687,17 @@
         <v>158</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3562,8 +3719,10 @@
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
     </row>
-    <row r="37" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -3589,7 +3748,7 @@
         <v>116</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Sasanlimab/Sasanlimab.pdb</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -3599,17 +3758,17 @@
         <v>158</v>
       </c>
       <c r="L37" s="3"/>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="P37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -3631,8 +3790,10 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
     </row>
-    <row r="38" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -3658,7 +3819,7 @@
         <v>117</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Serplulimab/Serplulimab.pdb</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -3668,17 +3829,17 @@
         <v>158</v>
       </c>
       <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -3700,8 +3861,10 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
     </row>
-    <row r="39" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -3727,7 +3890,7 @@
         <v>118</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Sintilimab/Sintilimab.pdb</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -3737,17 +3900,17 @@
         <v>158</v>
       </c>
       <c r="L39" s="3"/>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -3769,8 +3932,10 @@
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
     </row>
-    <row r="40" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -3796,7 +3961,7 @@
         <v>119</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Spartalizumab/Spartalizumab.pdb</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -3806,17 +3971,17 @@
         <v>158</v>
       </c>
       <c r="L40" s="3"/>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -3838,8 +4003,10 @@
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
       <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
     </row>
-    <row r="41" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -3865,7 +4032,7 @@
         <v>120</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Tislelizumab/Tislelizumab.pdb</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -3875,17 +4042,17 @@
         <v>158</v>
       </c>
       <c r="L41" s="3"/>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="P41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -3907,8 +4074,10 @@
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
     </row>
-    <row r="42" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -3934,7 +4103,7 @@
         <v>121</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Toripalimab/Toripalimab.pdb</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -3944,17 +4113,17 @@
         <v>158</v>
       </c>
       <c r="L42" s="3"/>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -3976,8 +4145,10 @@
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
     </row>
-    <row r="43" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4003,7 +4174,7 @@
         <v>122</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab/Zeluvalimab.pdb</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -4013,17 +4184,17 @@
         <v>158</v>
       </c>
       <c r="L43" s="3"/>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="P43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -4045,9 +4216,11 @@
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
+  <autoFilter ref="A1:AN43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5FFF8-CE0A-453E-8AF9-279F72424779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7DD10-A016-4E4B-93D0-17C40CDBD351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="175">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -509,9 +509,6 @@
     <t>antibody_sequence_source</t>
   </si>
   <si>
-    <t>66,76,77,78,84,85,87,90,128</t>
-  </si>
-  <si>
     <t>./docking/inputs/PDBs/antigens/PD1/5jxe_pd1.pdb</t>
   </si>
   <si>
@@ -563,10 +560,10 @@
     <t>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116</t>
   </si>
   <si>
-    <t>26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116</t>
-  </si>
-  <si>
     <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</t>
+  </si>
+  <si>
+    <t>`66,76,77,78,84,85,87,90,128</t>
   </si>
 </sst>
 </file>
@@ -1009,11 +1006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3:Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>5</v>
@@ -1096,16 +1093,16 @@
         <v>21</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>8</v>
@@ -1183,7 +1180,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,32 +1206,32 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N2" s="3" t="str">
         <f>_xlfn.CONCAT("`",REPLACE(L2,1,1,""),",", REPLACE(M2,1,1,""))</f>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -1286,32 +1283,32 @@
         <v>153</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N3" s="3" t="str">
         <f t="shared" ref="N3:N10" si="0">_xlfn.CONCAT("`",REPLACE(L3,1,1,""),",", REPLACE(M3,1,1,""))</f>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1337,7 +1334,7 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
     </row>
-    <row r="4" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1363,32 +1360,32 @@
         <v>154</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1440,32 +1437,32 @@
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -1517,32 +1514,32 @@
         <v>153</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -1594,32 +1591,32 @@
         <v>154</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -1671,32 +1668,32 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1748,32 +1745,32 @@
         <v>153</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1825,32 +1822,32 @@
         <v>154</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>175</v>
       </c>
       <c r="N10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1909,19 +1906,19 @@
         <v>22</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1980,19 +1977,19 @@
         <v>22</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -2051,19 +2048,19 @@
         <v>22</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -2122,19 +2119,19 @@
         <v>22</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -2193,19 +2190,19 @@
         <v>22</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2264,19 +2261,19 @@
         <v>22</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -2335,19 +2332,19 @@
         <v>22</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -2406,19 +2403,19 @@
         <v>22</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -2477,19 +2474,19 @@
         <v>22</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -2548,19 +2545,19 @@
         <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -2619,19 +2616,19 @@
         <v>22</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -2690,19 +2687,19 @@
         <v>22</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -2761,19 +2758,19 @@
         <v>22</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -2832,19 +2829,19 @@
         <v>22</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -2903,19 +2900,19 @@
         <v>22</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -2974,19 +2971,19 @@
         <v>22</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -3045,19 +3042,19 @@
         <v>22</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -3116,19 +3113,19 @@
         <v>22</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -3187,19 +3184,19 @@
         <v>22</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -3258,19 +3255,19 @@
         <v>22</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -3329,19 +3326,19 @@
         <v>22</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -3400,19 +3397,19 @@
         <v>22</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -3471,19 +3468,19 @@
         <v>22</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -3542,19 +3539,19 @@
         <v>22</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3613,19 +3610,19 @@
         <v>22</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -3684,19 +3681,19 @@
         <v>22</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3755,19 +3752,19 @@
         <v>22</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3826,19 +3823,19 @@
         <v>22</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3897,19 +3894,19 @@
         <v>22</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -3968,19 +3965,19 @@
         <v>22</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -4039,19 +4036,19 @@
         <v>22</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -4110,19 +4107,19 @@
         <v>22</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -4181,19 +4178,19 @@
         <v>22</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7DD10-A016-4E4B-93D0-17C40CDBD351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679B1673-0635-4094-BF09-F0D0587FA914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
@@ -1007,10 +1007,10 @@
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3:Q43"/>
+      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
     <col min="12" max="12" width="30.42578125" style="1" customWidth="1"/>
     <col min="13" max="13" width="47.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="54.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.42578125" style="1" bestFit="1" customWidth="1"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679B1673-0635-4094-BF09-F0D0587FA914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7487972-56C6-8144-90F0-92C76BBCE95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="218">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -515,9 +515,6 @@
     <t>ImmuneBuilder ABodyBuilder2</t>
   </si>
   <si>
-    <t>antibody_pdb_path</t>
-  </si>
-  <si>
     <t>antigen_pdb_path</t>
   </si>
   <si>
@@ -564,6 +561,138 @@
   </si>
   <si>
     <t>`66,76,77,78,84,85,87,90,128</t>
+  </si>
+  <si>
+    <t>antibody_pdb_path_original</t>
+  </si>
+  <si>
+    <t>antibody_pdb_path_renumbered</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-001/TUPPD1-001.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-002/TUPPD1-002.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-003/TUPPD1-003.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-004/TUPPD1-004.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-005/TUPPD1-005.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-006/TUPPD1-006.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-007/TUPPD1-007.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-008/TUPPD1-008.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-009/TUPPD1-009.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Acrixolimab/Acrixolimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Balstilimab/Balstilimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Budigalimab/Budigalimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Camrelizumab/Camrelizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Cemiplimab/Cemiplimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Cetrelimab/Cetrelimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Dostarlimab/Dostarlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Enlonstobart/Enlonstobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Eurestobart/Eurestobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab/Ezabenlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Finotonlimab/Finotonlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Geptanolimab/Geptanolimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Iparomlimab/Iparomlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Lipustobart/Lipustobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Nivolumab/Nivolumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab/Nofazinlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab/Pembrolizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Penpulimab/Penpulimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Perenostobart/Perenostobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Peresolimab/Peresolimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pidilizumab/Pidilizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pimivalimab/Pimivalimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart/Pradusinstobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab/Pucotenlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Retifanlimab/Retifanlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Rosnilimab/Rosnilimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Sasanlimab/Sasanlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Serplulimab/Serplulimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Sintilimab/Sintilimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Spartalizumab/Spartalizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Tislelizumab/Tislelizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Toripalimab/Toripalimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab/Zeluvalimab_renumberedLplus1000.pdb</t>
   </si>
 </sst>
 </file>
@@ -1004,61 +1133,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N36" sqref="N36"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="47.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="54.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="47.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="40.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="47.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1084,103 +1213,106 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1206,34 +1338,36 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="O2" s="3" t="str">
+        <f>_xlfn.CONCAT("`",REPLACE(M2,1,1,""),",", REPLACE(N2,1,1,""))</f>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="3" t="str">
-        <f>_xlfn.CONCAT("`",REPLACE(L2,1,1,""),",", REPLACE(M2,1,1,""))</f>
-        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -1256,8 +1390,9 @@
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1283,34 +1418,36 @@
         <v>153</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="O3" s="3" t="str">
+        <f t="shared" ref="O3:O10" si="0">_xlfn.CONCAT("`",REPLACE(M3,1,1,""),",", REPLACE(N3,1,1,""))</f>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="3" t="str">
-        <f t="shared" ref="N3:N10" si="0">_xlfn.CONCAT("`",REPLACE(L3,1,1,""),",", REPLACE(M3,1,1,""))</f>
-        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -1333,8 +1470,9 @@
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
     </row>
-    <row r="4" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1360,34 +1498,36 @@
         <v>154</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N4" s="3" t="str">
+      <c r="O4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -1410,8 +1550,9 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
     </row>
-    <row r="5" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1437,34 +1578,36 @@
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" s="3" t="str">
+      <c r="O5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -1487,8 +1630,9 @@
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1514,34 +1658,36 @@
         <v>153</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N6" s="3" t="str">
+      <c r="O6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -1564,8 +1710,9 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
     </row>
-    <row r="7" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1591,34 +1738,36 @@
         <v>154</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N7" s="3" t="str">
+      <c r="O7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -1641,8 +1790,9 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1668,34 +1818,36 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N8" s="3" t="str">
+      <c r="O8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -1718,8 +1870,9 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
@@ -1745,34 +1898,36 @@
         <v>153</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N9" s="3" t="str">
+      <c r="O9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1795,8 +1950,9 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -1822,34 +1978,36 @@
         <v>154</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="L10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="N10" s="3" t="str">
+      <c r="O10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1872,8 +2030,9 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1903,24 +2062,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Acrixolimab/Acrixolimab.pdb</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -1943,8 +2104,9 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1974,24 +2136,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab/Balstilimab.pdb</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -2014,8 +2178,9 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2045,24 +2210,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Budigalimab/Budigalimab.pdb</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -2085,8 +2252,9 @@
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2116,24 +2284,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Camrelizumab/Camrelizumab.pdb</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2156,8 +2326,9 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2187,24 +2358,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Cemiplimab/Cemiplimab.pdb</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2227,8 +2400,9 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2258,24 +2432,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Cetrelimab/Cetrelimab.pdb</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2298,8 +2474,9 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2329,24 +2506,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Dostarlimab/Dostarlimab.pdb</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -2369,8 +2548,9 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2400,24 +2580,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Enlonstobart/Enlonstobart.pdb</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2440,8 +2622,9 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2471,24 +2654,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Eurestobart/Eurestobart.pdb</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R19" s="3"/>
+      <c r="R19" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -2511,8 +2696,9 @@
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2542,24 +2728,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab/Ezabenlimab.pdb</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2582,8 +2770,9 @@
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2613,24 +2802,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Finotonlimab/Finotonlimab.pdb</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R21" s="3"/>
+      <c r="R21" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -2653,8 +2844,9 @@
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2684,24 +2876,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Geptanolimab/Geptanolimab.pdb</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R22" s="3"/>
+      <c r="R22" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2724,8 +2918,9 @@
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2755,24 +2950,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Iparomlimab/Iparomlimab.pdb</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R23" s="3"/>
+      <c r="R23" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -2795,8 +2992,9 @@
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2826,24 +3024,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Lipustobart/Lipustobart.pdb</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R24" s="3"/>
+      <c r="R24" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -2866,8 +3066,9 @@
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2897,24 +3098,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Nivolumab/Nivolumab.pdb</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="3"/>
+      <c r="P25" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2937,8 +3140,9 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -2968,24 +3172,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab/Nofazinlimab.pdb</v>
       </c>
       <c r="J26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R26" s="3"/>
+      <c r="R26" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3008,8 +3214,9 @@
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3039,24 +3246,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab/Pembrolizumab.pdb</v>
       </c>
       <c r="J27" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R27" s="3"/>
+      <c r="R27" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -3079,8 +3288,9 @@
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3110,24 +3320,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Penpulimab/Penpulimab.pdb</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R28" s="3"/>
+      <c r="R28" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -3150,8 +3362,9 @@
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3181,24 +3394,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Perenostobart/Perenostobart.pdb</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -3221,8 +3436,9 @@
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3252,24 +3468,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Peresolimab/Peresolimab.pdb</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R30" s="3"/>
+      <c r="R30" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -3292,8 +3510,9 @@
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3323,24 +3542,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Pidilizumab/Pidilizumab.pdb</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q31" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R31" s="3"/>
+      <c r="R31" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -3363,8 +3584,9 @@
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3394,24 +3616,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Pimivalimab/Pimivalimab.pdb</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R32" s="3"/>
+      <c r="R32" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -3434,8 +3658,9 @@
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3465,24 +3690,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart/Pradusinstobart.pdb</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R33" s="3"/>
+      <c r="R33" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -3505,8 +3732,9 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
     </row>
-    <row r="34" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3536,24 +3764,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab/Pucotenlimab.pdb</v>
       </c>
       <c r="J34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -3576,8 +3806,9 @@
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
     </row>
-    <row r="35" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3607,24 +3838,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Retifanlimab/Retifanlimab.pdb</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R35" s="3"/>
+      <c r="R35" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -3647,8 +3880,9 @@
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
     </row>
-    <row r="36" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3678,24 +3912,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Rosnilimab/Rosnilimab.pdb</v>
       </c>
       <c r="J36" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R36" s="3"/>
+      <c r="R36" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -3718,8 +3954,9 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
     </row>
-    <row r="37" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -3749,24 +3986,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Sasanlimab/Sasanlimab.pdb</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="3"/>
+      <c r="P37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q37" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R37" s="3"/>
+      <c r="R37" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -3789,8 +4028,9 @@
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
     </row>
-    <row r="38" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -3820,24 +4060,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Serplulimab/Serplulimab.pdb</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="3"/>
+      <c r="P38" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R38" s="3"/>
+      <c r="R38" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -3860,8 +4102,9 @@
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
     </row>
-    <row r="39" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -3891,24 +4134,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Sintilimab/Sintilimab.pdb</v>
       </c>
       <c r="J39" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R39" s="3"/>
+      <c r="R39" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -3931,8 +4176,9 @@
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
     </row>
-    <row r="40" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -3962,24 +4208,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Spartalizumab/Spartalizumab.pdb</v>
       </c>
       <c r="J40" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q40" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R40" s="3"/>
+      <c r="R40" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -4002,8 +4250,9 @@
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
     </row>
-    <row r="41" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4033,24 +4282,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Tislelizumab/Tislelizumab.pdb</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="3"/>
+      <c r="P41" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R41" s="3"/>
+      <c r="R41" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -4073,8 +4324,9 @@
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
     </row>
-    <row r="42" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4104,24 +4356,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Toripalimab/Toripalimab.pdb</v>
       </c>
       <c r="J42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3"/>
+      <c r="P42" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R42" s="3"/>
+      <c r="R42" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -4144,8 +4398,9 @@
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
     </row>
-    <row r="43" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4175,24 +4430,26 @@
         <v>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab/Zeluvalimab.pdb</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="3"/>
+      <c r="P43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="R43" s="3"/>
+      <c r="R43" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -4215,9 +4472,10 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
+  <autoFilter ref="A1:AO43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7487972-56C6-8144-90F0-92C76BBCE95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C9FB9-D902-4F77-9221-8E6FDEB05A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="217">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -512,9 +512,6 @@
     <t>./docking/inputs/PDBs/antigens/PD1/5jxe_pd1.pdb</t>
   </si>
   <si>
-    <t>ImmuneBuilder ABodyBuilder2</t>
-  </si>
-  <si>
     <t>antigen_pdb_path</t>
   </si>
   <si>
@@ -596,103 +593,103 @@
     <t>./docking/inputs/PDBs/diffused_antibodies/combined/TUPPD1-009/TUPPD1-009.pdb</t>
   </si>
   <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Acrixolimab/Acrixolimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Balstilimab/Balstilimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Budigalimab/Budigalimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Camrelizumab/Camrelizumab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Cemiplimab/Cemiplimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Cetrelimab/Cetrelimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Dostarlimab/Dostarlimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Enlonstobart/Enlonstobart_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Eurestobart/Eurestobart_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab/Ezabenlimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Finotonlimab/Finotonlimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Geptanolimab/Geptanolimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Iparomlimab/Iparomlimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Lipustobart/Lipustobart_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Nivolumab/Nivolumab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab/Nofazinlimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab/Pembrolizumab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Penpulimab/Penpulimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Perenostobart/Perenostobart_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Peresolimab/Peresolimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Pidilizumab/Pidilizumab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Pimivalimab/Pimivalimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart/Pradusinstobart_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab/Pucotenlimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Retifanlimab/Retifanlimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Rosnilimab/Rosnilimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Sasanlimab/Sasanlimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Serplulimab/Serplulimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Sintilimab/Sintilimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Spartalizumab/Spartalizumab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Tislelizumab/Tislelizumab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Toripalimab/Toripalimab_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
-    <t>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab/Zeluvalimab_renumberedLplus1000.pdb</t>
+    <t>./docking/inputs/PDBs/reference_antibodies/Acrixolimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Balstilimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Budigalimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Camrelizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Cemiplimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Cetrelimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Dostarlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Enlonstobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Eurestobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Finotonlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Geptanolimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Iparomlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Lipustobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Nivolumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Penpulimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Perenostobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Peresolimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pidilizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pimivalimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Retifanlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Rosnilimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Sasanlimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Serplulimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Sintilimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Spartalizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Tislelizumab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Toripalimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab_renumberedLplus1000.pdb</t>
   </si>
 </sst>
 </file>
@@ -1136,58 +1133,58 @@
   <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="40.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="47.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="47.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="40.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="47.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.1640625" style="1"/>
+    <col min="40" max="40" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1213,10 +1210,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>5</v>
@@ -1225,16 +1222,16 @@
         <v>21</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>8</v>
@@ -1312,7 +1309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1338,22 +1335,22 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O2" s="3" t="str">
         <f>_xlfn.CONCAT("`",REPLACE(M2,1,1,""),",", REPLACE(N2,1,1,""))</f>
@@ -1366,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -1392,7 +1389,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1418,22 +1415,22 @@
         <v>153</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O3" s="3" t="str">
         <f t="shared" ref="O3:O10" si="0">_xlfn.CONCAT("`",REPLACE(M3,1,1,""),",", REPLACE(N3,1,1,""))</f>
@@ -1446,7 +1443,7 @@
         <v>9</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1472,7 +1469,7 @@
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
     </row>
-    <row r="4" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1498,22 +1495,22 @@
         <v>154</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1526,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -1552,7 +1549,7 @@
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
     </row>
-    <row r="5" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1578,22 +1575,22 @@
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1606,7 +1603,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1632,7 +1629,7 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1658,22 +1655,22 @@
         <v>153</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1686,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1712,7 +1709,7 @@
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
     </row>
-    <row r="7" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1738,22 +1735,22 @@
         <v>154</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1766,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1792,7 +1789,7 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1818,22 +1815,22 @@
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1843,7 @@
         <v>9</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1872,7 +1869,7 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
@@ -1898,22 +1895,22 @@
         <v>153</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1926,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1952,7 +1949,7 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -1978,22 +1975,22 @@
         <v>154</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="O10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2006,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2032,7 +2029,7 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2058,17 +2055,17 @@
         <v>90</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A11,"/",A11,".pdb")</f>
-        <v>./docking/inputs/PDBs/reference_antibodies/Acrixolimab/Acrixolimab.pdb</v>
+        <f>_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A11,".pdb")</f>
+        <v>./docking/inputs/PDBs/reference_antibodies/Acrixolimab.pdb</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -2080,7 +2077,7 @@
         <v>9</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2106,7 +2103,7 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2132,17 +2129,17 @@
         <v>91</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" ref="I12:I43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,"/",A12,".pdb")</f>
-        <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab/Balstilimab.pdb</v>
+        <f t="shared" ref="I12:J43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
+        <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab.pdb</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -2154,7 +2151,7 @@
         <v>9</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2180,7 +2177,7 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2207,16 +2204,16 @@
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Budigalimab/Budigalimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Budigalimab.pdb</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -2228,7 +2225,7 @@
         <v>9</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2254,7 +2251,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2281,16 +2278,16 @@
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Camrelizumab/Camrelizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Camrelizumab.pdb</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -2302,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2328,7 +2325,7 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2355,16 +2352,16 @@
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Cemiplimab/Cemiplimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Cemiplimab.pdb</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -2376,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2402,7 +2399,7 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2429,16 +2426,16 @@
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Cetrelimab/Cetrelimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Cetrelimab.pdb</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2450,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2476,7 +2473,7 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2503,16 +2500,16 @@
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Dostarlimab/Dostarlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Dostarlimab.pdb</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2524,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2550,7 +2547,7 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2577,16 +2574,16 @@
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Enlonstobart/Enlonstobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Enlonstobart.pdb</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2598,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2624,7 +2621,7 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2651,16 +2648,16 @@
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Eurestobart/Eurestobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Eurestobart.pdb</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2672,7 +2669,7 @@
         <v>9</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -2698,7 +2695,7 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2725,16 +2722,16 @@
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab/Ezabenlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab.pdb</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -2746,7 +2743,7 @@
         <v>9</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2772,7 +2769,7 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2799,16 +2796,16 @@
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Finotonlimab/Finotonlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Finotonlimab.pdb</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2820,7 +2817,7 @@
         <v>9</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2846,7 +2843,7 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2873,16 +2870,16 @@
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Geptanolimab/Geptanolimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Geptanolimab.pdb</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2894,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2920,7 +2917,7 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2947,16 +2944,16 @@
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Iparomlimab/Iparomlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Iparomlimab.pdb</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2968,7 +2965,7 @@
         <v>9</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2994,7 +2991,7 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3021,16 +3018,16 @@
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Lipustobart/Lipustobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Lipustobart.pdb</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -3042,7 +3039,7 @@
         <v>9</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -3068,7 +3065,7 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3095,16 +3092,16 @@
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Nivolumab/Nivolumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Nivolumab.pdb</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3116,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -3142,7 +3139,7 @@
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3169,16 +3166,16 @@
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab/Nofazinlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab.pdb</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3190,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -3216,7 +3213,7 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3243,16 +3240,16 @@
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab/Pembrolizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab.pdb</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3264,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -3290,7 +3287,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3317,16 +3314,16 @@
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Penpulimab/Penpulimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Penpulimab.pdb</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3338,7 +3335,7 @@
         <v>9</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -3364,7 +3361,7 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3391,16 +3388,16 @@
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Perenostobart/Perenostobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Perenostobart.pdb</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -3412,7 +3409,7 @@
         <v>9</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -3438,7 +3435,7 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3465,16 +3462,16 @@
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Peresolimab/Peresolimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Peresolimab.pdb</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3486,7 +3483,7 @@
         <v>9</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -3512,7 +3509,7 @@
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3539,16 +3536,16 @@
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Pidilizumab/Pidilizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pidilizumab.pdb</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3560,7 +3557,7 @@
         <v>9</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -3586,7 +3583,7 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3613,16 +3610,16 @@
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Pimivalimab/Pimivalimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pimivalimab.pdb</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -3634,7 +3631,7 @@
         <v>9</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3660,7 +3657,7 @@
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3687,16 +3684,16 @@
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart/Pradusinstobart.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart.pdb</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -3708,7 +3705,7 @@
         <v>9</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -3734,7 +3731,7 @@
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
     </row>
-    <row r="34" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3761,16 +3758,16 @@
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab/Pucotenlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab.pdb</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3782,7 +3779,7 @@
         <v>9</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3808,7 +3805,7 @@
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
     </row>
-    <row r="35" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3835,16 +3832,16 @@
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Retifanlimab/Retifanlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Retifanlimab.pdb</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -3856,7 +3853,7 @@
         <v>9</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -3882,7 +3879,7 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
     </row>
-    <row r="36" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3909,16 +3906,16 @@
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Rosnilimab/Rosnilimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Rosnilimab.pdb</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -3930,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3956,7 +3953,7 @@
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
     </row>
-    <row r="37" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -3983,16 +3980,16 @@
       </c>
       <c r="I37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Sasanlimab/Sasanlimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Sasanlimab.pdb</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -4004,7 +4001,7 @@
         <v>9</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -4030,7 +4027,7 @@
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
     </row>
-    <row r="38" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4057,16 +4054,16 @@
       </c>
       <c r="I38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Serplulimab/Serplulimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Serplulimab.pdb</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -4078,7 +4075,7 @@
         <v>9</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -4104,7 +4101,7 @@
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
     </row>
-    <row r="39" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4131,16 +4128,16 @@
       </c>
       <c r="I39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Sintilimab/Sintilimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Sintilimab.pdb</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4152,7 +4149,7 @@
         <v>9</v>
       </c>
       <c r="R39" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -4178,7 +4175,7 @@
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
     </row>
-    <row r="40" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4205,16 +4202,16 @@
       </c>
       <c r="I40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Spartalizumab/Spartalizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Spartalizumab.pdb</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -4226,7 +4223,7 @@
         <v>9</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -4252,7 +4249,7 @@
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
     </row>
-    <row r="41" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4279,16 +4276,16 @@
       </c>
       <c r="I41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Tislelizumab/Tislelizumab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Tislelizumab.pdb</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4300,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -4326,7 +4323,7 @@
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
     </row>
-    <row r="42" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4353,16 +4350,16 @@
       </c>
       <c r="I42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Toripalimab/Toripalimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Toripalimab.pdb</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -4374,7 +4371,7 @@
         <v>9</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -4400,7 +4397,7 @@
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
     </row>
-    <row r="43" spans="1:41" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4427,16 +4424,16 @@
       </c>
       <c r="I43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab/Zeluvalimab.pdb</v>
+        <v>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab.pdb</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4448,7 +4445,7 @@
         <v>9</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563C9FB9-D902-4F77-9221-8E6FDEB05A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6DCD5-E5E1-D848-9B35-A03E8C8F762D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="240">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -690,6 +690,75 @@
   </si>
   <si>
     <t>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1049,1050,1051,1052,1053,1054,1055,1088,1089,1090,1091,1092,1093,1094,1095,1096</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,98,99,100,101,102,103,104,105,106,107,108</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,100,101,102,103,104,105,106,107,108,109,110</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1051,1052,1053,1054,1055,1056,1057,1090,1091,1092,1093,1094,1095,1096,1097,1098</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,98,99,100,101,102,103,104,105,106,107</t>
+  </si>
+  <si>
+    <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114</t>
   </si>
 </sst>
 </file>
@@ -1133,58 +1202,58 @@
   <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="40.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="47.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="40.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="47.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="40" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1378,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +1458,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1502,7 @@
         <v>171</v>
       </c>
       <c r="O3" s="3" t="str">
-        <f t="shared" ref="O3:O10" si="0">_xlfn.CONCAT("`",REPLACE(M3,1,1,""),",", REPLACE(N3,1,1,""))</f>
+        <f t="shared" ref="O3:O43" si="0">_xlfn.CONCAT("`",REPLACE(M3,1,1,""),",", REPLACE(N3,1,1,""))</f>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
       <c r="P3" s="3" t="s">
@@ -1469,7 +1538,7 @@
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
     </row>
-    <row r="4" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1549,7 +1618,7 @@
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
     </row>
-    <row r="5" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1629,7 +1698,7 @@
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1709,7 +1778,7 @@
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
     </row>
-    <row r="7" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1789,7 +1858,7 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1869,7 +1938,7 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
@@ -1949,7 +2018,7 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -2029,7 +2098,7 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2067,9 +2136,16 @@
       <c r="L11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</v>
+      </c>
       <c r="P11" s="3" t="s">
         <v>156</v>
       </c>
@@ -2103,7 +2179,7 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2129,7 +2205,7 @@
         <v>91</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" ref="I12:J43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
+        <f t="shared" ref="I12:I43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
         <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab.pdb</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2141,9 +2217,16 @@
       <c r="L12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P12" s="3" t="s">
         <v>156</v>
       </c>
@@ -2177,7 +2260,7 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2215,9 +2298,16 @@
       <c r="L13" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
+      </c>
       <c r="P13" s="3" t="s">
         <v>156</v>
       </c>
@@ -2251,7 +2341,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2289,9 +2379,16 @@
       <c r="L14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P14" s="3" t="s">
         <v>156</v>
       </c>
@@ -2325,7 +2422,7 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2363,9 +2460,16 @@
       <c r="L15" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P15" s="3" t="s">
         <v>156</v>
       </c>
@@ -2399,7 +2503,7 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2437,9 +2541,16 @@
       <c r="L16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P16" s="3" t="s">
         <v>156</v>
       </c>
@@ -2473,7 +2584,7 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2511,9 +2622,16 @@
       <c r="L17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P17" s="3" t="s">
         <v>156</v>
       </c>
@@ -2547,7 +2665,7 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2585,9 +2703,16 @@
       <c r="L18" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P18" s="3" t="s">
         <v>156</v>
       </c>
@@ -2621,7 +2746,7 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2659,9 +2784,16 @@
       <c r="L19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1049,1050,1051,1052,1053,1054,1055,1088,1089,1090,1091,1092,1093,1094,1095,1096</v>
+      </c>
       <c r="P19" s="3" t="s">
         <v>156</v>
       </c>
@@ -2695,7 +2827,7 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2733,9 +2865,16 @@
       <c r="L20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
+      </c>
       <c r="P20" s="3" t="s">
         <v>156</v>
       </c>
@@ -2769,7 +2908,7 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2807,9 +2946,16 @@
       <c r="L21" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
+      </c>
       <c r="P21" s="3" t="s">
         <v>156</v>
       </c>
@@ -2843,7 +2989,7 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2881,9 +3027,16 @@
       <c r="L22" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="O22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100</v>
+      </c>
       <c r="P22" s="3" t="s">
         <v>156</v>
       </c>
@@ -2917,7 +3070,7 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2955,9 +3108,16 @@
       <c r="L23" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</v>
+      </c>
       <c r="P23" s="3" t="s">
         <v>156</v>
       </c>
@@ -2991,7 +3151,7 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3029,9 +3189,16 @@
       <c r="L24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
+      </c>
       <c r="P24" s="3" t="s">
         <v>156</v>
       </c>
@@ -3065,7 +3232,7 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3103,9 +3270,16 @@
       <c r="L25" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P25" s="3" t="s">
         <v>156</v>
       </c>
@@ -3139,7 +3313,7 @@
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3177,9 +3351,16 @@
       <c r="L26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
+      </c>
       <c r="P26" s="3" t="s">
         <v>156</v>
       </c>
@@ -3213,7 +3394,7 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3251,9 +3432,16 @@
       <c r="L27" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
+      </c>
       <c r="P27" s="3" t="s">
         <v>156</v>
       </c>
@@ -3287,7 +3475,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3325,9 +3513,16 @@
       <c r="L28" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P28" s="3" t="s">
         <v>156</v>
       </c>
@@ -3361,7 +3556,7 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3399,9 +3594,16 @@
       <c r="L29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P29" s="3" t="s">
         <v>156</v>
       </c>
@@ -3435,7 +3637,7 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3473,9 +3675,16 @@
       <c r="L30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="M30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,98,99,100,101,102,103,104,105,106,107,108,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100</v>
+      </c>
       <c r="P30" s="3" t="s">
         <v>156</v>
       </c>
@@ -3509,7 +3718,7 @@
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3547,9 +3756,16 @@
       <c r="L31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1049,1050,1051,1052,1053,1054,1055,1088,1089,1090,1091,1092,1093,1094,1095,1096</v>
+      </c>
       <c r="P31" s="3" t="s">
         <v>156</v>
       </c>
@@ -3583,7 +3799,7 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3621,9 +3837,16 @@
       <c r="L32" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P32" s="3" t="s">
         <v>156</v>
       </c>
@@ -3657,7 +3880,7 @@
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3695,9 +3918,16 @@
       <c r="L33" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="M33" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,100,101,102,103,104,105,106,107,108,109,110,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096</v>
+      </c>
       <c r="P33" s="3" t="s">
         <v>156</v>
       </c>
@@ -3731,7 +3961,7 @@
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
     </row>
-    <row r="34" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3769,9 +3999,16 @@
       <c r="L34" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="M34" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
+      </c>
       <c r="P34" s="3" t="s">
         <v>156</v>
       </c>
@@ -3805,7 +4042,7 @@
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
     </row>
-    <row r="35" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3843,9 +4080,16 @@
       <c r="L35" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
+      </c>
       <c r="P35" s="3" t="s">
         <v>156</v>
       </c>
@@ -3879,7 +4123,7 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
     </row>
-    <row r="36" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3917,9 +4161,16 @@
       <c r="L36" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1051,1052,1053,1054,1055,1056,1057,1090,1091,1092,1093,1094,1095,1096,1097,1098</v>
+      </c>
       <c r="P36" s="3" t="s">
         <v>156</v>
       </c>
@@ -3953,7 +4204,7 @@
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
     </row>
-    <row r="37" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -3991,9 +4242,16 @@
       <c r="L37" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</v>
+      </c>
       <c r="P37" s="3" t="s">
         <v>156</v>
       </c>
@@ -4027,7 +4285,7 @@
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
     </row>
-    <row r="38" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4065,9 +4323,16 @@
       <c r="L38" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="M38" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P38" s="3" t="s">
         <v>156</v>
       </c>
@@ -4101,7 +4366,7 @@
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
     </row>
-    <row r="39" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4139,9 +4404,16 @@
       <c r="L39" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="M39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P39" s="3" t="s">
         <v>156</v>
       </c>
@@ -4175,7 +4447,7 @@
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
     </row>
-    <row r="40" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4213,9 +4485,16 @@
       <c r="L40" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="M40" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</v>
+      </c>
       <c r="P40" s="3" t="s">
         <v>156</v>
       </c>
@@ -4249,7 +4528,7 @@
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
     </row>
-    <row r="41" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4287,9 +4566,16 @@
       <c r="L41" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="M41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,98,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P41" s="3" t="s">
         <v>156</v>
       </c>
@@ -4323,7 +4609,7 @@
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
     </row>
-    <row r="42" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4361,9 +4647,16 @@
       <c r="L42" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="M42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
+      </c>
       <c r="P42" s="3" t="s">
         <v>156</v>
       </c>
@@ -4397,7 +4690,7 @@
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
     </row>
-    <row r="43" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4435,9 +4728,16 @@
       <c r="L43" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="M43" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
+      </c>
       <c r="P43" s="3" t="s">
         <v>156</v>
       </c>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6DCD5-E5E1-D848-9B35-A03E8C8F762D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CC35E-E35A-8142-BC54-D7F8BA4263CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
@@ -1202,10 +1202,10 @@
   <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2098,7 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2179,7 +2179,7 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2584,7 +2584,7 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2989,7 +2989,7 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3313,7 +3313,7 @@
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3556,7 +3556,7 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
     </row>
-    <row r="34" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
     </row>
-    <row r="35" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
     </row>
-    <row r="36" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4285,7 +4285,7 @@
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
     </row>
-    <row r="38" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
     </row>
-    <row r="39" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
     </row>
-    <row r="41" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
     </row>
-    <row r="43" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CC35E-E35A-8142-BC54-D7F8BA4263CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F4B519-A5FD-42F5-8611-3D44FC6CAAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="241">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114</t>
+  </si>
+  <si>
+    <t>experiment_path</t>
   </si>
 </sst>
 </file>
@@ -1199,61 +1202,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AP43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="40.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="47.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="47.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="40.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="47.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1309,76 +1313,79 @@
         <v>10</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1434,7 +1441,10 @@
       <c r="R2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3" t="str">
+        <f>_xlfn.CONCAT("./docking/inputs/experiments/",A2)</f>
+        <v>./docking/inputs/experiments/TUPPD1-001</v>
+      </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -1457,8 +1467,9 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
     </row>
-    <row r="3" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1514,7 +1525,10 @@
       <c r="R3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3" t="str">
+        <f t="shared" ref="S3:S43" si="1">_xlfn.CONCAT("./docking/inputs/experiments/",A3)</f>
+        <v>./docking/inputs/experiments/TUPPD1-002</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -1537,8 +1551,9 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
     </row>
-    <row r="4" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1594,7 +1609,10 @@
       <c r="R4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/TUPPD1-003</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1617,8 +1635,9 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
     </row>
-    <row r="5" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1693,10 @@
       <c r="R5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/TUPPD1-004</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -1697,8 +1719,9 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
     </row>
-    <row r="6" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1777,10 @@
       <c r="R6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/TUPPD1-005</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1777,8 +1803,9 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
     </row>
-    <row r="7" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1834,7 +1861,10 @@
       <c r="R7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/TUPPD1-006</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -1857,8 +1887,9 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
     </row>
-    <row r="8" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1914,7 +1945,10 @@
       <c r="R8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/TUPPD1-007</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1937,8 +1971,9 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
     </row>
-    <row r="9" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
@@ -1994,7 +2029,10 @@
       <c r="R9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/TUPPD1-008</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
@@ -2017,8 +2055,9 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
     </row>
-    <row r="10" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -2074,7 +2113,10 @@
       <c r="R10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/TUPPD1-009</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -2097,8 +2139,9 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
     </row>
-    <row r="11" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2198,10 @@
       <c r="R11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Acrixolimab</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -2178,8 +2224,9 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2205,7 +2252,7 @@
         <v>91</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" ref="I12:I43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
+        <f t="shared" ref="I12:I43" si="2">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
         <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab.pdb</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2236,7 +2283,10 @@
       <c r="R12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Balstilimab</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -2259,8 +2309,9 @@
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
     </row>
-    <row r="13" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2286,7 +2337,7 @@
         <v>92</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Budigalimab.pdb</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -2317,7 +2368,10 @@
       <c r="R13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Budigalimab</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -2340,8 +2394,9 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
     </row>
-    <row r="14" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2367,7 +2422,7 @@
         <v>93</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Camrelizumab.pdb</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2398,7 +2453,10 @@
       <c r="R14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Camrelizumab</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2421,8 +2479,9 @@
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
     </row>
-    <row r="15" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2448,7 +2507,7 @@
         <v>94</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Cemiplimab.pdb</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -2479,7 +2538,10 @@
       <c r="R15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Cemiplimab</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -2502,8 +2564,9 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
     </row>
-    <row r="16" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2529,7 +2592,7 @@
         <v>95</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Cetrelimab.pdb</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -2560,7 +2623,10 @@
       <c r="R16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S16" s="3"/>
+      <c r="S16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Cetrelimab</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2583,8 +2649,9 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
     </row>
-    <row r="17" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2610,7 +2677,7 @@
         <v>96</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Dostarlimab.pdb</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -2641,7 +2708,10 @@
       <c r="R17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Dostarlimab</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -2664,8 +2734,9 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
     </row>
-    <row r="18" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2691,7 +2762,7 @@
         <v>97</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Enlonstobart.pdb</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -2722,7 +2793,10 @@
       <c r="R18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Enlonstobart</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2745,8 +2819,9 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
     </row>
-    <row r="19" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2772,7 +2847,7 @@
         <v>98</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Eurestobart.pdb</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -2803,7 +2878,10 @@
       <c r="R19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S19" s="3"/>
+      <c r="S19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Eurestobart</v>
+      </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -2826,8 +2904,9 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
     </row>
-    <row r="20" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2853,7 +2932,7 @@
         <v>99</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab.pdb</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -2884,7 +2963,10 @@
       <c r="R20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Ezabenlimab</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2907,8 +2989,9 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
     </row>
-    <row r="21" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2934,7 +3017,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Finotonlimab.pdb</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -2965,7 +3048,10 @@
       <c r="R21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S21" s="3"/>
+      <c r="S21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Finotonlimab</v>
+      </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -2988,8 +3074,9 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
     </row>
-    <row r="22" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3015,7 +3102,7 @@
         <v>101</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Geptanolimab.pdb</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -3046,7 +3133,10 @@
       <c r="R22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Geptanolimab</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -3069,8 +3159,9 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
     </row>
-    <row r="23" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3096,7 +3187,7 @@
         <v>102</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Iparomlimab.pdb</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -3127,7 +3218,10 @@
       <c r="R23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Iparomlimab</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -3150,8 +3244,9 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
     </row>
-    <row r="24" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3177,7 +3272,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Lipustobart.pdb</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -3208,7 +3303,10 @@
       <c r="R24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S24" s="3"/>
+      <c r="S24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Lipustobart</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -3231,8 +3329,9 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3258,7 +3357,7 @@
         <v>104</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Nivolumab.pdb</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -3289,7 +3388,10 @@
       <c r="R25" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S25" s="3"/>
+      <c r="S25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Nivolumab</v>
+      </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3312,8 +3414,9 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
     </row>
-    <row r="26" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3339,7 +3442,7 @@
         <v>105</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab.pdb</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -3370,7 +3473,10 @@
       <c r="R26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Nofazinlimab</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -3393,8 +3499,9 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
     </row>
-    <row r="27" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3420,7 +3527,7 @@
         <v>106</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab.pdb</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -3451,7 +3558,10 @@
       <c r="R27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S27" s="3"/>
+      <c r="S27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Pembrolizumab</v>
+      </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3474,8 +3584,9 @@
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
     </row>
-    <row r="28" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3501,7 +3612,7 @@
         <v>107</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Penpulimab.pdb</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -3532,7 +3643,10 @@
       <c r="R28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S28" s="3"/>
+      <c r="S28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Penpulimab</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3555,8 +3669,9 @@
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
     </row>
-    <row r="29" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3582,7 +3697,7 @@
         <v>108</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Perenostobart.pdb</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -3613,7 +3728,10 @@
       <c r="R29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S29" s="3"/>
+      <c r="S29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Perenostobart</v>
+      </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -3636,8 +3754,9 @@
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
     </row>
-    <row r="30" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3663,7 +3782,7 @@
         <v>109</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Peresolimab.pdb</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -3694,7 +3813,10 @@
       <c r="R30" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S30" s="3"/>
+      <c r="S30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Peresolimab</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3717,8 +3839,9 @@
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
     </row>
-    <row r="31" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3744,7 +3867,7 @@
         <v>110</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pidilizumab.pdb</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -3775,7 +3898,10 @@
       <c r="R31" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S31" s="3"/>
+      <c r="S31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Pidilizumab</v>
+      </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -3798,8 +3924,9 @@
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
     </row>
-    <row r="32" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3825,7 +3952,7 @@
         <v>111</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pimivalimab.pdb</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -3856,7 +3983,10 @@
       <c r="R32" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S32" s="3"/>
+      <c r="S32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Pimivalimab</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3879,8 +4009,9 @@
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
     </row>
-    <row r="33" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3906,7 +4037,7 @@
         <v>112</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart.pdb</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -3937,7 +4068,10 @@
       <c r="R33" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S33" s="3"/>
+      <c r="S33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Pradusinstobart</v>
+      </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
@@ -3960,8 +4094,9 @@
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
     </row>
-    <row r="34" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3987,7 +4122,7 @@
         <v>113</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab.pdb</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -4018,7 +4153,10 @@
       <c r="R34" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S34" s="3"/>
+      <c r="S34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Pucotenlimab</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -4041,8 +4179,9 @@
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
     </row>
-    <row r="35" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4068,7 +4207,7 @@
         <v>114</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Retifanlimab.pdb</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -4099,7 +4238,10 @@
       <c r="R35" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S35" s="3"/>
+      <c r="S35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Retifanlimab</v>
+      </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -4122,8 +4264,9 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
     </row>
-    <row r="36" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4149,7 +4292,7 @@
         <v>115</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Rosnilimab.pdb</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -4180,7 +4323,10 @@
       <c r="R36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S36" s="3"/>
+      <c r="S36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Rosnilimab</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -4203,8 +4349,9 @@
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
     </row>
-    <row r="37" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4230,7 +4377,7 @@
         <v>116</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Sasanlimab.pdb</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -4261,7 +4408,10 @@
       <c r="R37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S37" s="3"/>
+      <c r="S37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Sasanlimab</v>
+      </c>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -4284,8 +4434,9 @@
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
     </row>
-    <row r="38" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4311,7 +4462,7 @@
         <v>117</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Serplulimab.pdb</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -4342,7 +4493,10 @@
       <c r="R38" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S38" s="3"/>
+      <c r="S38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Serplulimab</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -4365,8 +4519,9 @@
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
     </row>
-    <row r="39" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4392,7 +4547,7 @@
         <v>118</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Sintilimab.pdb</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -4423,7 +4578,10 @@
       <c r="R39" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S39" s="3"/>
+      <c r="S39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Sintilimab</v>
+      </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -4446,8 +4604,9 @@
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
     </row>
-    <row r="40" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4473,7 +4632,7 @@
         <v>119</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Spartalizumab.pdb</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -4504,7 +4663,10 @@
       <c r="R40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Spartalizumab</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4527,8 +4689,9 @@
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
     </row>
-    <row r="41" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4554,7 +4717,7 @@
         <v>120</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Tislelizumab.pdb</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -4585,7 +4748,10 @@
       <c r="R41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S41" s="3"/>
+      <c r="S41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Tislelizumab</v>
+      </c>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
@@ -4608,8 +4774,9 @@
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
     </row>
-    <row r="42" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4635,7 +4802,7 @@
         <v>121</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Toripalimab.pdb</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -4666,7 +4833,10 @@
       <c r="R42" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S42" s="3"/>
+      <c r="S42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Toripalimab</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4689,8 +4859,9 @@
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
     </row>
-    <row r="43" spans="1:41" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4716,7 +4887,7 @@
         <v>122</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab.pdb</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -4747,7 +4918,10 @@
       <c r="R43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S43" s="3"/>
+      <c r="S43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>./docking/inputs/experiments/Zeluvalimab</v>
+      </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -4770,9 +4944,10 @@
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
+  <autoFilter ref="A1:AP43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F4B519-A5FD-42F5-8611-3D44FC6CAAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CACAB6-06BF-BB41-B45C-2EFD9C4F8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="257">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -761,7 +761,55 @@
     <t>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114</t>
   </si>
   <si>
-    <t>experiment_path</t>
+    <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>N/A (7,12,25)</t>
+  </si>
+  <si>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>N/A (107,78,66,67,91,41)</t>
+  </si>
+  <si>
+    <t>Cluster  1</t>
+  </si>
+  <si>
+    <t>N/A (109, 70)</t>
+  </si>
+  <si>
+    <t>Cluster 7</t>
+  </si>
+  <si>
+    <t>Cluster 3</t>
+  </si>
+  <si>
+    <t>61w</t>
+  </si>
+  <si>
+    <t>25w</t>
+  </si>
+  <si>
+    <t>106w</t>
+  </si>
+  <si>
+    <t>97w</t>
+  </si>
+  <si>
+    <t>91w</t>
+  </si>
+  <si>
+    <t>151w</t>
+  </si>
+  <si>
+    <t>70w</t>
+  </si>
+  <si>
+    <t>183w</t>
+  </si>
+  <si>
+    <t>144w</t>
   </si>
 </sst>
 </file>
@@ -1202,62 +1250,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="40.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="47.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="40.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="47.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1313,79 +1360,76 @@
         <v>10</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>240</v>
+        <v>123</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ1" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP1" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,11 +1485,12 @@
       <c r="R2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="3" t="str">
-        <f>_xlfn.CONCAT("./docking/inputs/experiments/",A2)</f>
-        <v>./docking/inputs/experiments/TUPPD1-001</v>
-      </c>
-      <c r="T2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -1467,9 +1512,8 @@
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
     </row>
-    <row r="3" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1525,11 +1569,12 @@
       <c r="R3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S3" s="3" t="str">
-        <f t="shared" ref="S3:S43" si="1">_xlfn.CONCAT("./docking/inputs/experiments/",A3)</f>
-        <v>./docking/inputs/experiments/TUPPD1-002</v>
-      </c>
-      <c r="T3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1551,9 +1596,8 @@
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
     </row>
-    <row r="4" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1609,11 +1653,12 @@
       <c r="R4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/TUPPD1-003</v>
-      </c>
-      <c r="T4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1635,9 +1680,8 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
     </row>
-    <row r="5" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1693,11 +1737,12 @@
       <c r="R5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/TUPPD1-004</v>
-      </c>
-      <c r="T5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1719,9 +1764,8 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
     </row>
-    <row r="6" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1777,11 +1821,12 @@
       <c r="R6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/TUPPD1-005</v>
-      </c>
-      <c r="T6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1803,9 +1848,8 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
     </row>
-    <row r="7" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1861,11 +1905,12 @@
       <c r="R7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/TUPPD1-006</v>
-      </c>
-      <c r="T7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1887,9 +1932,8 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
     </row>
-    <row r="8" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1945,11 +1989,12 @@
       <c r="R8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/TUPPD1-007</v>
-      </c>
-      <c r="T8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1971,9 +2016,8 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
     </row>
-    <row r="9" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
@@ -2029,11 +2073,12 @@
       <c r="R9" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/TUPPD1-008</v>
-      </c>
-      <c r="T9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2055,9 +2100,8 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
     </row>
-    <row r="10" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -2113,11 +2157,12 @@
       <c r="R10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/TUPPD1-009</v>
-      </c>
-      <c r="T10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2139,9 +2184,8 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
     </row>
-    <row r="11" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2198,10 +2242,7 @@
       <c r="R11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Acrixolimab</v>
-      </c>
+      <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -2224,9 +2265,8 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2252,7 +2292,7 @@
         <v>91</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f t="shared" ref="I12:I43" si="2">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
+        <f t="shared" ref="I12:I43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
         <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab.pdb</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2283,10 +2323,7 @@
       <c r="R12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Balstilimab</v>
-      </c>
+      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -2309,9 +2346,8 @@
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
     </row>
-    <row r="13" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2337,7 +2373,7 @@
         <v>92</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Budigalimab.pdb</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -2368,10 +2404,7 @@
       <c r="R13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Budigalimab</v>
-      </c>
+      <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -2394,9 +2427,8 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
     </row>
-    <row r="14" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2422,7 +2454,7 @@
         <v>93</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Camrelizumab.pdb</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2453,10 +2485,7 @@
       <c r="R14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Camrelizumab</v>
-      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2479,9 +2508,8 @@
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
     </row>
-    <row r="15" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2535,7 @@
         <v>94</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Cemiplimab.pdb</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -2538,10 +2566,7 @@
       <c r="R15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Cemiplimab</v>
-      </c>
+      <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -2564,9 +2589,8 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
     </row>
-    <row r="16" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2592,7 +2616,7 @@
         <v>95</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Cetrelimab.pdb</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -2623,10 +2647,7 @@
       <c r="R16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Cetrelimab</v>
-      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2649,9 +2670,8 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
     </row>
-    <row r="17" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2677,7 +2697,7 @@
         <v>96</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Dostarlimab.pdb</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -2708,10 +2728,7 @@
       <c r="R17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S17" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Dostarlimab</v>
-      </c>
+      <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -2734,9 +2751,8 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
     </row>
-    <row r="18" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2762,7 +2778,7 @@
         <v>97</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Enlonstobart.pdb</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -2793,10 +2809,7 @@
       <c r="R18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S18" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Enlonstobart</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2819,9 +2832,8 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
     </row>
-    <row r="19" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2847,7 +2859,7 @@
         <v>98</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Eurestobart.pdb</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -2878,10 +2890,7 @@
       <c r="R19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S19" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Eurestobart</v>
-      </c>
+      <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -2904,9 +2913,8 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
     </row>
-    <row r="20" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2932,7 +2940,7 @@
         <v>99</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab.pdb</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -2963,10 +2971,7 @@
       <c r="R20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S20" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Ezabenlimab</v>
-      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2989,9 +2994,8 @@
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
     </row>
-    <row r="21" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Finotonlimab.pdb</v>
       </c>
       <c r="J21" s="3" t="s">
@@ -3048,10 +3052,7 @@
       <c r="R21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S21" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Finotonlimab</v>
-      </c>
+      <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -3074,9 +3075,8 @@
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
     </row>
-    <row r="22" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>101</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Geptanolimab.pdb</v>
       </c>
       <c r="J22" s="3" t="s">
@@ -3133,10 +3133,7 @@
       <c r="R22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S22" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Geptanolimab</v>
-      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -3159,9 +3156,8 @@
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
     </row>
-    <row r="23" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3187,7 +3183,7 @@
         <v>102</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Iparomlimab.pdb</v>
       </c>
       <c r="J23" s="3" t="s">
@@ -3218,10 +3214,7 @@
       <c r="R23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S23" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Iparomlimab</v>
-      </c>
+      <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -3244,9 +3237,8 @@
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
     </row>
-    <row r="24" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3272,7 +3264,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Lipustobart.pdb</v>
       </c>
       <c r="J24" s="3" t="s">
@@ -3303,10 +3295,7 @@
       <c r="R24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S24" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Lipustobart</v>
-      </c>
+      <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -3329,9 +3318,8 @@
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
     </row>
-    <row r="25" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3357,7 +3345,7 @@
         <v>104</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Nivolumab.pdb</v>
       </c>
       <c r="J25" s="3" t="s">
@@ -3388,10 +3376,7 @@
       <c r="R25" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Nivolumab</v>
-      </c>
+      <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -3414,9 +3399,8 @@
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
     </row>
-    <row r="26" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3442,7 +3426,7 @@
         <v>105</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab.pdb</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -3473,10 +3457,7 @@
       <c r="R26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S26" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Nofazinlimab</v>
-      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -3499,9 +3480,8 @@
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
     </row>
-    <row r="27" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3527,7 +3507,7 @@
         <v>106</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab.pdb</v>
       </c>
       <c r="J27" s="3" t="s">
@@ -3558,10 +3538,7 @@
       <c r="R27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S27" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Pembrolizumab</v>
-      </c>
+      <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -3584,9 +3561,8 @@
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
     </row>
-    <row r="28" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3612,7 +3588,7 @@
         <v>107</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Penpulimab.pdb</v>
       </c>
       <c r="J28" s="3" t="s">
@@ -3643,10 +3619,7 @@
       <c r="R28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S28" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Penpulimab</v>
-      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3669,9 +3642,8 @@
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
     </row>
-    <row r="29" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3697,7 +3669,7 @@
         <v>108</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Perenostobart.pdb</v>
       </c>
       <c r="J29" s="3" t="s">
@@ -3728,10 +3700,7 @@
       <c r="R29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S29" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Perenostobart</v>
-      </c>
+      <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -3754,9 +3723,8 @@
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
     </row>
-    <row r="30" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3782,7 +3750,7 @@
         <v>109</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Peresolimab.pdb</v>
       </c>
       <c r="J30" s="3" t="s">
@@ -3813,10 +3781,7 @@
       <c r="R30" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S30" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Peresolimab</v>
-      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3839,9 +3804,8 @@
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
     </row>
-    <row r="31" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3867,7 +3831,7 @@
         <v>110</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pidilizumab.pdb</v>
       </c>
       <c r="J31" s="3" t="s">
@@ -3898,10 +3862,7 @@
       <c r="R31" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Pidilizumab</v>
-      </c>
+      <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -3924,9 +3885,8 @@
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
     </row>
-    <row r="32" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3952,7 +3912,7 @@
         <v>111</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pimivalimab.pdb</v>
       </c>
       <c r="J32" s="3" t="s">
@@ -3983,10 +3943,7 @@
       <c r="R32" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S32" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Pimivalimab</v>
-      </c>
+      <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -4009,9 +3966,8 @@
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
     </row>
-    <row r="33" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -4037,7 +3993,7 @@
         <v>112</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart.pdb</v>
       </c>
       <c r="J33" s="3" t="s">
@@ -4068,10 +4024,7 @@
       <c r="R33" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S33" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Pradusinstobart</v>
-      </c>
+      <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
@@ -4094,9 +4047,8 @@
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
     </row>
-    <row r="34" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4122,7 +4074,7 @@
         <v>113</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab.pdb</v>
       </c>
       <c r="J34" s="3" t="s">
@@ -4153,10 +4105,7 @@
       <c r="R34" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Pucotenlimab</v>
-      </c>
+      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -4179,9 +4128,8 @@
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
     </row>
-    <row r="35" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4207,7 +4155,7 @@
         <v>114</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Retifanlimab.pdb</v>
       </c>
       <c r="J35" s="3" t="s">
@@ -4238,10 +4186,7 @@
       <c r="R35" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Retifanlimab</v>
-      </c>
+      <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -4264,9 +4209,8 @@
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
     </row>
-    <row r="36" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4292,7 +4236,7 @@
         <v>115</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Rosnilimab.pdb</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -4323,10 +4267,7 @@
       <c r="R36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Rosnilimab</v>
-      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -4349,9 +4290,8 @@
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
     </row>
-    <row r="37" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4377,7 +4317,7 @@
         <v>116</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Sasanlimab.pdb</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -4408,10 +4348,7 @@
       <c r="R37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Sasanlimab</v>
-      </c>
+      <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -4434,9 +4371,8 @@
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
     </row>
-    <row r="38" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4462,7 +4398,7 @@
         <v>117</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Serplulimab.pdb</v>
       </c>
       <c r="J38" s="3" t="s">
@@ -4493,10 +4429,7 @@
       <c r="R38" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Serplulimab</v>
-      </c>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -4519,9 +4452,8 @@
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
     </row>
-    <row r="39" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4547,7 +4479,7 @@
         <v>118</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Sintilimab.pdb</v>
       </c>
       <c r="J39" s="3" t="s">
@@ -4578,10 +4510,7 @@
       <c r="R39" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Sintilimab</v>
-      </c>
+      <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -4604,9 +4533,8 @@
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
     </row>
-    <row r="40" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4632,7 +4560,7 @@
         <v>119</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Spartalizumab.pdb</v>
       </c>
       <c r="J40" s="3" t="s">
@@ -4663,10 +4591,7 @@
       <c r="R40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Spartalizumab</v>
-      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4689,9 +4614,8 @@
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
     </row>
-    <row r="41" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4717,7 +4641,7 @@
         <v>120</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Tislelizumab.pdb</v>
       </c>
       <c r="J41" s="3" t="s">
@@ -4748,10 +4672,7 @@
       <c r="R41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Tislelizumab</v>
-      </c>
+      <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
@@ -4774,9 +4695,8 @@
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
     </row>
-    <row r="42" spans="1:42" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4802,7 +4722,7 @@
         <v>121</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Toripalimab.pdb</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -4833,10 +4753,7 @@
       <c r="R42" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Toripalimab</v>
-      </c>
+      <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4859,9 +4776,8 @@
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
     </row>
-    <row r="43" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4887,7 +4803,7 @@
         <v>122</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab.pdb</v>
       </c>
       <c r="J43" s="3" t="s">
@@ -4918,10 +4834,7 @@
       <c r="R43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>./docking/inputs/experiments/Zeluvalimab</v>
-      </c>
+      <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -4944,10 +4857,9 @@
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
+  <autoFilter ref="A1:AO43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/PD1_Fab_Diffusion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CACAB6-06BF-BB41-B45C-2EFD9C4F8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28151C2F-5B72-4B4F-9FD5-A87BA17B0C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20180" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="295">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -785,31 +785,145 @@
     <t>Cluster 3</t>
   </si>
   <si>
-    <t>61w</t>
-  </si>
-  <si>
-    <t>25w</t>
-  </si>
-  <si>
-    <t>106w</t>
-  </si>
-  <si>
-    <t>97w</t>
-  </si>
-  <si>
-    <t>91w</t>
-  </si>
-  <si>
-    <t>151w</t>
-  </si>
-  <si>
-    <t>70w</t>
-  </si>
-  <si>
-    <t>183w</t>
-  </si>
-  <si>
-    <t>144w</t>
+    <t>../../docking/inputs/experiments/Acrixolimab/run1/structures/it1/water/Acrixolimab_99w.pdb</t>
+  </si>
+  <si>
+    <t>Cluster 9</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Balstilimab/run1/structures/it1/water/Balstilimab_51w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Budigalimab/run1/structures/it1/water/Budigalimab_181w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Camrelizumab/run1/structures/it1/water/Camrelizumab_170w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Cemiplimab/run1/structures/it1/water/Cemiplimab_42w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Cetrelimab/run1/structures/it1/water/Cetrelimab_132w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Dostarlimab/run1/structures/it1/water/Dostarlimab_133w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Enlonstobart/run1/structures/it1/water/Enlonstobart_122w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Eurestobart/run1/structures/it1/water/Eurestobart_26w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Ezabenlimab/run1/structures/it1/water/Ezabenlimab_162w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Finotonlimab/run1/structures/it1/water/Finotonlimab_121w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Geptanolimab/run1/structures/it1/water/Geptanolimab_154w.pdb</t>
+  </si>
+  <si>
+    <t>Cluster 5</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Iparomlimab/run1/structures/it1/water/Iparomlimab_135w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Lipustobart/run1/structures/it1/water/Lipustobart_67w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Nivolumab/run1/structures/it1/water/Nivolumab_199w.pdb</t>
+  </si>
+  <si>
+    <t>Cluster 10</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Nofazinlimab/run1/structures/it1/water/Nofazinlimab_166w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Pembrolizumab/run1/structures/it1/water/Pembrolizumab_144w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Penpulimab/run1/structures/it1/water/Penpulimab_170w.pdb</t>
+  </si>
+  <si>
+    <t>Cluster 6</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Perenostobart/run1/structures/it1/water/Perenostobart_87w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Peresolimab/run1/structures/it1/water/Peresolimab_91w.pdb</t>
+  </si>
+  <si>
+    <t>Cluster 4</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Pidilizumab/run1/structures/it1/water/Pidilizumab_40w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Pimivalimab/run1/structures/it1/water/Pimivalimab_117w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Pradusinstobart/run1/structures/it1/water/Pradusinstobart_112w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Pucotenlimab/run1/structures/it1/water/Pucotenlimab_91w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Retifanlimab/run1/structures/it1/water/Retifanlimab_121w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Rosnilimab/run1/structures/it1/water/Rosnilimab_140w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Sasanlimab/run1/structures/it1/water/Sasanlimab_131w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Serplulimab/run1/structures/it1/water/Serplulimab_81w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Sintilimab/run1/structures/it1/water/Sintilimab_165w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Spartalizumab/run1/structures/it1/water/Spartalizumab_190w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Tislelizumab/run1/structures/it1/water/Tislelizumab_70w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Toripalimab/run1/structures/it1/water/Toripalimab_142w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/Zeluvalimab/run1/structures/it1/water/Zeluvalimab_42w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-001/run1/structures/it1/water/TUPPD1-001_61w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-002/run1/structures/it1/water/TUPPD1-002_25w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-003/run1/structures/it1/water/TUPPD1-003_106w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-004/run1/structures/it1/water/TUPPD1-004_97w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-005/run1/structures/it1/water/TUPPD1-005_91w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-006/run1/structures/it1/water/TUPPD1-006_151w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-007/run1/structures/it1/water/TUPPD1-007_70w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-008/run1/structures/it1/water/TUPPD1-008_144w.pdb</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-009/run1/structures/it1/water/TUPPD1-009_183w.pdb</t>
   </si>
 </sst>
 </file>
@@ -898,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -908,12 +1022,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,6 +1042,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1252,59 +1363,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}">
   <dimension ref="A1:AO43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="40.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="47.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="47.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="40.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="47.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.1640625" style="1"/>
+    <col min="40" max="40" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1317,10 +1428,10 @@
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>148</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1429,7 +1540,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,10 +1553,10 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1469,7 +1580,7 @@
       <c r="M2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O2" s="3" t="str">
@@ -1489,31 +1600,73 @@
         <v>240</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="U2" s="3">
+        <v>13</v>
+      </c>
+      <c r="V2" s="3">
+        <v>784.87</v>
+      </c>
+      <c r="W2" s="3">
+        <v>65.94</v>
+      </c>
+      <c r="X2" s="3">
+        <v>-222.16</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>-77.05</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>-60.93</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>3.61</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>-11.06</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1.157</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>24.15</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>1.41</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1818.277</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>23.655000000000001</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>-3.5329999999999999</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>6.4669999999999996</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>-10.9</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>1E-8</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1526,10 +1679,10 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1553,7 +1706,7 @@
       <c r="M3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O3" s="3" t="str">
@@ -1573,31 +1726,73 @@
         <v>241</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
+        <v>287</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3</v>
+      </c>
+      <c r="V3" s="3">
+        <v>-52.760266666666666</v>
+      </c>
+      <c r="W3" s="3">
+        <v>3.3192373665581001</v>
+      </c>
+      <c r="X3" s="3">
+        <v>-44.713466670000003</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1.7295446266446977</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>-80.467966666666669</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>32.421371952909212</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1376.8793333333333</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>782.16564900977926</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>-10.71</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>15.75488</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>24.333333333333332</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>4.1899350299921787</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1654.57</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>311.07499999999999</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>66.170873330000006</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>87.999296209999997</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>-12</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>1.6000000000000001E-9</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1610,10 +1805,10 @@
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1637,7 +1832,7 @@
       <c r="M4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O4" s="3" t="str">
@@ -1657,31 +1852,73 @@
         <v>242</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="U4" s="3">
+        <v>83</v>
+      </c>
+      <c r="V4" s="3">
+        <v>-46.72</v>
+      </c>
+      <c r="W4" s="3">
+        <v>6.37</v>
+      </c>
+      <c r="X4" s="3">
+        <v>-34.1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>6.79</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>-126.13</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>7.09</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1109.25</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>-22.821000000000002</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1642.7660000000001</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>26.641999999999999</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>28.774000000000001</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>10.272</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>-12</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>1.6000000000000001E-9</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1694,10 +1931,10 @@
       <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1721,7 +1958,7 @@
       <c r="M5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O5" s="3" t="str">
@@ -1741,31 +1978,73 @@
         <v>240</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="U5" s="3">
+        <v>10</v>
+      </c>
+      <c r="V5" s="3">
+        <v>-45.76</v>
+      </c>
+      <c r="W5" s="3">
+        <v>8.64</v>
+      </c>
+      <c r="X5" s="3">
+        <v>-29.4</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>6.93</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>-163.59</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>25.62</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1037.9100000000001</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>98.11</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1.819</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>24.3</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>42.563000000000002</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>15.061999999999999</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>42.563000000000002</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>15.061999999999999</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>3.3000000000000002E-7</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1778,10 +2057,10 @@
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1805,7 +2084,7 @@
       <c r="M6" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O6" s="3" t="str">
@@ -1825,31 +2104,73 @@
         <v>243</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="U6" s="3">
+        <v>6</v>
+      </c>
+      <c r="V6" s="3">
+        <v>-43.546466666666674</v>
+      </c>
+      <c r="W6" s="3">
+        <v>7.6740563297529594</v>
+      </c>
+      <c r="X6" s="3">
+        <v>-33.142749999999999</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>7.080697321062372</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>-104.0371</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>35.871357840947901</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>999.42466666666678</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>76.042868108864923</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>-6.9524441666666661</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>3.2398758224820106</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>2.0548046676563256</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>1778.14</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>84.603260969460678</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>39.039852500000002</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>13.968611811825278</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>-10.5</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>1.7999999999999999E-8</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1862,10 +2183,10 @@
       <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1889,7 +2210,7 @@
       <c r="M7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O7" s="3" t="str">
@@ -1909,31 +2230,73 @@
         <v>244</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="U7" s="3">
+        <v>80</v>
+      </c>
+      <c r="V7" s="3">
+        <v>-46.31</v>
+      </c>
+      <c r="W7" s="3">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="X7" s="3">
+        <v>-31.8</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>7.71</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>-145.13999999999999</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1193.44</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>121.54</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>-6.4359999999999999</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>27.4</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>2.92</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1516.394</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>138.52199999999999</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>52.08</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>15.823</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>-11.1</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>7.6999999999999995E-9</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1946,10 +2309,10 @@
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1973,7 +2336,7 @@
       <c r="M8" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O8" s="3" t="str">
@@ -1993,31 +2356,73 @@
         <v>245</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2</v>
+      </c>
+      <c r="V8" s="3">
+        <v>-43.710300000000004</v>
+      </c>
+      <c r="W8" s="3">
+        <v>5.5040999999999451</v>
+      </c>
+      <c r="X8" s="3">
+        <v>-32.113500000000002</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0.47520000000000095</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>-115.96775</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>50.289250000000017</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>923.19599999999991</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>48.512</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>2.3989824999999998</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1.9589874999999999</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>23</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>1664.2149999999999</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>263.90499999999997</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>39.4115325</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>13.425262500000006</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>-10.9</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>1.0999999999999999E-8</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>152</v>
       </c>
@@ -2030,10 +2435,10 @@
       <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -2057,7 +2462,7 @@
       <c r="M9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O9" s="3" t="str">
@@ -2077,31 +2482,73 @@
         <v>246</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="U9" s="3">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>-57.64</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="X9" s="3">
+        <v>-33.08</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>-245.61</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>8.06</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>918.09</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>-3.2949999999999999</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>23</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>2.12</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>1780.84</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>35.363999999999997</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>6.3120000000000003</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>5.1479999999999997</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>-9</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>2.3999999999999998E-7</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
@@ -2114,10 +2561,10 @@
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -2141,7 +2588,7 @@
       <c r="M10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="10" t="s">
         <v>171</v>
       </c>
       <c r="O10" s="3" t="str">
@@ -2161,32 +2608,74 @@
         <v>247</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="U10" s="3">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
+        <v>-61.05</v>
+      </c>
+      <c r="W10" s="3">
+        <v>7.32</v>
+      </c>
+      <c r="X10" s="3">
+        <v>-40.76</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>5.12</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>-202.88</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>26.25</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>946.42</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>47.25</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>4.6559999999999997</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>24.2</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>1750.73</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>100.116</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>17.965</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>9.9930000000000003</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>-12.5</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>6.8000000000000003E-10</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2198,16 +2687,16 @@
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>90</v>
       </c>
       <c r="I11" s="3" t="str">
@@ -2242,32 +2731,78 @@
       <c r="R11" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="U11" s="3">
+        <v>25</v>
+      </c>
+      <c r="V11" s="3">
+        <v>-88.11</v>
+      </c>
+      <c r="W11" s="3">
+        <v>10.49</v>
+      </c>
+      <c r="X11" s="3">
+        <v>-67.25</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>11.08</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>-208.64</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>36.61</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>443.66</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>83.73</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>-3.5680000000000001</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>4.6210000000000004</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>2631.9589999999998</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>213.10900000000001</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>-68.177999999999997</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>18.361999999999998</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>-13.1</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>2.5000000000000002E-10</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2279,16 +2814,16 @@
       <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I12" s="3" t="str">
@@ -2323,32 +2858,78 @@
       <c r="R12" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="U12" s="3">
+        <v>9</v>
+      </c>
+      <c r="V12" s="3">
+        <v>-86.95</v>
+      </c>
+      <c r="W12" s="3">
+        <v>9.52</v>
+      </c>
+      <c r="X12" s="3">
+        <v>-70.14</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>-168.07</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>49.56</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>426.47</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>-9.4920000000000009</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>3.22</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>13.22</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>2226.3240000000001</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>135.46199999999999</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>-70.600999999999999</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>18.917000000000002</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>-12.4</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>8.3000000000000003E-10</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2360,16 +2941,16 @@
       <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>92</v>
       </c>
       <c r="I13" s="3" t="str">
@@ -2404,32 +2985,78 @@
       <c r="R13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="U13" s="3">
+        <v>153</v>
+      </c>
+      <c r="V13" s="3">
+        <v>-81.2</v>
+      </c>
+      <c r="W13" s="3">
+        <v>9.74</v>
+      </c>
+      <c r="X13" s="3">
+        <v>-63.01</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>-181.94</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>47.1</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>534.13</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>73.83</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>-3.6239999999999899</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>3.3559999999999999</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>14.89</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>2065.0650000000001</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>141.73099999999999</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>-49.603999999999999</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>16.303999999999998</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>-16.2</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>1.4000000000000001E-12</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2441,16 +3068,16 @@
       <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I14" s="3" t="str">
@@ -2485,32 +3112,78 @@
       <c r="R14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="U14" s="3">
+        <v>12</v>
+      </c>
+      <c r="V14" s="3">
+        <v>-63.03</v>
+      </c>
+      <c r="W14" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="X14" s="3">
+        <v>-56.67</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>-63.59</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>12.27</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>591.26</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>63.19</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>-18.722000000000001</v>
+      </c>
+      <c r="AE14" s="11">
+        <v>2.871</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>1700.299</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>138.744</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>-28.986999999999998</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>7.3159999999999998</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>-10.8</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>1.3000000000000001E-8</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2522,16 +3195,16 @@
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>94</v>
       </c>
       <c r="I15" s="3" t="str">
@@ -2566,32 +3239,78 @@
       <c r="R15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="U15" s="3">
+        <v>34</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-77.38</v>
+      </c>
+      <c r="W15" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-60.06</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>-173.16</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>50</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>406.41</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>78.3</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>-6.5279999999999996</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>4.351</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>11.29</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>2065.154</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>197.488</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>-60.578000000000003</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>-9.5</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>1.1000000000000001E-7</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2603,16 +3322,16 @@
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>95</v>
       </c>
       <c r="I16" s="3" t="str">
@@ -2647,32 +3366,78 @@
       <c r="R16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="U16" s="3">
+        <v>43</v>
+      </c>
+      <c r="V16" s="3">
+        <v>-78.81</v>
+      </c>
+      <c r="W16" s="3">
+        <v>7.92</v>
+      </c>
+      <c r="X16" s="3">
+        <v>-61.01</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>8.86</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>-178.02</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>573.99</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>56.48</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>-6.4589999999999996</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>15.46</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>2104.84</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>67.848999999999904</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>-45.677999999999997</v>
+      </c>
+      <c r="AM16" s="11">
+        <v>9.0269999999999992</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>-14.3</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>3.3000000000000002E-11</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2684,16 +3449,16 @@
       <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>96</v>
       </c>
       <c r="I17" s="3" t="str">
@@ -2728,32 +3493,78 @@
       <c r="R17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
+      <c r="S17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="U17" s="3">
+        <v>35</v>
+      </c>
+      <c r="V17" s="3">
+        <v>-77.73</v>
+      </c>
+      <c r="W17" s="3">
+        <v>12.46</v>
+      </c>
+      <c r="X17" s="3">
+        <v>-61.81</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>10.83</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>-159.16</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>41.95</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>444.96</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>75.58</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>-15.439</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>2.665</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>11.94</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>1953.759</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>146.55500000000001</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>-64.590999999999994</v>
+      </c>
+      <c r="AM17" s="11">
+        <v>18.230999999999899</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>-14.3</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>3.3999999999999999E-11</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2765,16 +3576,16 @@
       <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I18" s="3" t="str">
@@ -2809,32 +3620,78 @@
       <c r="R18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="U18" s="3">
+        <v>85</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-92.48</v>
+      </c>
+      <c r="W18" s="3">
+        <v>12</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-80</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>11.09</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-124.88</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>473.84</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>76.91</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-3.113</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>3.5169999999999999</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>13.46</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>2144.386</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>237.46099999999899</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>-60.7</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>18.164000000000001</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>1.7E-12</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2846,16 +3703,16 @@
       <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="3" t="str">
@@ -2890,32 +3747,78 @@
       <c r="R19" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
+      <c r="S19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="U19" s="3">
+        <v>103</v>
+      </c>
+      <c r="V19" s="3">
+        <v>-73.88</v>
+      </c>
+      <c r="W19" s="3">
+        <v>6.75</v>
+      </c>
+      <c r="X19" s="3">
+        <v>-63.11</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>-107.71</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>22.05</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>625.26</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>60.42</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>-6.7929999999999904</v>
+      </c>
+      <c r="AE19" s="11">
+        <v>2.2569999999999899</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>14.87</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>1769.473</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>83.91</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>-28.920999999999999</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>9.7189999999999994</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>-12.8</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>4.3000000000000001E-10</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2927,16 +3830,16 @@
       <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>99</v>
       </c>
       <c r="I20" s="3" t="str">
@@ -2971,32 +3874,78 @@
       <c r="R20" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="U20" s="3">
+        <v>34</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-67.36</v>
+      </c>
+      <c r="W20" s="3">
+        <v>7.57</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-47.68</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-196.86</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>51.94</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>592.65</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>76.34</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>-6.6179999999999897</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>3.6459999999999999</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>1983.646</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>132.41200000000001</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>-34.404000000000003</v>
+      </c>
+      <c r="AM20" s="11">
+        <v>14.731999999999999</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>-10.9</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>1E-8</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3008,16 +3957,16 @@
       <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I21" s="3" t="str">
@@ -3052,32 +4001,78 @@
       <c r="R21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="U21" s="3">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-62.99</v>
+      </c>
+      <c r="W21" s="3">
+        <v>10.88</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-55.63</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>8.66</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-73.58</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>26.74</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>705.23</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>53.65</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-27.218</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>19</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>1916.0920000000001</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>151.30199999999999</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>-27.045000000000002</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>13.581</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>-10.3</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>2.9000000000000002E-8</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3089,16 +4084,16 @@
       <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>101</v>
       </c>
       <c r="I22" s="3" t="str">
@@ -3133,32 +4128,78 @@
       <c r="R22" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="U22" s="3">
+        <v>57</v>
+      </c>
+      <c r="V22" s="3">
+        <v>-91.52</v>
+      </c>
+      <c r="W22" s="3">
+        <v>12.43</v>
+      </c>
+      <c r="X22" s="3">
+        <v>-68.95</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>10.33</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>-225.74</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>44.81</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>461.25</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>61.69</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>-11.606</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>2.7639999999999998</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>13.28</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>2338.3150000000001</v>
+      </c>
+      <c r="AK22" s="11">
+        <v>224.08599999999899</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>-79.575999999999993</v>
+      </c>
+      <c r="AM22" s="11">
+        <v>17.318999999999999</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>-14.1</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>4.5E-11</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3170,16 +4211,16 @@
       <c r="D23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I23" s="3" t="str">
@@ -3214,32 +4255,78 @@
       <c r="R23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="U23" s="3">
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-92.41</v>
+      </c>
+      <c r="W23" s="3">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-79.099999999999994</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-133.11000000000001</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12.32</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>786</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>60.84</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-28.943000000000001</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="11">
+        <v>2295.9569999999999</v>
+      </c>
+      <c r="AK23" s="11">
+        <v>66.768999999999906</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>-56.061999999999998</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>11.218</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>-12.1</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>1.3000000000000001E-9</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" ht="80" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3251,16 +4338,16 @@
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>103</v>
       </c>
       <c r="I24" s="3" t="str">
@@ -3295,32 +4382,78 @@
       <c r="R24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="U24" s="3">
+        <v>141</v>
+      </c>
+      <c r="V24" s="3">
+        <v>-87.95</v>
+      </c>
+      <c r="W24" s="3">
+        <v>8.94</v>
+      </c>
+      <c r="X24" s="3">
+        <v>-64.290000000000006</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>7.67</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>-236.56</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>42.34</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>619.29999999999995</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>84.94</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>-5.5810000000000004</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>16.75</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>2168.1179999999999</v>
+      </c>
+      <c r="AK24" s="11">
+        <v>114.58199999999999</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>-55.253</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>13.759</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>-12.2</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>1.0999999999999999E-9</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3332,16 +4465,16 @@
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>104</v>
       </c>
       <c r="I25" s="3" t="str">
@@ -3376,32 +4509,78 @@
       <c r="R25" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
+      <c r="S25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="U25" s="3">
+        <v>103</v>
+      </c>
+      <c r="V25" s="3">
+        <v>-99.14</v>
+      </c>
+      <c r="W25" s="3">
+        <v>13.38</v>
+      </c>
+      <c r="X25" s="3">
+        <v>-78.67</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>12.49</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>-204.76</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>39.380000000000003</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>469.55</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>81.48</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>3.915</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>2.855</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>13.26</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>2239.9920000000002</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>270.28300000000002</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>-68.748000000000005</v>
+      </c>
+      <c r="AM25" s="11">
+        <v>19.748999999999999</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>-14.4</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>2.5000000000000001E-11</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3413,16 +4592,16 @@
       <c r="D26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I26" s="3" t="str">
@@ -3457,32 +4636,78 @@
       <c r="R26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="U26" s="3">
+        <v>5</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-74.59</v>
+      </c>
+      <c r="W26" s="3">
+        <v>8.23</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-61.78</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>7.61</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-128.13999999999999</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>9.43</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>507.45</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>49.97</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-3.6280000000000001</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>3.6739999999999999</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>2231.2440000000001</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>67.097999999999999</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>-40.286999999999999</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>13.535</v>
+      </c>
+      <c r="AN26" s="3">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>2.7000000000000001E-13</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3494,16 +4719,16 @@
       <c r="D27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>106</v>
       </c>
       <c r="I27" s="3" t="str">
@@ -3538,32 +4763,78 @@
       <c r="R27" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
+      <c r="S27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="U27" s="3">
+        <v>170</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-95.03</v>
+      </c>
+      <c r="W27" s="3">
+        <v>8.82</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-62.22</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-328.1</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>42.86</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>622.63</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>83.54</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-0.99</v>
+      </c>
+      <c r="AE27" s="11">
+        <v>3.0389999999999899</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>2223.3789999999999</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>72.298999999999893</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>-66.566000000000003</v>
+      </c>
+      <c r="AM27" s="11">
+        <v>14.093999999999999</v>
+      </c>
+      <c r="AN27" s="3">
+        <v>-11.7</v>
+      </c>
+      <c r="AO27" s="3">
+        <v>2.6000000000000001E-9</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3575,16 +4846,16 @@
       <c r="D28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>107</v>
       </c>
       <c r="I28" s="3" t="str">
@@ -3619,32 +4890,78 @@
       <c r="R28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
+      <c r="S28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="U28" s="3">
+        <v>93</v>
+      </c>
+      <c r="V28" s="3">
+        <v>-88.27</v>
+      </c>
+      <c r="W28" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="X28" s="3">
+        <v>-67.64</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>7.45</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>-206.38</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>47.97</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>471.91</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>75.84</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>-5.0830000000000002</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>3.86</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>13.75</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>2229.2950000000001</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>126.76</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>-66.802999999999997</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>14.169</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>-12.4</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>7.8999999999999996E-10</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3656,16 +4973,16 @@
       <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I29" s="3" t="str">
@@ -3700,32 +5017,78 @@
       <c r="R29" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
+      <c r="S29" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="U29" s="3">
+        <v>7</v>
+      </c>
+      <c r="V29" s="3">
+        <v>-73.61</v>
+      </c>
+      <c r="W29" s="3">
+        <v>6.98</v>
+      </c>
+      <c r="X29" s="3">
+        <v>-59.86</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>-137.55000000000001</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>21.7</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>516.27</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>40.18</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>-12.095999999999901</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>3.62</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>13.14</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>1994.587</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>118.628999999999</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>-47.838999999999999</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>9.9220000000000006</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>-9.1</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>1.9999999999999999E-7</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3737,16 +5100,16 @@
       <c r="D30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>109</v>
       </c>
       <c r="I30" s="3" t="str">
@@ -3781,32 +5144,78 @@
       <c r="R30" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
+      <c r="S30" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U30" s="3">
+        <v>49</v>
+      </c>
+      <c r="V30" s="3">
+        <v>-70.11</v>
+      </c>
+      <c r="W30" s="3">
+        <v>6.94</v>
+      </c>
+      <c r="X30" s="3">
+        <v>-60.67</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>7.24</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>-94.38</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>18.14</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>578.6</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>60.02</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>-3.85</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>1851.8029999999901</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>105.712</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>-25.539000000000001</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>9.68</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>-12.9</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>3.1999999999999998E-10</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3818,16 +5227,16 @@
       <c r="D31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>110</v>
       </c>
       <c r="I31" s="3" t="str">
@@ -3862,32 +5271,78 @@
       <c r="R31" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
+      <c r="S31" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="U31" s="3">
+        <v>7</v>
+      </c>
+      <c r="V31" s="3">
+        <v>-69.33</v>
+      </c>
+      <c r="W31" s="3">
+        <v>7.27</v>
+      </c>
+      <c r="X31" s="3">
+        <v>-54.82</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>6.32</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>-145.12</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>456.83</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>63.52</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>-2.6389999999999998</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>2.9350000000000001</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>12.43</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="11">
+        <v>1787.9259999999999</v>
+      </c>
+      <c r="AK31" s="11">
+        <v>89.325999999999993</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>-40.796999999999997</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>10.753</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>-10.3</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>2.9000000000000002E-8</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3899,16 +5354,16 @@
       <c r="D32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>111</v>
       </c>
       <c r="I32" s="3" t="str">
@@ -3943,32 +5398,78 @@
       <c r="R32" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
+      <c r="S32" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="U32" s="3">
+        <v>9</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-62.95</v>
+      </c>
+      <c r="W32" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-49.02</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>7.77</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-139.30000000000001</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>27.63</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>504.04</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>54.44</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>-10.709</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>5.2589999999999897</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>14.11</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="11">
+        <v>1988.992</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>116.932</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>-37.181999999999903</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>10.602</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>-11.2</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>6.5000000000000003E-9</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3980,16 +5481,16 @@
       <c r="D33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>112</v>
       </c>
       <c r="I33" s="3" t="str">
@@ -4024,32 +5525,78 @@
       <c r="R33" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
+      <c r="S33" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="U33" s="3">
+        <v>13</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-70.12</v>
+      </c>
+      <c r="W33" s="3">
+        <v>5.66</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-59.83</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>4.12</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-102.85</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>30.57</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>565.28</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>76.95</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-9.0449999999999999</v>
+      </c>
+      <c r="AE33" s="11">
+        <v>2.86899999999999</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>15.85</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>1893.5429999999999</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>54.718000000000004</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>-32.92</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>12.579000000000001</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>3.1E-8</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4061,16 +5608,16 @@
       <c r="D34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>113</v>
       </c>
       <c r="I34" s="3" t="str">
@@ -4105,32 +5652,78 @@
       <c r="R34" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
+      <c r="S34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="U34" s="3">
+        <v>184</v>
+      </c>
+      <c r="V34" s="3">
+        <v>-70.5</v>
+      </c>
+      <c r="W34" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="X34" s="3">
+        <v>-51.94</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>-185.65</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>32.19</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>485.61</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>62.74</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>-1.7909999999999999</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>13.97</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>1993.2660000000001</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>84.786000000000001</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>-42.295999999999999</v>
+      </c>
+      <c r="AM34" s="11">
+        <v>11.026999999999999</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>-12.1</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>1.3000000000000001E-9</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4142,16 +5735,16 @@
       <c r="D35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>114</v>
       </c>
       <c r="I35" s="3" t="str">
@@ -4186,32 +5779,78 @@
       <c r="R35" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
+      <c r="S35" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="U35" s="3">
+        <v>20</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-69.06</v>
+      </c>
+      <c r="W35" s="3">
+        <v>2.64</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-57.67</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-113.88</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>13.68</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>760.24</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-24.486000000000001</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>1790.627</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>61.512</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>-28.905999999999999</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>-10.9</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>1E-8</v>
+      </c>
     </row>
-    <row r="36" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4223,16 +5862,16 @@
       <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>115</v>
       </c>
       <c r="I36" s="3" t="str">
@@ -4267,32 +5906,78 @@
       <c r="R36" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
+      <c r="S36" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="U36" s="3">
+        <v>7</v>
+      </c>
+      <c r="V36" s="3">
+        <v>-68.319999999999993</v>
+      </c>
+      <c r="W36" s="3">
+        <v>7.86</v>
+      </c>
+      <c r="X36" s="3">
+        <v>-55.51</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>8.39</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>-128.11000000000001</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>28</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>570.82000000000005</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>46.79</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>-19.989999999999998</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>3.113</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>14</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>1907.569</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>73.378</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>-44.042000000000002</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>11.207000000000001</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>-11.3</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>4.6999999999999999E-9</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4304,16 +5989,16 @@
       <c r="D37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>116</v>
       </c>
       <c r="I37" s="3" t="str">
@@ -4348,32 +6033,78 @@
       <c r="R37" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
+      <c r="S37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U37" s="3">
+        <v>86</v>
+      </c>
+      <c r="V37" s="3">
+        <v>-78.44</v>
+      </c>
+      <c r="W37" s="3">
+        <v>7.53</v>
+      </c>
+      <c r="X37" s="3">
+        <v>-63.98</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>-144.65</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>27.81</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>553.01</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>68.12</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>-12.151</v>
+      </c>
+      <c r="AE37" s="11">
+        <v>3.2739999999999898</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>15.72</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>2167.3420000000001</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>99.622</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>-49.755000000000003</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>10.66</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>-13.6</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>1.0999999999999999E-10</v>
+      </c>
     </row>
-    <row r="38" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4385,16 +6116,16 @@
       <c r="D38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>117</v>
       </c>
       <c r="I38" s="3" t="str">
@@ -4429,32 +6160,78 @@
       <c r="R38" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
+      <c r="S38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U38" s="3">
+        <v>16</v>
+      </c>
+      <c r="V38" s="3">
+        <v>-77.459999999999994</v>
+      </c>
+      <c r="W38" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="X38" s="3">
+        <v>-66.55</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>7.24</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>-109.06</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>19.95</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>522.62</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>64.319999999999993</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>-22.951000000000001</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>14.25</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>2163.614</v>
+      </c>
+      <c r="AK38" s="11">
+        <v>137.30199999999999</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>-59.052</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>10.718</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>-11.1</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>7.3E-9</v>
+      </c>
     </row>
-    <row r="39" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4466,16 +6243,16 @@
       <c r="D39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>118</v>
       </c>
       <c r="I39" s="3" t="str">
@@ -4510,32 +6287,78 @@
       <c r="R39" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
+      <c r="S39" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U39" s="3">
+        <v>100</v>
+      </c>
+      <c r="V39" s="3">
+        <v>-72.05</v>
+      </c>
+      <c r="W39" s="3">
+        <v>6.67</v>
+      </c>
+      <c r="X39" s="3">
+        <v>-60.65</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>-114.05</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>25.57</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>552.05999999999995</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>60.69</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>-14.527999999999899</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>3.1509999999999998</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>15.83</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>1980.779</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>78.77</v>
+      </c>
+      <c r="AL39" s="3">
+        <v>-42.780999999999999</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>9.657</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>-11.9</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>1.9000000000000001E-9</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -4547,16 +6370,16 @@
       <c r="D40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>119</v>
       </c>
       <c r="I40" s="3" t="str">
@@ -4591,32 +6414,78 @@
       <c r="R40" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
+      <c r="S40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="U40" s="3">
+        <v>156</v>
+      </c>
+      <c r="V40" s="3">
+        <v>-76.25</v>
+      </c>
+      <c r="W40" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="X40" s="3">
+        <v>-60.89</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>6.73</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>-153.63</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>25.44</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>568.69000000000005</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>83.69</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>-10.890999999999901</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>2145.5419999999999</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>97.498999999999995</v>
+      </c>
+      <c r="AL40" s="3">
+        <v>-45.64</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>11.339</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>-13.5</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>1.2E-10</v>
+      </c>
     </row>
-    <row r="41" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -4628,16 +6497,16 @@
       <c r="D41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>120</v>
       </c>
       <c r="I41" s="3" t="str">
@@ -4672,32 +6541,78 @@
       <c r="R41" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
+      <c r="S41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="U41" s="3">
+        <v>10</v>
+      </c>
+      <c r="V41" s="3">
+        <v>-74.16</v>
+      </c>
+      <c r="W41" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="X41" s="3">
+        <v>-61.15</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>5.71</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>-130.05000000000001</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>29.07</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>524.91</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>79.81</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>-22.146000000000001</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="11">
+        <v>1811.0809999999999</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>142.31899999999999</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>-56.817999999999998</v>
+      </c>
+      <c r="AM41" s="11">
+        <v>12.744</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>-12.4</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>7.5999999999999996E-10</v>
+      </c>
     </row>
-    <row r="42" spans="1:41" ht="80" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4709,16 +6624,16 @@
       <c r="D42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>121</v>
       </c>
       <c r="I42" s="3" t="str">
@@ -4753,32 +6668,78 @@
       <c r="R42" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
+      <c r="S42" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="U42" s="3">
+        <v>126</v>
+      </c>
+      <c r="V42" s="3">
+        <v>-68.540000000000006</v>
+      </c>
+      <c r="W42" s="3">
+        <v>8.57</v>
+      </c>
+      <c r="X42" s="3">
+        <v>-59.15</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>-93.9</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>721.55</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>81.98</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>-8.3029999999999902</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>1997.789</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>139.82599999999999</v>
+      </c>
+      <c r="AL42" s="3">
+        <v>-14.075999999999899</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>13.462999999999999</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>-13.2</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>2.1E-10</v>
+      </c>
     </row>
-    <row r="43" spans="1:41" ht="64" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4790,16 +6751,16 @@
       <c r="D43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I43" s="3" t="str">
@@ -4834,32 +6795,77 @@
       <c r="R43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
+      <c r="S43" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="U43" s="3">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
+        <v>-74.290000000000006</v>
+      </c>
+      <c r="W43" s="3">
+        <v>3.21</v>
+      </c>
+      <c r="X43" s="3">
+        <v>-65.87</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>4.18</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>-84.2</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>20.73</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>491.63</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>93.72</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>-23.21</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>13</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>1895.9570000000001</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>66.418000000000006</v>
+      </c>
+      <c r="AL43" s="3">
+        <v>-56.755000000000003</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>12.776</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>-10.1</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>4.1999999999999999E-8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO43" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28151C2F-5B72-4B4F-9FD5-A87BA17B0C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066DA215-B43B-413C-9E82-A19A7992720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1042,9 +1042,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1364,10 +1361,10 @@
   <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,28 +1603,28 @@
         <v>13</v>
       </c>
       <c r="V2" s="3">
-        <v>784.87</v>
+        <v>-77.05</v>
       </c>
       <c r="W2" s="3">
-        <v>65.94</v>
+        <v>3.59</v>
       </c>
       <c r="X2" s="3">
-        <v>-222.16</v>
+        <v>-60.93</v>
       </c>
       <c r="Y2" s="3">
-        <v>7.8</v>
+        <v>3.61</v>
       </c>
       <c r="Z2" s="3">
-        <v>-77.05</v>
+        <v>-161.22999999999999</v>
       </c>
       <c r="AA2" s="3">
-        <v>3.59</v>
+        <v>7.4</v>
       </c>
       <c r="AB2" s="3">
-        <v>-60.93</v>
+        <v>1007.03</v>
       </c>
       <c r="AC2" s="3">
-        <v>3.61</v>
+        <v>68.680000000000007</v>
       </c>
       <c r="AD2" s="3">
         <v>-11.06</v>
@@ -2026,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="3">
-        <v>42.563000000000002</v>
+        <v>1441.6320000000001</v>
       </c>
       <c r="AK5" s="3">
-        <v>15.061999999999999</v>
+        <v>130.01400000000001</v>
       </c>
       <c r="AL5" s="3">
         <v>42.563000000000002</v>
@@ -2782,7 +2779,7 @@
       <c r="AI11" s="3">
         <v>0</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AJ11" s="3">
         <v>2631.9589999999998</v>
       </c>
       <c r="AK11" s="3">
@@ -2791,7 +2788,7 @@
       <c r="AL11" s="3">
         <v>-68.177999999999997</v>
       </c>
-      <c r="AM11" s="11">
+      <c r="AM11" s="3">
         <v>18.361999999999998</v>
       </c>
       <c r="AN11" s="3">
@@ -2912,7 +2909,7 @@
       <c r="AJ12" s="3">
         <v>2226.3240000000001</v>
       </c>
-      <c r="AK12" s="11">
+      <c r="AK12" s="3">
         <v>135.46199999999999</v>
       </c>
       <c r="AL12" s="3">
@@ -3021,7 +3018,7 @@
       <c r="AD13" s="3">
         <v>-3.6239999999999899</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AE13" s="3">
         <v>3.3559999999999999</v>
       </c>
       <c r="AF13" s="3">
@@ -3045,7 +3042,7 @@
       <c r="AL13" s="3">
         <v>-49.603999999999999</v>
       </c>
-      <c r="AM13" s="11">
+      <c r="AM13" s="3">
         <v>16.303999999999998</v>
       </c>
       <c r="AN13" s="3">
@@ -3148,7 +3145,7 @@
       <c r="AD14" s="3">
         <v>-18.722000000000001</v>
       </c>
-      <c r="AE14" s="11">
+      <c r="AE14" s="3">
         <v>2.871</v>
       </c>
       <c r="AF14" s="3">
@@ -3420,13 +3417,13 @@
       <c r="AJ16" s="3">
         <v>2104.84</v>
       </c>
-      <c r="AK16" s="11">
+      <c r="AK16" s="3">
         <v>67.848999999999904</v>
       </c>
       <c r="AL16" s="3">
         <v>-45.677999999999997</v>
       </c>
-      <c r="AM16" s="11">
+      <c r="AM16" s="3">
         <v>9.0269999999999992</v>
       </c>
       <c r="AN16" s="3">
@@ -3553,7 +3550,7 @@
       <c r="AL17" s="3">
         <v>-64.590999999999994</v>
       </c>
-      <c r="AM17" s="11">
+      <c r="AM17" s="3">
         <v>18.230999999999899</v>
       </c>
       <c r="AN17" s="3">
@@ -3674,7 +3671,7 @@
       <c r="AJ18" s="3">
         <v>2144.386</v>
       </c>
-      <c r="AK18" s="11">
+      <c r="AK18" s="3">
         <v>237.46099999999899</v>
       </c>
       <c r="AL18" s="3">
@@ -3783,7 +3780,7 @@
       <c r="AD19" s="3">
         <v>-6.7929999999999904</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AE19" s="3">
         <v>2.2569999999999899</v>
       </c>
       <c r="AF19" s="3">
@@ -3910,7 +3907,7 @@
       <c r="AD20" s="3">
         <v>-6.6179999999999897</v>
       </c>
-      <c r="AE20" s="11">
+      <c r="AE20" s="3">
         <v>3.6459999999999999</v>
       </c>
       <c r="AF20" s="3">
@@ -3934,7 +3931,7 @@
       <c r="AL20" s="3">
         <v>-34.404000000000003</v>
       </c>
-      <c r="AM20" s="11">
+      <c r="AM20" s="3">
         <v>14.731999999999999</v>
       </c>
       <c r="AN20" s="3">
@@ -4055,7 +4052,7 @@
       <c r="AJ21" s="3">
         <v>1916.0920000000001</v>
       </c>
-      <c r="AK21" s="11">
+      <c r="AK21" s="3">
         <v>151.30199999999999</v>
       </c>
       <c r="AL21" s="3">
@@ -4182,13 +4179,13 @@
       <c r="AJ22" s="3">
         <v>2338.3150000000001</v>
       </c>
-      <c r="AK22" s="11">
+      <c r="AK22" s="3">
         <v>224.08599999999899</v>
       </c>
       <c r="AL22" s="3">
         <v>-79.575999999999993</v>
       </c>
-      <c r="AM22" s="11">
+      <c r="AM22" s="3">
         <v>17.318999999999999</v>
       </c>
       <c r="AN22" s="3">
@@ -4306,10 +4303,10 @@
       <c r="AI23" s="3">
         <v>0</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AJ23" s="3">
         <v>2295.9569999999999</v>
       </c>
-      <c r="AK23" s="11">
+      <c r="AK23" s="3">
         <v>66.768999999999906</v>
       </c>
       <c r="AL23" s="3">
@@ -4436,7 +4433,7 @@
       <c r="AJ24" s="3">
         <v>2168.1179999999999</v>
       </c>
-      <c r="AK24" s="11">
+      <c r="AK24" s="3">
         <v>114.58199999999999</v>
       </c>
       <c r="AL24" s="3">
@@ -4569,7 +4566,7 @@
       <c r="AL25" s="3">
         <v>-68.748000000000005</v>
       </c>
-      <c r="AM25" s="11">
+      <c r="AM25" s="3">
         <v>19.748999999999999</v>
       </c>
       <c r="AN25" s="3">
@@ -4799,7 +4796,7 @@
       <c r="AD27" s="3">
         <v>-0.99</v>
       </c>
-      <c r="AE27" s="11">
+      <c r="AE27" s="3">
         <v>3.0389999999999899</v>
       </c>
       <c r="AF27" s="3">
@@ -4817,13 +4814,13 @@
       <c r="AJ27" s="3">
         <v>2223.3789999999999</v>
       </c>
-      <c r="AK27" s="11">
+      <c r="AK27" s="3">
         <v>72.298999999999893</v>
       </c>
       <c r="AL27" s="3">
         <v>-66.566000000000003</v>
       </c>
-      <c r="AM27" s="11">
+      <c r="AM27" s="3">
         <v>14.093999999999999</v>
       </c>
       <c r="AN27" s="3">
@@ -5068,10 +5065,10 @@
       <c r="AI29" s="3">
         <v>0</v>
       </c>
-      <c r="AJ29" s="11">
+      <c r="AJ29" s="3">
         <v>1994.587</v>
       </c>
-      <c r="AK29" s="11">
+      <c r="AK29" s="3">
         <v>118.628999999999</v>
       </c>
       <c r="AL29" s="3">
@@ -5195,7 +5192,7 @@
       <c r="AI30" s="3">
         <v>0</v>
       </c>
-      <c r="AJ30" s="11">
+      <c r="AJ30" s="3">
         <v>1851.8029999999901</v>
       </c>
       <c r="AK30" s="3">
@@ -5322,10 +5319,10 @@
       <c r="AI31" s="3">
         <v>0</v>
       </c>
-      <c r="AJ31" s="11">
+      <c r="AJ31" s="3">
         <v>1787.9259999999999</v>
       </c>
-      <c r="AK31" s="11">
+      <c r="AK31" s="3">
         <v>89.325999999999993</v>
       </c>
       <c r="AL31" s="3">
@@ -5434,7 +5431,7 @@
       <c r="AD32" s="3">
         <v>-10.709</v>
       </c>
-      <c r="AE32" s="11">
+      <c r="AE32" s="3">
         <v>5.2589999999999897</v>
       </c>
       <c r="AF32" s="3">
@@ -5449,7 +5446,7 @@
       <c r="AI32" s="3">
         <v>0</v>
       </c>
-      <c r="AJ32" s="11">
+      <c r="AJ32" s="3">
         <v>1988.992</v>
       </c>
       <c r="AK32" s="3">
@@ -5561,7 +5558,7 @@
       <c r="AD33" s="3">
         <v>-9.0449999999999999</v>
       </c>
-      <c r="AE33" s="11">
+      <c r="AE33" s="3">
         <v>2.86899999999999</v>
       </c>
       <c r="AF33" s="3">
@@ -5712,7 +5709,7 @@
       <c r="AL34" s="3">
         <v>-42.295999999999999</v>
       </c>
-      <c r="AM34" s="11">
+      <c r="AM34" s="3">
         <v>11.026999999999999</v>
       </c>
       <c r="AN34" s="3">
@@ -5830,7 +5827,7 @@
       <c r="AI35" s="3">
         <v>0</v>
       </c>
-      <c r="AJ35" s="11">
+      <c r="AJ35" s="3">
         <v>1790.627</v>
       </c>
       <c r="AK35" s="3">
@@ -6069,7 +6066,7 @@
       <c r="AD37" s="3">
         <v>-12.151</v>
       </c>
-      <c r="AE37" s="11">
+      <c r="AE37" s="3">
         <v>3.2739999999999898</v>
       </c>
       <c r="AF37" s="3">
@@ -6087,7 +6084,7 @@
       <c r="AJ37" s="3">
         <v>2167.3420000000001</v>
       </c>
-      <c r="AK37" s="11">
+      <c r="AK37" s="3">
         <v>99.622</v>
       </c>
       <c r="AL37" s="3">
@@ -6214,7 +6211,7 @@
       <c r="AJ38" s="3">
         <v>2163.614</v>
       </c>
-      <c r="AK38" s="11">
+      <c r="AK38" s="3">
         <v>137.30199999999999</v>
       </c>
       <c r="AL38" s="3">
@@ -6323,7 +6320,7 @@
       <c r="AD39" s="3">
         <v>-14.527999999999899</v>
       </c>
-      <c r="AE39" s="11">
+      <c r="AE39" s="3">
         <v>3.1509999999999998</v>
       </c>
       <c r="AF39" s="3">
@@ -6592,7 +6589,7 @@
       <c r="AI41" s="3">
         <v>0</v>
       </c>
-      <c r="AJ41" s="11">
+      <c r="AJ41" s="3">
         <v>1811.0809999999999</v>
       </c>
       <c r="AK41" s="3">
@@ -6601,7 +6598,7 @@
       <c r="AL41" s="3">
         <v>-56.817999999999998</v>
       </c>
-      <c r="AM41" s="11">
+      <c r="AM41" s="3">
         <v>12.744</v>
       </c>
       <c r="AN41" s="3">

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066DA215-B43B-413C-9E82-A19A7992720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74719EE8-46C5-41FB-9AE9-7C0CDD59B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
@@ -764,18 +764,12 @@
     <t>Cluster 2</t>
   </si>
   <si>
-    <t>N/A (7,12,25)</t>
-  </si>
-  <si>
     <t>Cluster 1</t>
   </si>
   <si>
     <t>N/A (107,78,66,67,91,41)</t>
   </si>
   <si>
-    <t>Cluster  1</t>
-  </si>
-  <si>
     <t>N/A (109, 70)</t>
   </si>
   <si>
@@ -902,9 +896,6 @@
     <t>../../docking/inputs/experiments/TUPPD1-001/run1/structures/it1/water/TUPPD1-001_61w.pdb</t>
   </si>
   <si>
-    <t>../../docking/inputs/experiments/TUPPD1-002/run1/structures/it1/water/TUPPD1-002_25w.pdb</t>
-  </si>
-  <si>
     <t>../../docking/inputs/experiments/TUPPD1-003/run1/structures/it1/water/TUPPD1-003_106w.pdb</t>
   </si>
   <si>
@@ -914,9 +905,6 @@
     <t>../../docking/inputs/experiments/TUPPD1-005/run1/structures/it1/water/TUPPD1-005_91w.pdb</t>
   </si>
   <si>
-    <t>../../docking/inputs/experiments/TUPPD1-006/run1/structures/it1/water/TUPPD1-006_151w.pdb</t>
-  </si>
-  <si>
     <t>../../docking/inputs/experiments/TUPPD1-007/run1/structures/it1/water/TUPPD1-007_70w.pdb</t>
   </si>
   <si>
@@ -924,6 +912,18 @@
   </si>
   <si>
     <t>../../docking/inputs/experiments/TUPPD1-009/run1/structures/it1/water/TUPPD1-009_183w.pdb</t>
+  </si>
+  <si>
+    <t>N/A (7,12,125)</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-002/run1/structures/it1/water/TUPPD1-002_125w.pdb</t>
+  </si>
+  <si>
+    <t>Cluster  12</t>
+  </si>
+  <si>
+    <t>../../docking/inputs/experiments/TUPPD1-006/run1/structures/it1/water/TUPPD1-006_103w.pdb</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1042,6 +1042,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1361,10 +1364,10 @@
   <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1600,7 @@
         <v>240</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="U2" s="3">
         <v>13</v>
@@ -1720,49 +1723,49 @@
         <v>172</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="U3" s="3">
         <v>3</v>
       </c>
       <c r="V3" s="3">
-        <v>-52.760266666666666</v>
+        <v>-53.58123333333333</v>
       </c>
       <c r="W3" s="3">
-        <v>3.3192373665581001</v>
+        <v>4.4556786848046173</v>
       </c>
       <c r="X3" s="3">
-        <v>-44.713466670000003</v>
+        <v>-46.241266666666668</v>
       </c>
       <c r="Y3" s="3">
-        <v>1.7295446266446977</v>
+        <v>3.3998114284308287</v>
       </c>
       <c r="Z3" s="3">
-        <v>-80.467966666666669</v>
+        <v>-73.399666666666661</v>
       </c>
       <c r="AA3" s="3">
-        <v>32.421371952909212</v>
+        <v>26.206454626081896</v>
       </c>
       <c r="AB3" s="3">
-        <v>1376.8793333333333</v>
+        <v>915.22933333333333</v>
       </c>
       <c r="AC3" s="3">
-        <v>782.16564900977926</v>
+        <v>133.33203650119398</v>
       </c>
       <c r="AD3" s="3">
-        <v>-10.71</v>
+        <v>-21.347233333333332</v>
       </c>
       <c r="AE3" s="3">
-        <v>15.75488</v>
+        <v>3.5340331505079137</v>
       </c>
       <c r="AF3" s="3">
-        <v>24.333333333333332</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="AG3" s="3">
-        <v>4.1899350299921787</v>
+        <v>3.2998316455372216</v>
       </c>
       <c r="AH3" s="3">
         <v>0</v>
@@ -1771,22 +1774,22 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="3">
-        <v>1654.57</v>
+        <v>1921.7166666666665</v>
       </c>
       <c r="AK3" s="3">
-        <v>311.07499999999999</v>
+        <v>132.91806757882421</v>
       </c>
       <c r="AL3" s="3">
-        <v>66.170873330000006</v>
+        <v>9.2545000000000002</v>
       </c>
       <c r="AM3" s="3">
-        <v>87.999296209999997</v>
+        <v>8.0691627333860758</v>
       </c>
       <c r="AN3" s="3">
-        <v>-12</v>
+        <v>-11.4</v>
       </c>
       <c r="AO3" s="3">
-        <v>1.6000000000000001E-9</v>
+        <v>4.2000000000000004E-9</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="75" x14ac:dyDescent="0.25">
@@ -1846,10 +1849,10 @@
         <v>172</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U4" s="3">
         <v>83</v>
@@ -1975,7 +1978,7 @@
         <v>240</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="U5" s="3">
         <v>10</v>
@@ -2098,10 +2101,10 @@
         <v>172</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U6" s="3">
         <v>6</v>
@@ -2224,49 +2227,49 @@
         <v>172</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="U7" s="3">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="V7" s="3">
-        <v>-46.31</v>
+        <v>-59.13</v>
       </c>
       <c r="W7" s="3">
-        <v>8.1300000000000008</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="X7" s="3">
-        <v>-31.8</v>
+        <v>-39.340000000000003</v>
       </c>
       <c r="Y7" s="3">
-        <v>7.71</v>
+        <v>10.48</v>
       </c>
       <c r="Z7" s="3">
-        <v>-145.13999999999999</v>
+        <v>-197.86</v>
       </c>
       <c r="AA7" s="3">
-        <v>38.619999999999997</v>
+        <v>23.8</v>
       </c>
       <c r="AB7" s="3">
-        <v>1193.44</v>
+        <v>866.9</v>
       </c>
       <c r="AC7" s="3">
-        <v>121.54</v>
+        <v>33.31</v>
       </c>
       <c r="AD7" s="3">
-        <v>-6.4359999999999999</v>
+        <v>3.129</v>
       </c>
       <c r="AE7" s="3">
-        <v>3.7189999999999999</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="AF7" s="3">
-        <v>27.4</v>
+        <v>20.5</v>
       </c>
       <c r="AG7" s="3">
-        <v>2.92</v>
+        <v>0.87</v>
       </c>
       <c r="AH7" s="3">
         <v>0</v>
@@ -2275,22 +2278,22 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="3">
-        <v>1516.394</v>
+        <v>1857.7249999999999</v>
       </c>
       <c r="AK7" s="3">
-        <v>138.52199999999999</v>
+        <v>154.05699999999999</v>
       </c>
       <c r="AL7" s="3">
-        <v>52.08</v>
+        <v>10.904</v>
       </c>
       <c r="AM7" s="3">
-        <v>15.823</v>
+        <v>10.798</v>
       </c>
       <c r="AN7" s="3">
-        <v>-11.1</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>7.6999999999999995E-9</v>
+        <v>-12.3</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>1.0000000000000001E-9</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="75" x14ac:dyDescent="0.25">
@@ -2350,10 +2353,10 @@
         <v>172</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="U8" s="3">
         <v>2</v>
@@ -2476,10 +2479,10 @@
         <v>172</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U9" s="3">
         <v>4</v>
@@ -2602,10 +2605,10 @@
         <v>172</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="U10" s="3">
         <v>5</v>
@@ -2732,7 +2735,7 @@
         <v>240</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U11" s="3">
         <v>25</v>
@@ -2856,10 +2859,10 @@
         <v>172</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="U12" s="3">
         <v>9</v>
@@ -2983,10 +2986,10 @@
         <v>172</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U13" s="3">
         <v>153</v>
@@ -3110,10 +3113,10 @@
         <v>172</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="U14" s="3">
         <v>12</v>
@@ -3237,10 +3240,10 @@
         <v>172</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U15" s="3">
         <v>34</v>
@@ -3367,7 +3370,7 @@
         <v>240</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U16" s="3">
         <v>43</v>
@@ -3491,10 +3494,10 @@
         <v>172</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U17" s="3">
         <v>35</v>
@@ -3618,10 +3621,10 @@
         <v>172</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="U18" s="3">
         <v>85</v>
@@ -3745,10 +3748,10 @@
         <v>172</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="U19" s="3">
         <v>103</v>
@@ -3875,7 +3878,7 @@
         <v>240</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="U20" s="3">
         <v>34</v>
@@ -3999,10 +4002,10 @@
         <v>172</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U21" s="3">
         <v>4</v>
@@ -4126,10 +4129,10 @@
         <v>172</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U22" s="3">
         <v>57</v>
@@ -4253,10 +4256,10 @@
         <v>172</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U23" s="3">
         <v>4</v>
@@ -4380,10 +4383,10 @@
         <v>172</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="U24" s="3">
         <v>141</v>
@@ -4507,10 +4510,10 @@
         <v>172</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="U25" s="3">
         <v>103</v>
@@ -4634,10 +4637,10 @@
         <v>172</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="U26" s="3">
         <v>5</v>
@@ -4761,10 +4764,10 @@
         <v>172</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="U27" s="3">
         <v>170</v>
@@ -4888,10 +4891,10 @@
         <v>172</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U28" s="3">
         <v>93</v>
@@ -5015,10 +5018,10 @@
         <v>172</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U29" s="3">
         <v>7</v>
@@ -5145,7 +5148,7 @@
         <v>240</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="U30" s="3">
         <v>49</v>
@@ -5269,10 +5272,10 @@
         <v>172</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="U31" s="3">
         <v>7</v>
@@ -5396,10 +5399,10 @@
         <v>172</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="U32" s="3">
         <v>9</v>
@@ -5523,10 +5526,10 @@
         <v>172</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="U33" s="3">
         <v>13</v>
@@ -5650,10 +5653,10 @@
         <v>172</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="U34" s="3">
         <v>184</v>
@@ -5777,10 +5780,10 @@
         <v>172</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="U35" s="3">
         <v>20</v>
@@ -5904,10 +5907,10 @@
         <v>172</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="U36" s="3">
         <v>7</v>
@@ -6031,10 +6034,10 @@
         <v>172</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="U37" s="3">
         <v>86</v>
@@ -6161,7 +6164,7 @@
         <v>240</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="U38" s="3">
         <v>16</v>
@@ -6285,10 +6288,10 @@
         <v>172</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="U39" s="3">
         <v>100</v>
@@ -6412,10 +6415,10 @@
         <v>172</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T40" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="U40" s="3">
         <v>156</v>
@@ -6539,10 +6542,10 @@
         <v>172</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="U41" s="3">
         <v>10</v>
@@ -6666,10 +6669,10 @@
         <v>172</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="U42" s="3">
         <v>126</v>
@@ -6793,10 +6796,10 @@
         <v>172</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="U43" s="3">
         <v>4</v>

--- a/PD1_Candidates.xlsx
+++ b/PD1_Candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\PD1_Fab_Diffusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74719EE8-46C5-41FB-9AE9-7C0CDD59B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F801038-FEFE-4EDE-82C9-1D9C1370321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{434B73E4-B198-41A3-8504-E0565A9D3A36}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="297">
   <si>
     <t>EVQLVKSGAEFKKPNDSLKITCKASGYTFTNTGTNVHWVRQAPLKQLEWMGIIYTSTKDINYAYEYQGRVEISKETSPSTAYLKLSSLKAENTAVYYCATEGQESVWHHNYLAMDQWGEGTRVTVSS</t>
   </si>
@@ -86,9 +86,6 @@
     <t>antibody_id</t>
   </si>
   <si>
-    <t>EvoDiff, dd2169c, MSA_OA_DM_MAXSUB</t>
-  </si>
-  <si>
     <t>TUPPD1-002</t>
   </si>
   <si>
@@ -419,12 +416,6 @@
     <t>haddock_Nstruc</t>
   </si>
   <si>
-    <t>haddock_Evdw+0.1Eelec</t>
-  </si>
-  <si>
-    <t>haddock_Evdw+0.1Eelec_sd</t>
-  </si>
-  <si>
     <t>haddock_Evdw</t>
   </si>
   <si>
@@ -467,12 +458,6 @@
     <t>haddock_BSA_sd</t>
   </si>
   <si>
-    <t>haddock-score</t>
-  </si>
-  <si>
-    <t>haddock-score_sd</t>
-  </si>
-  <si>
     <t>haddock_prodigy_deltaG_kcalpermol</t>
   </si>
   <si>
@@ -924,6 +909,27 @@
   </si>
   <si>
     <t>../../docking/inputs/experiments/TUPPD1-006/run1/structures/it1/water/TUPPD1-006_103w.pdb</t>
+  </si>
+  <si>
+    <t>haddock_Evdw_plus_0.1Eelec_sd</t>
+  </si>
+  <si>
+    <t>haddock_Evdw_plus_0.1Eelec</t>
+  </si>
+  <si>
+    <t>haddock_score</t>
+  </si>
+  <si>
+    <t>haddock_score_sd</t>
+  </si>
+  <si>
+    <t>antibody_sequence_source_version</t>
+  </si>
+  <si>
+    <t>dd2169c, MSA_OA_DM_MAXSUB</t>
+  </si>
+  <si>
+    <t>EvoDiff</t>
   </si>
 </sst>
 </file>
@@ -1361,61 +1367,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A5553-0688-4DAA-B5D9-806CF4182511}">
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AP43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="40.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="47.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="47.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="40.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="53.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="53.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="40.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="47.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="54.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="47.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1423,124 +1429,127 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="Q1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="2" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1548,855 +1557,873 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
+      <c r="G2" s="7">
+        <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" s="3" t="str">
-        <f>_xlfn.CONCAT("`",REPLACE(M2,1,1,""),",", REPLACE(N2,1,1,""))</f>
+        <v>153</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="3" t="str">
+        <f>_xlfn.CONCAT("`",REPLACE(N2,1,1,""),",", REPLACE(O2,1,1,""))</f>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="U2" s="3">
+        <v>235</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="V2" s="3">
         <v>13</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>-77.05</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="3">
         <v>3.59</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Y2" s="3">
         <v>-60.93</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Z2" s="3">
         <v>3.61</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>-161.22999999999999</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>7.4</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AC2" s="3">
         <v>1007.03</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AD2" s="3">
         <v>68.680000000000007</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AE2" s="3">
         <v>-11.06</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AF2" s="3">
         <v>1.157</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AG2" s="3">
         <v>24.15</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AH2" s="3">
         <v>1.41</v>
       </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
       <c r="AI2" s="3">
         <v>0</v>
       </c>
       <c r="AJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="3">
         <v>1818.277</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AL2" s="3">
         <v>23.655000000000001</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AM2" s="3">
         <v>-3.5329999999999999</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AN2" s="3">
         <v>6.4669999999999996</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AO2" s="3">
         <v>-10.9</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AP2" s="3">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" s="3" t="str">
-        <f t="shared" ref="O3:O43" si="0">_xlfn.CONCAT("`",REPLACE(M3,1,1,""),",", REPLACE(N3,1,1,""))</f>
+      <c r="N3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <f t="shared" ref="P3:P43" si="0">_xlfn.CONCAT("`",REPLACE(N3,1,1,""),",", REPLACE(O3,1,1,""))</f>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S3" s="3" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="U3" s="3">
+        <v>286</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="V3" s="3">
         <v>3</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <v>-53.58123333333333</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="3">
         <v>4.4556786848046173</v>
       </c>
-      <c r="X3" s="3">
+      <c r="Y3" s="3">
         <v>-46.241266666666668</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Z3" s="3">
         <v>3.3998114284308287</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="AA3" s="3">
         <v>-73.399666666666661</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AB3" s="3">
         <v>26.206454626081896</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AC3" s="3">
         <v>915.22933333333333</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AD3" s="3">
         <v>133.33203650119398</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AE3" s="3">
         <v>-21.347233333333332</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AF3" s="3">
         <v>3.5340331505079137</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AG3" s="3">
         <v>23.666666666666668</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AH3" s="3">
         <v>3.2998316455372216</v>
       </c>
-      <c r="AH3" s="3">
-        <v>0</v>
-      </c>
       <c r="AI3" s="3">
         <v>0</v>
       </c>
       <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
         <v>1921.7166666666665</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AL3" s="3">
         <v>132.91806757882421</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AM3" s="3">
         <v>9.2545000000000002</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AN3" s="3">
         <v>8.0691627333860758</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3" s="3">
         <v>-11.4</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AP3" s="3">
         <v>4.2000000000000004E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O4" s="3" t="str">
+        <v>153</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S4" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="U4" s="3">
+        <v>236</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="V4" s="3">
         <v>83</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <v>-46.72</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="3">
         <v>6.37</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>-34.1</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Z4" s="3">
         <v>6.79</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="AA4" s="3">
         <v>-126.13</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AB4" s="3">
         <v>7.09</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AC4" s="3">
         <v>1109.25</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>78.989999999999995</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AE4" s="3">
         <v>-22.821000000000002</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AF4" s="3">
         <v>0.88500000000000001</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <v>26.8</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AH4" s="3">
         <v>2.56</v>
       </c>
-      <c r="AH4" s="3">
-        <v>0</v>
-      </c>
       <c r="AI4" s="3">
         <v>0</v>
       </c>
       <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3">
         <v>1642.7660000000001</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AL4" s="3">
         <v>26.641999999999999</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AM4" s="3">
         <v>28.774000000000001</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AN4" s="3">
         <v>10.272</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AO4" s="3">
         <v>-12</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AP4" s="3">
         <v>1.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="H5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O5" s="3" t="str">
+        <v>153</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S5" s="3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="U5" s="3">
+        <v>235</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="V5" s="3">
         <v>10</v>
       </c>
-      <c r="V5" s="3">
+      <c r="W5" s="3">
         <v>-45.76</v>
       </c>
-      <c r="W5" s="3">
+      <c r="X5" s="3">
         <v>8.64</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Y5" s="3">
         <v>-29.4</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Z5" s="3">
         <v>6.93</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <v>-163.59</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
         <v>25.62</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AC5" s="3">
         <v>1037.9100000000001</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AD5" s="3">
         <v>98.11</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AE5" s="3">
         <v>0.89200000000000002</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AF5" s="3">
         <v>1.819</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AG5" s="3">
         <v>24.3</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AH5" s="3">
         <v>2.72</v>
       </c>
-      <c r="AH5" s="3">
-        <v>0</v>
-      </c>
       <c r="AI5" s="3">
         <v>0</v>
       </c>
       <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3">
         <v>1441.6320000000001</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AL5" s="3">
         <v>130.01400000000001</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AM5" s="3">
         <v>42.563000000000002</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AN5" s="3">
         <v>15.061999999999999</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AO5" s="3">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AP5" s="3">
         <v>3.3000000000000002E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8">
+        <v>295</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>149</v>
+      <c r="G6" s="8">
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O6" s="3" t="str">
+      <c r="N6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S6" s="3" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="U6" s="3">
+        <v>237</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="V6" s="3">
         <v>6</v>
       </c>
-      <c r="V6" s="3">
+      <c r="W6" s="3">
         <v>-43.546466666666674</v>
       </c>
-      <c r="W6" s="3">
+      <c r="X6" s="3">
         <v>7.6740563297529594</v>
       </c>
-      <c r="X6" s="3">
+      <c r="Y6" s="3">
         <v>-33.142749999999999</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Z6" s="3">
         <v>7.080697321062372</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AA6" s="3">
         <v>-104.0371</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
         <v>35.871357840947901</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AC6" s="3">
         <v>999.42466666666678</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <v>76.042868108864923</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="3">
         <v>-6.9524441666666661</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AF6" s="3">
         <v>3.2398758224820106</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AG6" s="3">
         <v>24.666666666666668</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AH6" s="3">
         <v>2.0548046676563256</v>
       </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
       <c r="AI6" s="3">
         <v>0</v>
       </c>
       <c r="AJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
         <v>1778.14</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AL6" s="3">
         <v>84.603260969460678</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AM6" s="3">
         <v>39.039852500000002</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AN6" s="3">
         <v>13.968611811825278</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AO6" s="3">
         <v>-10.5</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AP6" s="3">
         <v>1.7999999999999999E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="G7" s="9">
         <v>3</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O7" s="3" t="str">
+        <v>153</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S7" s="3" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="U7" s="3">
+        <v>288</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="V7" s="3">
         <v>4</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>-59.13</v>
       </c>
-      <c r="W7" s="3">
+      <c r="X7" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Y7" s="3">
         <v>-39.340000000000003</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Z7" s="3">
         <v>10.48</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AA7" s="3">
         <v>-197.86</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
         <v>23.8</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AC7" s="3">
         <v>866.9</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="3">
         <v>33.31</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AE7" s="3">
         <v>3.129</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AF7" s="3">
         <v>2.9020000000000001</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <v>20.5</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AH7" s="3">
         <v>0.87</v>
       </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
       <c r="AI7" s="3">
         <v>0</v>
       </c>
       <c r="AJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
         <v>1857.7249999999999</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AL7" s="3">
         <v>154.05699999999999</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AM7" s="3">
         <v>10.904</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AN7" s="3">
         <v>10.798</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AO7" s="3">
         <v>-12.3</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AP7" s="11">
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="H8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="J8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O8" s="3" t="str">
+      <c r="O8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="U8" s="3">
+        <v>238</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="V8" s="3">
         <v>2</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>-43.710300000000004</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5.5040999999999451</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>-32.113500000000002</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>0.47520000000000095</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>-115.96775</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>50.289250000000017</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>923.19599999999991</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>48.512</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2.3989824999999998</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1.9589874999999999</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>23</v>
       </c>
-      <c r="AG8" s="3">
-        <v>0</v>
-      </c>
       <c r="AH8" s="3">
         <v>0</v>
       </c>
@@ -2404,378 +2431,387 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
         <v>1664.2149999999999</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AL8" s="3">
         <v>263.90499999999997</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>39.4115325</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AN8" s="3">
         <v>13.425262500000006</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AO8" s="3">
         <v>-10.9</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>1.0999999999999999E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="H9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="N9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O9" s="3" t="str">
+      <c r="P9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S9" s="3" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="U9" s="3">
+        <v>239</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="V9" s="3">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>-57.64</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3.64</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>-33.08</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3.17</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>-245.61</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>8.06</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>918.09</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>72.849999999999994</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>-3.2949999999999999</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>0.999</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <v>23</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AH9" s="3">
         <v>2.12</v>
       </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
       <c r="AI9" s="3">
         <v>0</v>
       </c>
       <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
         <v>1780.84</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AL9" s="3">
         <v>35.363999999999997</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AM9" s="3">
         <v>6.3120000000000003</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AN9" s="3">
         <v>5.1479999999999997</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AO9" s="3">
         <v>-9</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AP9" s="3">
         <v>2.3999999999999998E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="E10" s="9">
-        <v>3</v>
       </c>
       <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>150</v>
+      <c r="G10" s="9">
+        <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="O10" s="3" t="str">
+        <v>153</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,59,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103,1104,1105,1106</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S10" s="3" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="U10" s="3">
+        <v>240</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="V10" s="3">
         <v>5</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-61.05</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7.32</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-40.76</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5.12</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-202.88</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>26.25</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>946.42</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>47.25</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4.6559999999999997</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1.3979999999999999</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <v>24.2</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AH10" s="3">
         <v>1.72</v>
       </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
       <c r="AI10" s="3">
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
         <v>1750.73</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AL10" s="3">
         <v>100.116</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AM10" s="3">
         <v>17.965</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AN10" s="3">
         <v>9.9930000000000003</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AO10" s="3">
         <v>-12.5</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AP10" s="3">
         <v>6.8000000000000003E-10</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="3" t="str">
         <f>_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A11,".pdb")</f>
         <v>./docking/inputs/PDBs/reference_antibodies/Acrixolimab.pdb</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="O11" s="3" t="str">
+        <v>212</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S11" s="3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="U11" s="3">
+        <v>235</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="V11" s="3">
         <v>25</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <v>-88.11</v>
       </c>
-      <c r="W11" s="3">
+      <c r="X11" s="3">
         <v>10.49</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Y11" s="3">
         <v>-67.25</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Z11" s="3">
         <v>11.08</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <v>-208.64</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>36.61</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AC11" s="3">
         <v>443.66</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>83.73</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>-3.5680000000000001</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AF11" s="3">
         <v>4.6210000000000004</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>13.8</v>
       </c>
-      <c r="AG11" s="3">
-        <v>0</v>
-      </c>
       <c r="AH11" s="3">
         <v>0</v>
       </c>
@@ -2783,126 +2819,129 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
         <v>2631.9589999999998</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AL11" s="3">
         <v>213.10900000000001</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AM11" s="3">
         <v>-68.177999999999997</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AN11" s="3">
         <v>18.361999999999998</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AO11" s="3">
         <v>-13.1</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AP11" s="3">
         <v>2.5000000000000002E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>58</v>
+      <c r="G12" s="6">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" ref="I12:I43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
+        <v>57</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f t="shared" ref="J12:J43" si="1">_xlfn.CONCAT("./docking/inputs/PDBs/reference_antibodies/",A12,".pdb")</f>
         <v>./docking/inputs/PDBs/reference_antibodies/Balstilimab.pdb</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O12" s="3" t="str">
+        <v>214</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="U12" s="3">
+        <v>242</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="V12" s="3">
         <v>9</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>-86.95</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9.52</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>-70.14</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7.27</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>-168.07</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>49.56</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>426.47</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>64.599999999999994</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>-9.4920000000000009</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>3.22</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>13.22</v>
       </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
       <c r="AH12" s="3">
         <v>0</v>
       </c>
@@ -2910,126 +2949,129 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
         <v>2226.3240000000001</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AL12" s="3">
         <v>135.46199999999999</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AM12" s="3">
         <v>-70.600999999999999</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AN12" s="3">
         <v>18.917000000000002</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AO12" s="3">
         <v>-12.4</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AP12" s="3">
         <v>8.3000000000000003E-10</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>59</v>
+      <c r="G13" s="6">
+        <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="3" t="str">
+        <v>58</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Budigalimab.pdb</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O13" s="3" t="str">
+        <v>216</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S13" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="U13" s="3">
+        <v>236</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="V13" s="3">
         <v>153</v>
       </c>
-      <c r="V13" s="3">
+      <c r="W13" s="3">
         <v>-81.2</v>
       </c>
-      <c r="W13" s="3">
+      <c r="X13" s="3">
         <v>9.74</v>
       </c>
-      <c r="X13" s="3">
+      <c r="Y13" s="3">
         <v>-63.01</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Z13" s="3">
         <v>8.5399999999999991</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="AA13" s="3">
         <v>-181.94</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AB13" s="3">
         <v>47.1</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AC13" s="3">
         <v>534.13</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AD13" s="3">
         <v>73.83</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AE13" s="3">
         <v>-3.6239999999999899</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="3">
         <v>3.3559999999999999</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AG13" s="3">
         <v>14.89</v>
       </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
       <c r="AH13" s="3">
         <v>0</v>
       </c>
@@ -3037,126 +3079,129 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
         <v>2065.0650000000001</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AL13" s="3">
         <v>141.73099999999999</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AM13" s="3">
         <v>-49.603999999999999</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AN13" s="3">
         <v>16.303999999999998</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AO13" s="3">
         <v>-16.2</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AP13" s="3">
         <v>1.4000000000000001E-12</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>60</v>
+      <c r="G14" s="6">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="3" t="str">
+        <v>59</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Camrelizumab.pdb</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O14" s="3" t="str">
+        <v>218</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="U14" s="3">
+        <v>239</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="V14" s="3">
         <v>12</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-63.03</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4.78</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-56.67</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-63.59</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>12.27</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>591.26</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>63.19</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-18.722000000000001</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>2.871</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AG14" s="3">
         <v>15.5</v>
       </c>
-      <c r="AG14" s="3">
-        <v>0</v>
-      </c>
       <c r="AH14" s="3">
         <v>0</v>
       </c>
@@ -3164,126 +3209,129 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
         <v>1700.299</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AL14" s="3">
         <v>138.744</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AM14" s="3">
         <v>-28.986999999999998</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AN14" s="3">
         <v>7.3159999999999998</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AO14" s="3">
         <v>-10.8</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AP14" s="3">
         <v>1.3000000000000001E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>61</v>
+      <c r="G15" s="6">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Cemiplimab.pdb</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O15" s="3" t="str">
+        <v>219</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S15" s="3" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="U15" s="3">
+        <v>240</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="V15" s="3">
         <v>34</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-77.38</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>11.9</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-60.06</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>9.0500000000000007</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-173.16</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>50</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>406.41</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>78.3</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-6.5279999999999996</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>4.351</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AG15" s="3">
         <v>11.29</v>
       </c>
-      <c r="AG15" s="3">
-        <v>0</v>
-      </c>
       <c r="AH15" s="3">
         <v>0</v>
       </c>
@@ -3291,126 +3339,129 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
         <v>2065.154</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AL15" s="3">
         <v>197.488</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AM15" s="3">
         <v>-60.578000000000003</v>
       </c>
-      <c r="AM15" s="3">
+      <c r="AN15" s="3">
         <v>17.010000000000002</v>
       </c>
-      <c r="AN15" s="3">
+      <c r="AO15" s="3">
         <v>-9.5</v>
       </c>
-      <c r="AO15" s="3">
+      <c r="AP15" s="3">
         <v>1.1000000000000001E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>62</v>
+      <c r="G16" s="6">
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="3" t="str">
+        <v>61</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Cetrelimab.pdb</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O16" s="3" t="str">
+      <c r="O16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P16" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S16" s="3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="U16" s="3">
+        <v>235</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="V16" s="3">
         <v>43</v>
       </c>
-      <c r="V16" s="3">
+      <c r="W16" s="3">
         <v>-78.81</v>
       </c>
-      <c r="W16" s="3">
+      <c r="X16" s="3">
         <v>7.92</v>
       </c>
-      <c r="X16" s="3">
+      <c r="Y16" s="3">
         <v>-61.01</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Z16" s="3">
         <v>8.86</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="AA16" s="3">
         <v>-178.02</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AB16" s="3">
         <v>26</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AC16" s="3">
         <v>573.99</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AD16" s="3">
         <v>56.48</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AE16" s="3">
         <v>-6.4589999999999996</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AF16" s="3">
         <v>3.1989999999999998</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AG16" s="3">
         <v>15.46</v>
       </c>
-      <c r="AG16" s="3">
-        <v>0</v>
-      </c>
       <c r="AH16" s="3">
         <v>0</v>
       </c>
@@ -3418,126 +3469,129 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
         <v>2104.84</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AL16" s="3">
         <v>67.848999999999904</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AM16" s="3">
         <v>-45.677999999999997</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AN16" s="3">
         <v>9.0269999999999992</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AO16" s="3">
         <v>-14.3</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AP16" s="3">
         <v>3.3000000000000002E-11</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
       <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>63</v>
+      <c r="G17" s="6">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="3" t="str">
+        <v>62</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Dostarlimab.pdb</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O17" s="3" t="str">
+        <v>218</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S17" s="3" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="U17" s="3">
+        <v>240</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="V17" s="3">
         <v>35</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>-77.73</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12.46</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>-61.81</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10.83</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>-159.16</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>41.95</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>444.96</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>75.58</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>-15.439</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2.665</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>11.94</v>
       </c>
-      <c r="AG17" s="3">
-        <v>0</v>
-      </c>
       <c r="AH17" s="3">
         <v>0</v>
       </c>
@@ -3545,126 +3599,129 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
         <v>1953.759</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AL17" s="3">
         <v>146.55500000000001</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AM17" s="3">
         <v>-64.590999999999994</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AN17" s="3">
         <v>18.230999999999899</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AO17" s="3">
         <v>-14.3</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AP17" s="3">
         <v>3.3999999999999999E-11</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>64</v>
+      <c r="G18" s="6">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="3" t="str">
+        <v>63</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Enlonstobart.pdb</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O18" s="3" t="str">
+        <v>214</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S18" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="U18" s="3">
+        <v>236</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="V18" s="3">
         <v>85</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-92.48</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-80</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>11.09</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-124.88</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>32.549999999999997</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>473.84</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>76.91</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-3.113</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>3.5169999999999999</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>13.46</v>
       </c>
-      <c r="AG18" s="3">
-        <v>0</v>
-      </c>
       <c r="AH18" s="3">
         <v>0</v>
       </c>
@@ -3672,126 +3729,129 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
         <v>2144.386</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AL18" s="3">
         <v>237.46099999999899</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AM18" s="3">
         <v>-60.7</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AN18" s="3">
         <v>18.164000000000001</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AO18" s="3">
         <v>-16.100000000000001</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AP18" s="3">
         <v>1.7E-12</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
       <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>65</v>
+      <c r="G19" s="6">
+        <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" s="3" t="str">
+        <v>64</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Eurestobart.pdb</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="O19" s="3" t="str">
+        <v>220</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1049,1050,1051,1052,1053,1054,1055,1088,1089,1090,1091,1092,1093,1094,1095,1096</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S19" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="U19" s="3">
+        <v>236</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="V19" s="3">
         <v>103</v>
       </c>
-      <c r="V19" s="3">
+      <c r="W19" s="3">
         <v>-73.88</v>
       </c>
-      <c r="W19" s="3">
+      <c r="X19" s="3">
         <v>6.75</v>
       </c>
-      <c r="X19" s="3">
+      <c r="Y19" s="3">
         <v>-63.11</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Z19" s="3">
         <v>6.58</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="AA19" s="3">
         <v>-107.71</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AB19" s="3">
         <v>22.05</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AC19" s="3">
         <v>625.26</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AD19" s="3">
         <v>60.42</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AE19" s="3">
         <v>-6.7929999999999904</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AF19" s="3">
         <v>2.2569999999999899</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AG19" s="3">
         <v>14.87</v>
       </c>
-      <c r="AG19" s="3">
-        <v>0</v>
-      </c>
       <c r="AH19" s="3">
         <v>0</v>
       </c>
@@ -3799,126 +3859,129 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
         <v>1769.473</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AL19" s="3">
         <v>83.91</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AM19" s="3">
         <v>-28.920999999999999</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AN19" s="3">
         <v>9.7189999999999994</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AO19" s="3">
         <v>-12.8</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AP19" s="3">
         <v>4.3000000000000001E-10</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
       <c r="F20" s="6">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>66</v>
+      <c r="G20" s="6">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="3" t="str">
+        <v>65</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Ezabenlimab.pdb</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="O20" s="3" t="str">
+        <v>222</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S20" s="3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="U20" s="3">
+        <v>235</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="V20" s="3">
         <v>34</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-67.36</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7.57</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-47.68</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6.7</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-196.86</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>51.94</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>592.65</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>76.34</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-6.6179999999999897</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>3.6459999999999999</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>16.5</v>
       </c>
-      <c r="AG20" s="3">
-        <v>0</v>
-      </c>
       <c r="AH20" s="3">
         <v>0</v>
       </c>
@@ -3926,126 +3989,129 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3">
         <v>1983.646</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AL20" s="3">
         <v>132.41200000000001</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AM20" s="3">
         <v>-34.404000000000003</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AN20" s="3">
         <v>14.731999999999999</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AO20" s="3">
         <v>-10.9</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AP20" s="3">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
       <c r="F21" s="6">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>67</v>
+      <c r="G21" s="6">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3" t="str">
+        <v>66</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Finotonlimab.pdb</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="K21" s="3" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="O21" s="3" t="str">
+        <v>216</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S21" s="3" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="U21" s="3">
+        <v>240</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="V21" s="3">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-62.99</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>10.88</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-55.63</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>8.66</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-73.58</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>26.74</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>705.23</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>53.65</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-27.218</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>2.4449999999999998</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>19</v>
       </c>
-      <c r="AG21" s="3">
-        <v>0</v>
-      </c>
       <c r="AH21" s="3">
         <v>0</v>
       </c>
@@ -4053,126 +4119,129 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3">
         <v>1916.0920000000001</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AL21" s="3">
         <v>151.30199999999999</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AM21" s="3">
         <v>-27.045000000000002</v>
       </c>
-      <c r="AM21" s="3">
+      <c r="AN21" s="3">
         <v>13.581</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AO21" s="3">
         <v>-10.3</v>
       </c>
-      <c r="AO21" s="3">
+      <c r="AP21" s="3">
         <v>2.9000000000000002E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
       <c r="F22" s="6">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
+      <c r="G22" s="6">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="3" t="str">
+        <v>67</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Geptanolimab.pdb</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="O22" s="3" t="str">
+        <v>212</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S22" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="U22" s="3">
+        <v>236</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="V22" s="3">
         <v>57</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>-91.52</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12.43</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>-68.95</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10.33</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>-225.74</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>44.81</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>461.25</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>61.69</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>-11.606</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>2.7639999999999998</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AG22" s="3">
         <v>13.28</v>
       </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
       <c r="AH22" s="3">
         <v>0</v>
       </c>
@@ -4180,126 +4249,129 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3">
         <v>2338.3150000000001</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AL22" s="3">
         <v>224.08599999999899</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AM22" s="3">
         <v>-79.575999999999993</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AN22" s="3">
         <v>17.318999999999999</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AO22" s="3">
         <v>-14.1</v>
       </c>
-      <c r="AO22" s="3">
+      <c r="AP22" s="3">
         <v>4.5E-11</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
       <c r="F23" s="6">
         <v>0</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>69</v>
+      <c r="G23" s="6">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="3" t="str">
+        <v>68</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Iparomlimab.pdb</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="O23" s="3" t="str">
+        <v>225</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q23" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S23" s="3" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="U23" s="3">
+        <v>254</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="V23" s="3">
         <v>4</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-92.41</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-79.099999999999994</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3.5</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-133.11000000000001</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>12.32</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>786</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>60.84</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-28.943000000000001</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>3.4380000000000002</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>19.5</v>
       </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
       <c r="AH23" s="3">
         <v>0</v>
       </c>
@@ -4307,126 +4379,129 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3">
         <v>2295.9569999999999</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AL23" s="3">
         <v>66.768999999999906</v>
       </c>
-      <c r="AL23" s="3">
+      <c r="AM23" s="3">
         <v>-56.061999999999998</v>
       </c>
-      <c r="AM23" s="3">
+      <c r="AN23" s="3">
         <v>11.218</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AO23" s="3">
         <v>-12.1</v>
       </c>
-      <c r="AO23" s="3">
+      <c r="AP23" s="3">
         <v>1.3000000000000001E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
       <c r="F24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>70</v>
+      <c r="G24" s="6">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="3" t="str">
+        <v>69</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Lipustobart.pdb</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="K24" s="3" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="O24" s="3" t="str">
+        <v>222</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S24" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="U24" s="3">
+        <v>236</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="V24" s="3">
         <v>141</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-87.95</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8.94</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-64.290000000000006</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>7.67</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-236.56</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>42.34</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>619.29999999999995</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>84.94</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-5.5810000000000004</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3.0950000000000002</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AG24" s="3">
         <v>16.75</v>
       </c>
-      <c r="AG24" s="3">
-        <v>0</v>
-      </c>
       <c r="AH24" s="3">
         <v>0</v>
       </c>
@@ -4434,126 +4509,129 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3">
         <v>2168.1179999999999</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AL24" s="3">
         <v>114.58199999999999</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AM24" s="3">
         <v>-55.253</v>
       </c>
-      <c r="AM24" s="3">
+      <c r="AN24" s="3">
         <v>13.759</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AO24" s="3">
         <v>-12.2</v>
       </c>
-      <c r="AO24" s="3">
+      <c r="AP24" s="3">
         <v>1.0999999999999999E-9</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>71</v>
+      <c r="G25" s="6">
+        <v>0</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="3" t="str">
+        <v>70</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Nivolumab.pdb</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O25" s="3" t="str">
+        <v>214</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S25" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="U25" s="3">
+        <v>236</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="V25" s="3">
         <v>103</v>
       </c>
-      <c r="V25" s="3">
+      <c r="W25" s="3">
         <v>-99.14</v>
       </c>
-      <c r="W25" s="3">
+      <c r="X25" s="3">
         <v>13.38</v>
       </c>
-      <c r="X25" s="3">
+      <c r="Y25" s="3">
         <v>-78.67</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Z25" s="3">
         <v>12.49</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="AA25" s="3">
         <v>-204.76</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AB25" s="3">
         <v>39.380000000000003</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AC25" s="3">
         <v>469.55</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AD25" s="3">
         <v>81.48</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AE25" s="3">
         <v>3.915</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AF25" s="3">
         <v>2.855</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AG25" s="3">
         <v>13.26</v>
       </c>
-      <c r="AG25" s="3">
-        <v>0</v>
-      </c>
       <c r="AH25" s="3">
         <v>0</v>
       </c>
@@ -4561,126 +4639,129 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="3">
         <v>2239.9920000000002</v>
       </c>
-      <c r="AK25" s="3">
+      <c r="AL25" s="3">
         <v>270.28300000000002</v>
       </c>
-      <c r="AL25" s="3">
+      <c r="AM25" s="3">
         <v>-68.748000000000005</v>
       </c>
-      <c r="AM25" s="3">
+      <c r="AN25" s="3">
         <v>19.748999999999999</v>
       </c>
-      <c r="AN25" s="3">
+      <c r="AO25" s="3">
         <v>-14.4</v>
       </c>
-      <c r="AO25" s="3">
+      <c r="AP25" s="3">
         <v>2.5000000000000001E-11</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
       <c r="F26" s="6">
         <v>0</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>72</v>
+      <c r="G26" s="6">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="3" t="str">
+        <v>71</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Nofazinlimab.pdb</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="K26" s="3" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O26" s="3" t="str">
+        <v>226</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S26" s="3" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="U26" s="3">
+        <v>258</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="V26" s="3">
         <v>5</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-74.59</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>8.23</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-61.78</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7.61</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-128.13999999999999</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>9.43</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>507.45</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>49.97</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-3.6280000000000001</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>3.6739999999999999</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>13.8</v>
       </c>
-      <c r="AG26" s="3">
-        <v>0</v>
-      </c>
       <c r="AH26" s="3">
         <v>0</v>
       </c>
@@ -4688,126 +4769,129 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3">
         <v>2231.2440000000001</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AL26" s="3">
         <v>67.097999999999999</v>
       </c>
-      <c r="AL26" s="3">
+      <c r="AM26" s="3">
         <v>-40.286999999999999</v>
       </c>
-      <c r="AM26" s="3">
+      <c r="AN26" s="3">
         <v>13.535</v>
       </c>
-      <c r="AN26" s="3">
+      <c r="AO26" s="3">
         <v>-17.100000000000001</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AP26" s="3">
         <v>2.7000000000000001E-13</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
       <c r="F27" s="6">
         <v>0</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>73</v>
+      <c r="G27" s="6">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="3" t="str">
+        <v>72</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pembrolizumab.pdb</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="O27" s="3" t="str">
+        <v>222</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S27" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="U27" s="3">
+        <v>236</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="V27" s="3">
         <v>170</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-95.03</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>8.82</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-62.22</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>8.5399999999999991</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-328.1</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>42.86</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>622.63</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>83.54</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-0.99</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>3.0389999999999899</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>17.059999999999999</v>
       </c>
-      <c r="AG27" s="3">
-        <v>0</v>
-      </c>
       <c r="AH27" s="3">
         <v>0</v>
       </c>
@@ -4815,126 +4899,129 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="3">
         <v>2223.3789999999999</v>
       </c>
-      <c r="AK27" s="3">
+      <c r="AL27" s="3">
         <v>72.298999999999893</v>
       </c>
-      <c r="AL27" s="3">
+      <c r="AM27" s="3">
         <v>-66.566000000000003</v>
       </c>
-      <c r="AM27" s="3">
+      <c r="AN27" s="3">
         <v>14.093999999999999</v>
       </c>
-      <c r="AN27" s="3">
+      <c r="AO27" s="3">
         <v>-11.7</v>
       </c>
-      <c r="AO27" s="3">
+      <c r="AP27" s="3">
         <v>2.6000000000000001E-9</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
       <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>74</v>
+      <c r="G28" s="6">
+        <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="3" t="str">
+        <v>73</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Penpulimab.pdb</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="K28" s="3" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O28" s="3" t="str">
+        <v>216</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S28" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="U28" s="3">
+        <v>236</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V28" s="3">
         <v>93</v>
       </c>
-      <c r="V28" s="3">
+      <c r="W28" s="3">
         <v>-88.27</v>
       </c>
-      <c r="W28" s="3">
+      <c r="X28" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="X28" s="3">
+      <c r="Y28" s="3">
         <v>-67.64</v>
       </c>
-      <c r="Y28" s="3">
+      <c r="Z28" s="3">
         <v>7.45</v>
       </c>
-      <c r="Z28" s="3">
+      <c r="AA28" s="3">
         <v>-206.38</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AB28" s="3">
         <v>47.97</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AC28" s="3">
         <v>471.91</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="AD28" s="3">
         <v>75.84</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AE28" s="3">
         <v>-5.0830000000000002</v>
       </c>
-      <c r="AE28" s="3">
+      <c r="AF28" s="3">
         <v>3.86</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AG28" s="3">
         <v>13.75</v>
       </c>
-      <c r="AG28" s="3">
-        <v>0</v>
-      </c>
       <c r="AH28" s="3">
         <v>0</v>
       </c>
@@ -4942,126 +5029,129 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
         <v>2229.2950000000001</v>
       </c>
-      <c r="AK28" s="3">
+      <c r="AL28" s="3">
         <v>126.76</v>
       </c>
-      <c r="AL28" s="3">
+      <c r="AM28" s="3">
         <v>-66.802999999999997</v>
       </c>
-      <c r="AM28" s="3">
+      <c r="AN28" s="3">
         <v>14.169</v>
       </c>
-      <c r="AN28" s="3">
+      <c r="AO28" s="3">
         <v>-12.4</v>
       </c>
-      <c r="AO28" s="3">
+      <c r="AP28" s="3">
         <v>7.8999999999999996E-10</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
       <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>75</v>
+      <c r="G29" s="6">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="3" t="str">
+        <v>74</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Perenostobart.pdb</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="K29" s="3" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O29" s="3" t="str">
+        <v>227</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S29" s="3" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="U29" s="3">
+        <v>262</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="V29" s="3">
         <v>7</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-73.61</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>6.98</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-59.86</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>5.5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-137.55000000000001</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>21.7</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>516.27</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>40.18</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-12.095999999999901</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>3.62</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AG29" s="3">
         <v>13.14</v>
       </c>
-      <c r="AG29" s="3">
-        <v>0</v>
-      </c>
       <c r="AH29" s="3">
         <v>0</v>
       </c>
@@ -5069,126 +5159,129 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
         <v>1994.587</v>
       </c>
-      <c r="AK29" s="3">
+      <c r="AL29" s="3">
         <v>118.628999999999</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AM29" s="3">
         <v>-47.838999999999999</v>
       </c>
-      <c r="AM29" s="3">
+      <c r="AN29" s="3">
         <v>9.9220000000000006</v>
       </c>
-      <c r="AN29" s="3">
+      <c r="AO29" s="3">
         <v>-9.1</v>
       </c>
-      <c r="AO29" s="3">
+      <c r="AP29" s="3">
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
       <c r="F30" s="6">
         <v>0</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>76</v>
+      <c r="G30" s="6">
+        <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="3" t="str">
+        <v>75</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Peresolimab.pdb</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="K30" s="3" t="s">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="O30" s="3" t="str">
+        <v>228</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,98,99,100,101,102,103,104,105,106,107,108,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R30" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S30" s="3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="U30" s="3">
+        <v>235</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="V30" s="3">
         <v>49</v>
       </c>
-      <c r="V30" s="3">
+      <c r="W30" s="3">
         <v>-70.11</v>
       </c>
-      <c r="W30" s="3">
+      <c r="X30" s="3">
         <v>6.94</v>
       </c>
-      <c r="X30" s="3">
+      <c r="Y30" s="3">
         <v>-60.67</v>
       </c>
-      <c r="Y30" s="3">
+      <c r="Z30" s="3">
         <v>7.24</v>
       </c>
-      <c r="Z30" s="3">
+      <c r="AA30" s="3">
         <v>-94.38</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AB30" s="3">
         <v>18.14</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AC30" s="3">
         <v>578.6</v>
       </c>
-      <c r="AC30" s="3">
+      <c r="AD30" s="3">
         <v>60.02</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AE30" s="3">
         <v>-3.85</v>
       </c>
-      <c r="AE30" s="3">
+      <c r="AF30" s="3">
         <v>2.6789999999999998</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AG30" s="3">
         <v>16.059999999999999</v>
       </c>
-      <c r="AG30" s="3">
-        <v>0</v>
-      </c>
       <c r="AH30" s="3">
         <v>0</v>
       </c>
@@ -5196,126 +5289,129 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="3">
         <v>1851.8029999999901</v>
       </c>
-      <c r="AK30" s="3">
+      <c r="AL30" s="3">
         <v>105.712</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AM30" s="3">
         <v>-25.539000000000001</v>
       </c>
-      <c r="AM30" s="3">
+      <c r="AN30" s="3">
         <v>9.68</v>
       </c>
-      <c r="AN30" s="3">
+      <c r="AO30" s="3">
         <v>-12.9</v>
       </c>
-      <c r="AO30" s="3">
+      <c r="AP30" s="3">
         <v>3.1999999999999998E-10</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>77</v>
+      <c r="G31" s="6">
+        <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="3" t="str">
+        <v>76</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pidilizumab.pdb</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="K31" s="3" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="O31" s="3" t="str">
+        <v>219</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1049,1050,1051,1052,1053,1054,1055,1088,1089,1090,1091,1092,1093,1094,1095,1096</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R31" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S31" s="3" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="U31" s="3">
+        <v>265</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="V31" s="3">
         <v>7</v>
       </c>
-      <c r="V31" s="3">
+      <c r="W31" s="3">
         <v>-69.33</v>
       </c>
-      <c r="W31" s="3">
+      <c r="X31" s="3">
         <v>7.27</v>
       </c>
-      <c r="X31" s="3">
+      <c r="Y31" s="3">
         <v>-54.82</v>
       </c>
-      <c r="Y31" s="3">
+      <c r="Z31" s="3">
         <v>6.32</v>
       </c>
-      <c r="Z31" s="3">
+      <c r="AA31" s="3">
         <v>-145.12</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="AB31" s="3">
         <v>16.309999999999999</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AC31" s="3">
         <v>456.83</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AD31" s="3">
         <v>63.52</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AE31" s="3">
         <v>-2.6389999999999998</v>
       </c>
-      <c r="AE31" s="3">
+      <c r="AF31" s="3">
         <v>2.9350000000000001</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AG31" s="3">
         <v>12.43</v>
       </c>
-      <c r="AG31" s="3">
-        <v>0</v>
-      </c>
       <c r="AH31" s="3">
         <v>0</v>
       </c>
@@ -5323,126 +5419,129 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="3">
         <v>1787.9259999999999</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AL31" s="3">
         <v>89.325999999999993</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AM31" s="3">
         <v>-40.796999999999997</v>
       </c>
-      <c r="AM31" s="3">
+      <c r="AN31" s="3">
         <v>10.753</v>
       </c>
-      <c r="AN31" s="3">
+      <c r="AO31" s="3">
         <v>-10.3</v>
       </c>
-      <c r="AO31" s="3">
+      <c r="AP31" s="3">
         <v>2.9000000000000002E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
       <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>78</v>
+      <c r="G32" s="6">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="3" t="str">
+        <v>77</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pimivalimab.pdb</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="K32" s="3" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O32" s="3" t="str">
+        <v>216</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S32" s="3" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="U32" s="3">
+        <v>254</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="V32" s="3">
         <v>9</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-62.95</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7.34</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-49.02</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7.77</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-139.30000000000001</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>27.63</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>504.04</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>54.44</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-10.709</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>5.2589999999999897</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AG32" s="3">
         <v>14.11</v>
       </c>
-      <c r="AG32" s="3">
-        <v>0</v>
-      </c>
       <c r="AH32" s="3">
         <v>0</v>
       </c>
@@ -5450,126 +5549,129 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3">
         <v>1988.992</v>
       </c>
-      <c r="AK32" s="3">
+      <c r="AL32" s="3">
         <v>116.932</v>
       </c>
-      <c r="AL32" s="3">
+      <c r="AM32" s="3">
         <v>-37.181999999999903</v>
       </c>
-      <c r="AM32" s="3">
+      <c r="AN32" s="3">
         <v>10.602</v>
       </c>
-      <c r="AN32" s="3">
+      <c r="AO32" s="3">
         <v>-11.2</v>
       </c>
-      <c r="AO32" s="3">
+      <c r="AP32" s="3">
         <v>6.5000000000000003E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>79</v>
+      <c r="G33" s="6">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="3" t="str">
+        <v>78</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pradusinstobart.pdb</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="K33" s="3" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O33" s="3" t="str">
+        <v>230</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,33,34,54,55,56,57,58,100,101,102,103,104,105,106,107,108,109,110,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S33" s="3" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="T33" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="U33" s="3">
+        <v>254</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="V33" s="3">
         <v>13</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-70.12</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5.66</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-59.83</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4.12</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-102.85</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>30.57</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>565.28</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>76.95</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-9.0449999999999999</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>2.86899999999999</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>15.85</v>
       </c>
-      <c r="AG33" s="3">
-        <v>0</v>
-      </c>
       <c r="AH33" s="3">
         <v>0</v>
       </c>
@@ -5577,126 +5679,129 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="3">
         <v>1893.5429999999999</v>
       </c>
-      <c r="AK33" s="3">
+      <c r="AL33" s="3">
         <v>54.718000000000004</v>
       </c>
-      <c r="AL33" s="3">
+      <c r="AM33" s="3">
         <v>-32.92</v>
       </c>
-      <c r="AM33" s="3">
+      <c r="AN33" s="3">
         <v>12.579000000000001</v>
       </c>
-      <c r="AN33" s="3">
+      <c r="AO33" s="3">
         <v>-10.199999999999999</v>
       </c>
-      <c r="AO33" s="3">
+      <c r="AP33" s="3">
         <v>3.1E-8</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
       <c r="F34" s="6">
         <v>0</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>80</v>
+      <c r="G34" s="6">
+        <v>0</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" s="3" t="str">
+        <v>79</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Pucotenlimab.pdb</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="K34" s="3" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="O34" s="3" t="str">
+        <v>216</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
       </c>
-      <c r="P34" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R34" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S34" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="U34" s="3">
+        <v>236</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="V34" s="3">
         <v>184</v>
       </c>
-      <c r="V34" s="3">
+      <c r="W34" s="3">
         <v>-70.5</v>
       </c>
-      <c r="W34" s="3">
+      <c r="X34" s="3">
         <v>6.58</v>
       </c>
-      <c r="X34" s="3">
+      <c r="Y34" s="3">
         <v>-51.94</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Z34" s="3">
         <v>6.14</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="AA34" s="3">
         <v>-185.65</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AB34" s="3">
         <v>32.19</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AC34" s="3">
         <v>485.61</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AD34" s="3">
         <v>62.74</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AE34" s="3">
         <v>-1.7909999999999999</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AF34" s="3">
         <v>2.7160000000000002</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AG34" s="3">
         <v>13.97</v>
       </c>
-      <c r="AG34" s="3">
-        <v>0</v>
-      </c>
       <c r="AH34" s="3">
         <v>0</v>
       </c>
@@ -5704,126 +5809,129 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="3">
         <v>1993.2660000000001</v>
       </c>
-      <c r="AK34" s="3">
+      <c r="AL34" s="3">
         <v>84.786000000000001</v>
       </c>
-      <c r="AL34" s="3">
+      <c r="AM34" s="3">
         <v>-42.295999999999999</v>
       </c>
-      <c r="AM34" s="3">
+      <c r="AN34" s="3">
         <v>11.026999999999999</v>
       </c>
-      <c r="AN34" s="3">
+      <c r="AO34" s="3">
         <v>-12.1</v>
       </c>
-      <c r="AO34" s="3">
+      <c r="AP34" s="3">
         <v>1.3000000000000001E-9</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>81</v>
+      <c r="G35" s="6">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="3" t="str">
+        <v>80</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Retifanlimab.pdb</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="K35" s="3" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="O35" s="3" t="str">
+        <v>225</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="P35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1054,1055,1056,1057,1058,1059,1060,1093,1094,1095,1096,1097,1098,1099,1100,1101</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q35" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S35" s="3" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="U35" s="3">
+        <v>240</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="V35" s="3">
         <v>20</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-69.06</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2.64</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-57.67</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2.74</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-113.88</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>13.68</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>760.24</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-24.486000000000001</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>3.0169999999999999</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>20.350000000000001</v>
       </c>
-      <c r="AG35" s="3">
-        <v>0</v>
-      </c>
       <c r="AH35" s="3">
         <v>0</v>
       </c>
@@ -5831,126 +5939,129 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3">
         <v>1790.627</v>
       </c>
-      <c r="AK35" s="3">
+      <c r="AL35" s="3">
         <v>61.512</v>
       </c>
-      <c r="AL35" s="3">
+      <c r="AM35" s="3">
         <v>-28.905999999999999</v>
       </c>
-      <c r="AM35" s="3">
+      <c r="AN35" s="3">
         <v>5.0720000000000001</v>
       </c>
-      <c r="AN35" s="3">
+      <c r="AO35" s="3">
         <v>-10.9</v>
       </c>
-      <c r="AO35" s="3">
+      <c r="AP35" s="3">
         <v>1E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
       <c r="F36" s="6">
         <v>0</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>82</v>
+      <c r="G36" s="6">
+        <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I36" s="3" t="str">
+        <v>81</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Rosnilimab.pdb</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="K36" s="3" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="O36" s="3" t="str">
+      <c r="P36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1051,1052,1053,1054,1055,1056,1057,1090,1091,1092,1093,1094,1095,1096,1097,1098</v>
       </c>
-      <c r="P36" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q36" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R36" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S36" s="3" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="U36" s="3">
+        <v>254</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="V36" s="3">
         <v>7</v>
       </c>
-      <c r="V36" s="3">
+      <c r="W36" s="3">
         <v>-68.319999999999993</v>
       </c>
-      <c r="W36" s="3">
+      <c r="X36" s="3">
         <v>7.86</v>
       </c>
-      <c r="X36" s="3">
+      <c r="Y36" s="3">
         <v>-55.51</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Z36" s="3">
         <v>8.39</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="AA36" s="3">
         <v>-128.11000000000001</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AB36" s="3">
         <v>28</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AC36" s="3">
         <v>570.82000000000005</v>
       </c>
-      <c r="AC36" s="3">
+      <c r="AD36" s="3">
         <v>46.79</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AE36" s="3">
         <v>-19.989999999999998</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AF36" s="3">
         <v>3.113</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AG36" s="3">
         <v>14</v>
       </c>
-      <c r="AG36" s="3">
-        <v>0</v>
-      </c>
       <c r="AH36" s="3">
         <v>0</v>
       </c>
@@ -5958,126 +6069,129 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
         <v>1907.569</v>
       </c>
-      <c r="AK36" s="3">
+      <c r="AL36" s="3">
         <v>73.378</v>
       </c>
-      <c r="AL36" s="3">
+      <c r="AM36" s="3">
         <v>-44.042000000000002</v>
       </c>
-      <c r="AM36" s="3">
+      <c r="AN36" s="3">
         <v>11.207000000000001</v>
       </c>
-      <c r="AN36" s="3">
+      <c r="AO36" s="3">
         <v>-11.3</v>
       </c>
-      <c r="AO36" s="3">
+      <c r="AP36" s="3">
         <v>4.6999999999999999E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
       <c r="F37" s="6">
         <v>0</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>83</v>
+      <c r="G37" s="6">
+        <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="3" t="str">
+        <v>82</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Sasanlimab.pdb</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="K37" s="3" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="O37" s="3" t="str">
+        <v>219</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R37" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S37" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="U37" s="3">
+        <v>236</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="V37" s="3">
         <v>86</v>
       </c>
-      <c r="V37" s="3">
+      <c r="W37" s="3">
         <v>-78.44</v>
       </c>
-      <c r="W37" s="3">
+      <c r="X37" s="3">
         <v>7.53</v>
       </c>
-      <c r="X37" s="3">
+      <c r="Y37" s="3">
         <v>-63.98</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Z37" s="3">
         <v>7.23</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="AA37" s="3">
         <v>-144.65</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AB37" s="3">
         <v>27.81</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AC37" s="3">
         <v>553.01</v>
       </c>
-      <c r="AC37" s="3">
+      <c r="AD37" s="3">
         <v>68.12</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AE37" s="3">
         <v>-12.151</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AF37" s="3">
         <v>3.2739999999999898</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AG37" s="3">
         <v>15.72</v>
       </c>
-      <c r="AG37" s="3">
-        <v>0</v>
-      </c>
       <c r="AH37" s="3">
         <v>0</v>
       </c>
@@ -6085,126 +6199,129 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="3">
         <v>2167.3420000000001</v>
       </c>
-      <c r="AK37" s="3">
+      <c r="AL37" s="3">
         <v>99.622</v>
       </c>
-      <c r="AL37" s="3">
+      <c r="AM37" s="3">
         <v>-49.755000000000003</v>
       </c>
-      <c r="AM37" s="3">
+      <c r="AN37" s="3">
         <v>10.66</v>
       </c>
-      <c r="AN37" s="3">
+      <c r="AO37" s="3">
         <v>-13.6</v>
       </c>
-      <c r="AO37" s="3">
+      <c r="AP37" s="3">
         <v>1.0999999999999999E-10</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
       <c r="F38" s="6">
         <v>0</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>84</v>
+      <c r="G38" s="6">
+        <v>0</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I38" s="3" t="str">
+        <v>83</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Serplulimab.pdb</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="K38" s="3" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O38" s="3" t="str">
+        <v>218</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P38" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R38" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S38" s="3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="T38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="U38" s="3">
+        <v>235</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="V38" s="3">
         <v>16</v>
       </c>
-      <c r="V38" s="3">
+      <c r="W38" s="3">
         <v>-77.459999999999994</v>
       </c>
-      <c r="W38" s="3">
+      <c r="X38" s="3">
         <v>8.1</v>
       </c>
-      <c r="X38" s="3">
+      <c r="Y38" s="3">
         <v>-66.55</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="Z38" s="3">
         <v>7.24</v>
       </c>
-      <c r="Z38" s="3">
+      <c r="AA38" s="3">
         <v>-109.06</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AB38" s="3">
         <v>19.95</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AC38" s="3">
         <v>522.62</v>
       </c>
-      <c r="AC38" s="3">
+      <c r="AD38" s="3">
         <v>64.319999999999993</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AE38" s="3">
         <v>-22.951000000000001</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AF38" s="3">
         <v>2.5249999999999999</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AG38" s="3">
         <v>14.25</v>
       </c>
-      <c r="AG38" s="3">
-        <v>0</v>
-      </c>
       <c r="AH38" s="3">
         <v>0</v>
       </c>
@@ -6212,126 +6329,129 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="3">
         <v>2163.614</v>
       </c>
-      <c r="AK38" s="3">
+      <c r="AL38" s="3">
         <v>137.30199999999999</v>
       </c>
-      <c r="AL38" s="3">
+      <c r="AM38" s="3">
         <v>-59.052</v>
       </c>
-      <c r="AM38" s="3">
+      <c r="AN38" s="3">
         <v>10.718</v>
       </c>
-      <c r="AN38" s="3">
+      <c r="AO38" s="3">
         <v>-11.1</v>
       </c>
-      <c r="AO38" s="3">
+      <c r="AP38" s="3">
         <v>7.3E-9</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>85</v>
+      <c r="G39" s="6">
+        <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="3" t="str">
+        <v>84</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Sintilimab.pdb</v>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="K39" s="3" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O39" s="3" t="str">
+        <v>222</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P39" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R39" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S39" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T39" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="U39" s="3">
+        <v>236</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="V39" s="3">
         <v>100</v>
       </c>
-      <c r="V39" s="3">
+      <c r="W39" s="3">
         <v>-72.05</v>
       </c>
-      <c r="W39" s="3">
+      <c r="X39" s="3">
         <v>6.67</v>
       </c>
-      <c r="X39" s="3">
+      <c r="Y39" s="3">
         <v>-60.65</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Z39" s="3">
         <v>6.81</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="AA39" s="3">
         <v>-114.05</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AB39" s="3">
         <v>25.57</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AC39" s="3">
         <v>552.05999999999995</v>
       </c>
-      <c r="AC39" s="3">
+      <c r="AD39" s="3">
         <v>60.69</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AE39" s="3">
         <v>-14.527999999999899</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AF39" s="3">
         <v>3.1509999999999998</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AG39" s="3">
         <v>15.83</v>
       </c>
-      <c r="AG39" s="3">
-        <v>0</v>
-      </c>
       <c r="AH39" s="3">
         <v>0</v>
       </c>
@@ -6339,126 +6459,129 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="3">
         <v>1980.779</v>
       </c>
-      <c r="AK39" s="3">
+      <c r="AL39" s="3">
         <v>78.77</v>
       </c>
-      <c r="AL39" s="3">
+      <c r="AM39" s="3">
         <v>-42.780999999999999</v>
       </c>
-      <c r="AM39" s="3">
+      <c r="AN39" s="3">
         <v>9.657</v>
       </c>
-      <c r="AN39" s="3">
+      <c r="AO39" s="3">
         <v>-11.9</v>
       </c>
-      <c r="AO39" s="3">
+      <c r="AP39" s="3">
         <v>1.9000000000000001E-9</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
       <c r="F40" s="6">
         <v>0</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>86</v>
+      <c r="G40" s="6">
+        <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I40" s="3" t="str">
+        <v>85</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Spartalizumab.pdb</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="O40" s="3" t="str">
+      <c r="P40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1040,1056,1057,1058,1059,1060,1061,1062,1095,1096,1097,1098,1099,1100,1101,1102,1103</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="V40" s="3">
         <v>156</v>
       </c>
-      <c r="Q40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="U40" s="3">
-        <v>156</v>
-      </c>
-      <c r="V40" s="3">
+      <c r="W40" s="3">
         <v>-76.25</v>
       </c>
-      <c r="W40" s="3">
+      <c r="X40" s="3">
         <v>6.58</v>
       </c>
-      <c r="X40" s="3">
+      <c r="Y40" s="3">
         <v>-60.89</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Z40" s="3">
         <v>6.73</v>
       </c>
-      <c r="Z40" s="3">
+      <c r="AA40" s="3">
         <v>-153.63</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AB40" s="3">
         <v>25.44</v>
       </c>
-      <c r="AB40" s="3">
+      <c r="AC40" s="3">
         <v>568.69000000000005</v>
       </c>
-      <c r="AC40" s="3">
+      <c r="AD40" s="3">
         <v>83.69</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AE40" s="3">
         <v>-10.890999999999901</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AF40" s="3">
         <v>3.4249999999999998</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AG40" s="3">
         <v>15.5</v>
       </c>
-      <c r="AG40" s="3">
-        <v>0</v>
-      </c>
       <c r="AH40" s="3">
         <v>0</v>
       </c>
@@ -6466,126 +6589,129 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="3">
         <v>2145.5419999999999</v>
       </c>
-      <c r="AK40" s="3">
+      <c r="AL40" s="3">
         <v>97.498999999999995</v>
       </c>
-      <c r="AL40" s="3">
+      <c r="AM40" s="3">
         <v>-45.64</v>
       </c>
-      <c r="AM40" s="3">
+      <c r="AN40" s="3">
         <v>11.339</v>
       </c>
-      <c r="AN40" s="3">
+      <c r="AO40" s="3">
         <v>-13.5</v>
       </c>
-      <c r="AO40" s="3">
+      <c r="AP40" s="3">
         <v>1.2E-10</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
       <c r="F41" s="6">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>87</v>
+      <c r="G41" s="6">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I41" s="3" t="str">
+        <v>86</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Tislelizumab.pdb</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="K41" s="3" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O41" s="3" t="str">
+        <v>233</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,98,99,100,101,102,103,104,105,106,107,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S41" s="3" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="T41" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="U41" s="3">
+        <v>240</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="V41" s="3">
         <v>10</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>-74.16</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7.23</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>-61.15</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5.71</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>-130.05000000000001</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>29.07</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>524.91</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>79.81</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>-22.146000000000001</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2.7330000000000001</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>13.3</v>
       </c>
-      <c r="AG41" s="3">
-        <v>0</v>
-      </c>
       <c r="AH41" s="3">
         <v>0</v>
       </c>
@@ -6593,126 +6719,129 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="3">
         <v>1811.0809999999999</v>
       </c>
-      <c r="AK41" s="3">
+      <c r="AL41" s="3">
         <v>142.31899999999999</v>
       </c>
-      <c r="AL41" s="3">
+      <c r="AM41" s="3">
         <v>-56.817999999999998</v>
       </c>
-      <c r="AM41" s="3">
+      <c r="AN41" s="3">
         <v>12.744</v>
       </c>
-      <c r="AN41" s="3">
+      <c r="AO41" s="3">
         <v>-12.4</v>
       </c>
-      <c r="AO41" s="3">
+      <c r="AP41" s="3">
         <v>7.5999999999999996E-10</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
       <c r="F42" s="6">
         <v>0</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>88</v>
+      <c r="G42" s="6">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" s="3" t="str">
+        <v>87</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Toripalimab.pdb</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="K42" s="3" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="O42" s="3" t="str">
+        <v>234</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q42" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S42" s="3" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="U42" s="3">
+        <v>236</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="V42" s="3">
         <v>126</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>-68.540000000000006</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8.57</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>-59.15</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>9.0500000000000007</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>-93.9</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>32.1</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>721.55</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>81.98</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>-8.3029999999999902</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>2.8839999999999999</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AG42" s="3">
         <v>18.690000000000001</v>
       </c>
-      <c r="AG42" s="3">
-        <v>0</v>
-      </c>
       <c r="AH42" s="3">
         <v>0</v>
       </c>
@@ -6720,126 +6849,129 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="3">
         <v>1997.789</v>
       </c>
-      <c r="AK42" s="3">
+      <c r="AL42" s="3">
         <v>139.82599999999999</v>
       </c>
-      <c r="AL42" s="3">
+      <c r="AM42" s="3">
         <v>-14.075999999999899</v>
       </c>
-      <c r="AM42" s="3">
+      <c r="AN42" s="3">
         <v>13.462999999999999</v>
       </c>
-      <c r="AN42" s="3">
+      <c r="AO42" s="3">
         <v>-13.2</v>
       </c>
-      <c r="AO42" s="3">
+      <c r="AP42" s="3">
         <v>2.1E-10</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="3">
+        <v>20231108</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
       <c r="F43" s="6">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>89</v>
+      <c r="G43" s="6">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" s="3" t="str">
+        <v>88</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>./docking/inputs/PDBs/reference_antibodies/Zeluvalimab.pdb</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="K43" s="3" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="O43" s="3" t="str">
+        <v>222</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>`26,27,28,29,30,31,32,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,1024,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1050,1051,1052,1053,1054,1055,1056,1089,1090,1091,1092,1093,1094,1095,1096,1097</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="Q43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="S43" s="3" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="U43" s="3">
+        <v>258</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="V43" s="3">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>-74.290000000000006</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3.21</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>-65.87</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4.18</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>-84.2</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>20.73</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>491.63</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>93.72</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>-23.21</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>2.5089999999999999</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AG43" s="3">
         <v>13</v>
       </c>
-      <c r="AG43" s="3">
-        <v>0</v>
-      </c>
       <c r="AH43" s="3">
         <v>0</v>
       </c>
@@ -6847,21 +6979,24 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="3">
         <v>1895.9570000000001</v>
       </c>
-      <c r="AK43" s="3">
+      <c r="AL43" s="3">
         <v>66.418000000000006</v>
       </c>
-      <c r="AL43" s="3">
+      <c r="AM43" s="3">
         <v>-56.755000000000003</v>
       </c>
-      <c r="AM43" s="3">
+      <c r="AN43" s="3">
         <v>12.776</v>
       </c>
-      <c r="AN43" s="3">
+      <c r="AO43" s="3">
         <v>-10.1</v>
       </c>
-      <c r="AO43" s="3">
+      <c r="AP43" s="3">
         <v>4.1999999999999999E-8</v>
       </c>
     </row>
